--- a/scripts/translate/JSON_Translations.xlsx
+++ b/scripts/translate/JSON_Translations.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="1245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="1267">
   <si>
     <t>Identifier</t>
   </si>
@@ -334,7 +334,7 @@
     <t>Am nevoie de cazare</t>
   </si>
   <si>
-    <t>offerpage.needs</t>
+    <t>request.subtitle</t>
   </si>
   <si>
     <t>Am nevoie de:</t>
@@ -343,13 +343,13 @@
     <t>I need:</t>
   </si>
   <si>
-    <t>Мені потрібно:</t>
+    <t>мені потрібно:</t>
   </si>
   <si>
     <t>Мне нужно:</t>
   </si>
   <si>
-    <t>wanna.help</t>
+    <t>offer.subtitle</t>
   </si>
   <si>
     <t>Vreau să ajut cu:</t>
@@ -1078,2674 +1078,2740 @@
     <t>Thank you for your generosity. The resources you have provided have been recorded in the system and as soon as we allocate them, we will contact you.</t>
   </si>
   <si>
+    <t>Дякуємо вам за щедрість. Надані ресурсами зафіксовані в системі і як тільки ми їх виділимо, ми зв'яжемося з вами.</t>
+  </si>
+  <si>
+    <t>Благодарим вас за щедрость. Предоставленные вами ресурсы зафиксированы в системе и как только мы их выделим, мы свяжемся с вами.</t>
+  </si>
+  <si>
+    <t>signup.resources.request</t>
+  </si>
+  <si>
+    <t>Resursa solicitata:</t>
+  </si>
+  <si>
+    <t>Resource Required:</t>
+  </si>
+  <si>
+    <t>Необхідний ресурс:</t>
+  </si>
+  <si>
+    <t>Требуемый ресурс:</t>
+  </si>
+  <si>
+    <t>signup.resources.request.thankYouMessage</t>
+  </si>
+  <si>
+    <t>Îți mulțumim pentru mesajul transmis. Vom procesa cererea ta cât de repede posibil.</t>
+  </si>
+  <si>
+    <t>Thank you for your message. We will process your request as soon as possible.</t>
+  </si>
+  <si>
+    <t>Дякую за ваше повідомлення. Ми опрацюємо ваш запит якнайшвидше.</t>
+  </si>
+  <si>
+    <t>Спасибо за ваше сообщение. Мы обработаем ваш запрос как можно скорее.</t>
+  </si>
+  <si>
+    <t>signup.resources.fillInDetails</t>
+  </si>
+  <si>
+    <t>Completeaza detalii mai jos pentru fiecare resursa selectata:</t>
+  </si>
+  <si>
+    <t>Complete details below for each selected resource:</t>
+  </si>
+  <si>
+    <t>Заповніть деталі нижче для кожного вибраного ресурсу:</t>
+  </si>
+  <si>
+    <t>Заполните данные ниже для каждого выбранного ресурса:</t>
+  </si>
+  <si>
+    <t>signup.resources.thankYouMessage</t>
+  </si>
+  <si>
+    <t>Complete Details Below For Each Selected Resource:</t>
+  </si>
+  <si>
+    <t>Нижче наведена повна інформація для кожного вибраного ресурсу:</t>
+  </si>
+  <si>
+    <t>signup.resources.gdpr</t>
+  </si>
+  <si>
+    <t>Prin completarea formularului accept ca datele mele să fie procesate de Guvernul României. Cunosc faptul că Guvernul României prelucrează datele mele cu caracter personal în baza prevederilor regulamentului (UE) 2016/679</t>
+  </si>
+  <si>
+    <t>By completing the form I accept that my data may be processed by the Government of Romania. I acknowledge that the Government of Romania processes my personal data based on the provisions of Regulation (EU) 2016/679</t>
+  </si>
+  <si>
+    <t>Заповнюючи форму, я погоджуюсь з тим, що мої дані обробляються урядом Румунії. Я знаю, що уряд Румунії обробляє мої персональні дані відповідно до положень Регламенту (ЄС) 2016/679.</t>
+  </si>
+  <si>
+    <t>Заполняя форму, я соглашаюсь с тем, что мои данные могут обрабатываться правительством Румынии. Я подтверждаю, что правительство Румынии обрабатывает мои личные данные на основании положений Регламента (ЕС) 2016/679.</t>
+  </si>
+  <si>
+    <t>signup.userType.type</t>
+  </si>
+  <si>
+    <t>signup.userType.type.placeholder</t>
+  </si>
+  <si>
+    <t>Selectează tipul de utilizator</t>
+  </si>
+  <si>
+    <t>Select user type</t>
+  </si>
+  <si>
+    <t>Виберіть тип користувача</t>
+  </si>
+  <si>
+    <t>Выберите тип пользователя</t>
+  </si>
+  <si>
+    <t>signup.userType.business_name</t>
+  </si>
+  <si>
+    <t>Denumire</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Именование</t>
+  </si>
+  <si>
+    <t>signup.userType.business_name.required</t>
+  </si>
+  <si>
+    <t>Va rugăm introduceti numele companiei</t>
+  </si>
+  <si>
+    <t>Please enter the name of the company</t>
+  </si>
+  <si>
+    <t>Будь ласка, введіть назву компанії</t>
+  </si>
+  <si>
+    <t>Пожалуйста, введите название компании</t>
+  </si>
+  <si>
+    <t>signup.userType.first_name</t>
+  </si>
+  <si>
+    <t>Prenume</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Ім'я</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>signup.userType.first_name.required</t>
+  </si>
+  <si>
+    <t>Va rugăm introduceti prenumele</t>
+  </si>
+  <si>
+    <t>Please enter your first name</t>
+  </si>
+  <si>
+    <t>Будь ласка, введіть ваше ім'я</t>
+  </si>
+  <si>
+    <t>Пожалуйста, введите ваше имя</t>
+  </si>
+  <si>
+    <t>signup.userType.last_name</t>
+  </si>
+  <si>
+    <t>Nume</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Неправильний формат номера телефонурізвище</t>
+  </si>
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>signup.userType.last_name.required</t>
+  </si>
+  <si>
+    <t>Va rugam introduceti numele</t>
+  </si>
+  <si>
+    <t>Please enter your last name</t>
+  </si>
+  <si>
+    <t>Будь ласка, введіть ваше прізвище</t>
+  </si>
+  <si>
+    <t>Пожалуйста, введите свою фамилию</t>
+  </si>
+  <si>
+    <t>signup.userType.phone_number</t>
+  </si>
+  <si>
+    <t>Telefon de contact</t>
+  </si>
+  <si>
+    <t>Phone number</t>
+  </si>
+  <si>
+    <t>Номер телефону</t>
+  </si>
+  <si>
+    <t>Номер телефона</t>
+  </si>
+  <si>
+    <t>signup.userType.phone_number.invalid</t>
+  </si>
+  <si>
+    <t>Numărul de telefon in format invalid</t>
+  </si>
+  <si>
+    <t>Invalid phone number format</t>
+  </si>
+  <si>
+    <t>Неправильний формат номера телефону</t>
+  </si>
+  <si>
+    <t>Неверный формат номера телефона</t>
+  </si>
+  <si>
+    <t>signup.userType.phone_number.required</t>
+  </si>
+  <si>
+    <t>Va rugam introduceti numarul de telefon</t>
+  </si>
+  <si>
+    <t>Please enter your phone number</t>
+  </si>
+  <si>
+    <t>Будь ласка, введіть номер телефону</t>
+  </si>
+  <si>
+    <t>Пожалуйста введите ваш номер телефона</t>
+  </si>
+  <si>
+    <t>signup.userType.email</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Email address</t>
+  </si>
+  <si>
+    <t>Електронна адреса</t>
+  </si>
+  <si>
+    <t>Электронный адрес</t>
+  </si>
+  <si>
+    <t>signup.userType.email.invalid</t>
+  </si>
+  <si>
+    <t>Va rugam introduceti un email valid</t>
+  </si>
+  <si>
+    <t>Please enter a valid email address</t>
+  </si>
+  <si>
+    <t>Будь ласка, введіть дійсну адресу електронної пошти</t>
+  </si>
+  <si>
+    <t>Пожалуйста, введите действительный адрес электронной почты</t>
+  </si>
+  <si>
+    <t>signup.userType.email.required</t>
+  </si>
+  <si>
+    <t>Va rugam introduceti adresa de email</t>
+  </si>
+  <si>
+    <t>Please enter your email address</t>
+  </si>
+  <si>
+    <t>Будь ласка, введіть адресу електронної пошти</t>
+  </si>
+  <si>
+    <t>Пожалуйста, введите адрес электронной почты</t>
+  </si>
+  <si>
+    <t>signup.userType.identification_no</t>
+  </si>
+  <si>
+    <t>CUI/CIF</t>
+  </si>
+  <si>
+    <t>Tax Identification Code/Number</t>
+  </si>
+  <si>
+    <t>Код ЄДРПОУ</t>
+  </si>
+  <si>
+    <t>ИНН/ОГРН</t>
+  </si>
+  <si>
+    <t>signup.userType.identification_no.required</t>
+  </si>
+  <si>
+    <t>Va rugam introduceti CUI/CIF</t>
+  </si>
+  <si>
+    <t>Please enter the Tax Identification Code/Number</t>
+  </si>
+  <si>
+    <t>Будь ласка, введіть податковий номер</t>
+  </si>
+  <si>
+    <t>Пожалуйста, введите налоговый номер</t>
+  </si>
+  <si>
+    <t>signup.userType.password</t>
+  </si>
+  <si>
+    <t>signup.userType.password.required</t>
+  </si>
+  <si>
+    <t>Va rugam introduceti o parola</t>
+  </si>
+  <si>
+    <t>Please enter a password</t>
+  </si>
+  <si>
+    <t>Будь ласка, введіть пароль</t>
+  </si>
+  <si>
+    <t>Пожалуйста, введите пароль</t>
+  </si>
+  <si>
+    <t>signup.userType.re_password</t>
+  </si>
+  <si>
+    <t>Confirma parola</t>
+  </si>
+  <si>
+    <t>Confirm password</t>
+  </si>
+  <si>
+    <t>Підтвердити пароль</t>
+  </si>
+  <si>
+    <t>Подтверждение пароля</t>
+  </si>
+  <si>
+    <t>signup.userType.re_password.required</t>
+  </si>
+  <si>
+    <t>Va rugam confirmati parola</t>
+  </si>
+  <si>
+    <t>Please confirm your password</t>
+  </si>
+  <si>
+    <t>Будь ласка, підтвердіть свій пароль</t>
+  </si>
+  <si>
+    <t>Пожалуйста, подтвердите свой пароль</t>
+  </si>
+  <si>
+    <t>signup.userType.re_password.missmatch</t>
+  </si>
+  <si>
+    <t>Parola nu coincide</t>
+  </si>
+  <si>
+    <t>The password does not match</t>
+  </si>
+  <si>
+    <t>Пароль не збігається</t>
+  </si>
+  <si>
+    <t>Пароль не совпадает</t>
+  </si>
+  <si>
+    <t>unit.tons</t>
+  </si>
+  <si>
+    <t>tone</t>
+  </si>
+  <si>
+    <t>tons</t>
+  </si>
+  <si>
+    <t>Tone</t>
+  </si>
+  <si>
+    <t>тон</t>
+  </si>
+  <si>
+    <t>unit.persons</t>
+  </si>
+  <si>
+    <t>persoane</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>особи</t>
+  </si>
+  <si>
+    <t>лица</t>
+  </si>
+  <si>
+    <t>services.transport-goods</t>
+  </si>
+  <si>
+    <t>Transport marfă</t>
+  </si>
+  <si>
+    <t>Freight transportation</t>
+  </si>
+  <si>
+    <t>Вантажний транспорт</t>
+  </si>
+  <si>
+    <t>Грузовой транспорт</t>
+  </si>
+  <si>
+    <t>services.transport-people</t>
+  </si>
+  <si>
+    <t>Transport persoane</t>
+  </si>
+  <si>
+    <t>Passenger transportation</t>
+  </si>
+  <si>
+    <t>Пасажирські перевезення</t>
+  </si>
+  <si>
+    <t>Пассажирские перевозки</t>
+  </si>
+  <si>
+    <t>services.capacity</t>
+  </si>
+  <si>
+    <t>Capacitate:</t>
+  </si>
+  <si>
+    <t>Capacity:</t>
+  </si>
+  <si>
+    <t>Місткість:</t>
+  </si>
+  <si>
+    <t>Вместимость:</t>
+  </si>
+  <si>
+    <t>services.cooling</t>
+  </si>
+  <si>
+    <t>Refrigerare</t>
+  </si>
+  <si>
+    <t>Refrigeration</t>
+  </si>
+  <si>
+    <t>Охолодження</t>
+  </si>
+  <si>
+    <t>Охлаждение</t>
+  </si>
+  <si>
+    <t>services.transport</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Транспорт</t>
+  </si>
+  <si>
+    <t>services.description</t>
+  </si>
+  <si>
+    <t>Detalii</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Деталі</t>
+  </si>
+  <si>
+    <t>Подробности</t>
+  </si>
+  <si>
+    <t>services.driver-name</t>
+  </si>
+  <si>
+    <t>Nume șofer</t>
+  </si>
+  <si>
+    <t>Driver Name</t>
+  </si>
+  <si>
+    <t>Имя водителя</t>
+  </si>
+  <si>
+    <t>services.driver-ci</t>
+  </si>
+  <si>
+    <t>Serie și nr. buletin:</t>
+  </si>
+  <si>
+    <t>ID Series and No:</t>
+  </si>
+  <si>
+    <t>Серія і номер «внутрішнього» паспорта:</t>
+  </si>
+  <si>
+    <t>Серия и номер удостоверения личности:</t>
+  </si>
+  <si>
+    <t>services.car-plate</t>
+  </si>
+  <si>
+    <t>Număr mașină:</t>
+  </si>
+  <si>
+    <t>Car number:</t>
+  </si>
+  <si>
+    <t>Номер автомобіля:</t>
+  </si>
+  <si>
+    <t>Номер автомобиля:</t>
+  </si>
+  <si>
+    <t>services.available_seats</t>
+  </si>
+  <si>
+    <t>Număr de locuri in mașină</t>
+  </si>
+  <si>
+    <t>No of seats in the car</t>
+  </si>
+  <si>
+    <t>Кількість місць у машині</t>
+  </si>
+  <si>
+    <t>Количество мест в машине</t>
+  </si>
+  <si>
+    <t>services.has_disabled_access</t>
+  </si>
+  <si>
+    <t>Transport persoane cu dizabilități</t>
+  </si>
+  <si>
+    <t>Transportatio of people with disabilities</t>
+  </si>
+  <si>
+    <t>Перевезення людей з обмеженими можливостями</t>
+  </si>
+  <si>
+    <t>Перевозка людей с ограниченными возможностями</t>
+  </si>
+  <si>
+    <t>services.pets_allowed</t>
+  </si>
+  <si>
+    <t>Transport cu animale de companie</t>
+  </si>
+  <si>
+    <t>Transportation with pets</t>
+  </si>
+  <si>
+    <t>Перевезення з домашніми тваринами</t>
+  </si>
+  <si>
+    <t>Перевозка с домашними животными</t>
+  </si>
+  <si>
+    <t>services.from_county</t>
+  </si>
+  <si>
+    <t>De la judetul</t>
+  </si>
+  <si>
+    <t>From county</t>
+  </si>
+  <si>
+    <t>З повіту</t>
+  </si>
+  <si>
+    <t>Из уезда</t>
+  </si>
+  <si>
+    <t>services.to_county</t>
+  </si>
+  <si>
+    <t>Pana in judetul</t>
+  </si>
+  <si>
+    <t>To county</t>
+  </si>
+  <si>
+    <t>До повіту</t>
+  </si>
+  <si>
+    <t>В уезд</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Da</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Так</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Nu</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Ні</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>Adaugă</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>Додати</t>
+  </si>
+  <si>
+    <t>Добавить</t>
+  </si>
+  <si>
+    <t>services.transport-type.national</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>Національний</t>
+  </si>
+  <si>
+    <t>Национальный</t>
+  </si>
+  <si>
+    <t>describeTheResource</t>
+  </si>
+  <si>
+    <t>Descrieți resursa</t>
+  </si>
+  <si>
+    <t>Describe resource</t>
+  </si>
+  <si>
+    <t>Опишіть ресурс</t>
+  </si>
+  <si>
+    <t>Опишите ресурс</t>
+  </si>
+  <si>
+    <t>services.availability_interval_from</t>
+  </si>
+  <si>
+    <t>De la</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>Від</t>
+  </si>
+  <si>
+    <t>От</t>
+  </si>
+  <si>
+    <t>services.availability_interval_to</t>
+  </si>
+  <si>
+    <t>Până la</t>
+  </si>
+  <si>
+    <t>Until</t>
+  </si>
+  <si>
+    <t>До</t>
+  </si>
+  <si>
+    <t>services.weight_unit</t>
+  </si>
+  <si>
+    <t>Unitate de măsură</t>
+  </si>
+  <si>
+    <t>Unit of measure</t>
+  </si>
+  <si>
+    <t>Одиниця виміру</t>
+  </si>
+  <si>
+    <t>Единица измерения</t>
+  </si>
+  <si>
+    <t>services.county_coverage</t>
+  </si>
+  <si>
+    <t>Județ</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>Округ</t>
+  </si>
+  <si>
+    <t>Уезд</t>
+  </si>
+  <si>
+    <t>error.must.be.string</t>
+  </si>
+  <si>
+    <t>Valoarea introdusă trebuie contina caractere</t>
+  </si>
+  <si>
+    <t>The value must contain characters</t>
+  </si>
+  <si>
+    <t>Значення має містити символи</t>
+  </si>
+  <si>
+    <t>Значение должно содержать символы</t>
+  </si>
+  <si>
+    <t>error.must.be.time</t>
+  </si>
+  <si>
+    <t>Valoarea introdusă trebuie să fie tip oră:minute</t>
+  </si>
+  <si>
+    <t>The value must be in hour:minute format</t>
+  </si>
+  <si>
+    <t>Значення має бути година: хвилина</t>
+  </si>
+  <si>
+    <t>Значение должно быть в формате час:минута</t>
+  </si>
+  <si>
+    <t>error.must.be.date</t>
+  </si>
+  <si>
+    <t>Valoarea introdusă trebuie să fie tip dată</t>
+  </si>
+  <si>
+    <t>The value must be a date</t>
+  </si>
+  <si>
+    <t>Значення має бути датою</t>
+  </si>
+  <si>
+    <t>Значение должно быть датой</t>
+  </si>
+  <si>
+    <t>signup.products.header</t>
+  </si>
+  <si>
+    <t>Продукти</t>
+  </si>
+  <si>
+    <t>signup.products.food</t>
+  </si>
+  <si>
+    <t>Alimente</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Еда</t>
+  </si>
+  <si>
+    <t>signup.products.generalHygiene</t>
+  </si>
+  <si>
+    <t>Produse de igiena generala</t>
+  </si>
+  <si>
+    <t>General hygiene products</t>
+  </si>
+  <si>
+    <t>Засоби загальної гігієни</t>
+  </si>
+  <si>
+    <t>Средства общей гигиены</t>
+  </si>
+  <si>
+    <t>signup.products.feminineHygiene</t>
+  </si>
+  <si>
+    <t>Produse de igiena feminina</t>
+  </si>
+  <si>
+    <t>Women's hygiene products</t>
+  </si>
+  <si>
+    <t>Засоби жіночої гігієни</t>
+  </si>
+  <si>
+    <t>Средства женской гигиены</t>
+  </si>
+  <si>
+    <t>signup.products.textile</t>
+  </si>
+  <si>
+    <t>Imbracaminte si alte textile</t>
+  </si>
+  <si>
+    <t>Clothing and other textiles</t>
+  </si>
+  <si>
+    <t>Одяг та інші текстильні вироби</t>
+  </si>
+  <si>
+    <t>Одежда и другие текстильные изделия</t>
+  </si>
+  <si>
+    <t>signup.products.buildingMaterials</t>
+  </si>
+  <si>
+    <t>Materiale de constructii</t>
+  </si>
+  <si>
+    <t>Building materials</t>
+  </si>
+  <si>
+    <t>Будівельні матеріали</t>
+  </si>
+  <si>
+    <t>Строительные материалы</t>
+  </si>
+  <si>
+    <t>signup.products.tents</t>
+  </si>
+  <si>
+    <t>Corturi</t>
+  </si>
+  <si>
+    <t>Tents</t>
+  </si>
+  <si>
+    <t>Намети:</t>
+  </si>
+  <si>
+    <t>Палатки:</t>
+  </si>
+  <si>
+    <t>signup.products.product</t>
+  </si>
+  <si>
+    <t>Produs:</t>
+  </si>
+  <si>
+    <t>Product:</t>
+  </si>
+  <si>
+    <t>Продукт:</t>
+  </si>
+  <si>
+    <t>signup.products.qty</t>
+  </si>
+  <si>
+    <t>Cantitate:</t>
+  </si>
+  <si>
+    <t>Quantity:</t>
+  </si>
+  <si>
+    <t>Кількість:</t>
+  </si>
+  <si>
+    <t>Количество:</t>
+  </si>
+  <si>
+    <t>signup.products.packaging</t>
+  </si>
+  <si>
+    <t>Ambalaj:</t>
+  </si>
+  <si>
+    <t>Packaging:</t>
+  </si>
+  <si>
+    <t>Упаковка:</t>
+  </si>
+  <si>
+    <t>signup.products.expireDate</t>
+  </si>
+  <si>
+    <t>Data de expirare:</t>
+  </si>
+  <si>
+    <t>Expiration date:</t>
+  </si>
+  <si>
+    <t>Термін придатності:</t>
+  </si>
+  <si>
+    <t>Срок годности:</t>
+  </si>
+  <si>
+    <t>signup.products.location</t>
+  </si>
+  <si>
+    <t>Locatie resursa:</t>
+  </si>
+  <si>
+    <t>Location of the resource:</t>
+  </si>
+  <si>
+    <t>Місцезнаходження ресурсу:</t>
+  </si>
+  <si>
+    <t>Местонахождение ресурса:</t>
+  </si>
+  <si>
+    <t>signup.products.county</t>
+  </si>
+  <si>
+    <t>Judet</t>
+  </si>
+  <si>
+    <t>Повіт</t>
+  </si>
+  <si>
+    <t>signup.products.city</t>
+  </si>
+  <si>
+    <t>Localitate</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Місто</t>
+  </si>
+  <si>
+    <t>Город</t>
+  </si>
+  <si>
+    <t>signup.products.town</t>
+  </si>
+  <si>
+    <t>Oras</t>
+  </si>
+  <si>
+    <t>signup.products.clothing</t>
+  </si>
+  <si>
+    <t>Haine:</t>
+  </si>
+  <si>
+    <t>Clothes:</t>
+  </si>
+  <si>
+    <t>Одяг:</t>
+  </si>
+  <si>
+    <t>Одежда:</t>
+  </si>
+  <si>
+    <t>signup.products.female</t>
+  </si>
+  <si>
+    <t>Femei</t>
+  </si>
+  <si>
+    <t>Women</t>
+  </si>
+  <si>
+    <t>Жінки</t>
+  </si>
+  <si>
+    <t>Женщины</t>
+  </si>
+  <si>
+    <t>signup.products.male</t>
+  </si>
+  <si>
+    <t>Barbati</t>
+  </si>
+  <si>
+    <t>Men</t>
+  </si>
+  <si>
+    <t>Чоловіків</t>
+  </si>
+  <si>
+    <t>Мужчины</t>
+  </si>
+  <si>
+    <t>signup.products.children</t>
+  </si>
+  <si>
+    <t>Copii</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Діти</t>
+  </si>
+  <si>
+    <t>Дети</t>
+  </si>
+  <si>
+    <t>signup.products.children.age</t>
+  </si>
+  <si>
+    <t>Varsta:</t>
+  </si>
+  <si>
+    <t>Age:</t>
+  </si>
+  <si>
+    <t>Вік:</t>
+  </si>
+  <si>
+    <t>Возраст:</t>
+  </si>
+  <si>
+    <t>signup.products.blankets</t>
+  </si>
+  <si>
+    <t>Paturi</t>
+  </si>
+  <si>
+    <t>Beds</t>
+  </si>
+  <si>
+    <t>Ліжка</t>
+  </si>
+  <si>
+    <t>Кровати</t>
+  </si>
+  <si>
+    <t>signup.products.sheets</t>
+  </si>
+  <si>
+    <t>Cuverturi</t>
+  </si>
+  <si>
+    <t>Blankets</t>
+  </si>
+  <si>
+    <t>Ковдри</t>
+  </si>
+  <si>
+    <t>Одеяла</t>
+  </si>
+  <si>
+    <t>signup.products.sleepingBags</t>
+  </si>
+  <si>
+    <t>Saci de dormit</t>
+  </si>
+  <si>
+    <t>Sleeping bags</t>
+  </si>
+  <si>
+    <t>Спальні мішки</t>
+  </si>
+  <si>
+    <t>Спальные мешки</t>
+  </si>
+  <si>
+    <t>signup.products.others</t>
+  </si>
+  <si>
+    <t>Altele:</t>
+  </si>
+  <si>
+    <t>Other:</t>
+  </si>
+  <si>
+    <t>Другое:</t>
+  </si>
+  <si>
+    <t>signup.products.capacity</t>
+  </si>
+  <si>
+    <t>Ємкість:</t>
+  </si>
+  <si>
+    <t>signup.products.persons</t>
+  </si>
+  <si>
+    <t>люди</t>
+  </si>
+  <si>
+    <t>человека</t>
+  </si>
+  <si>
+    <t>signup.products.pleaseAddProduct</t>
+  </si>
+  <si>
+    <t>Nici un produs adaugat.</t>
+  </si>
+  <si>
+    <t>No products added.</t>
+  </si>
+  <si>
+    <t>Жодного продукту не додано.</t>
+  </si>
+  <si>
+    <t>Ни одного продукта не добавлено.</t>
+  </si>
+  <si>
+    <t>signup.products.description</t>
+  </si>
+  <si>
+    <t>Опис:</t>
+  </si>
+  <si>
+    <t>Описание:</t>
+  </si>
+  <si>
+    <t>error.availability.minOne</t>
+  </si>
+  <si>
+    <t>Trebuie să selectați minim o opțiune</t>
+  </si>
+  <si>
+    <t>Please select at least one option</t>
+  </si>
+  <si>
+    <t>Виберіть принаймні один варіант</t>
+  </si>
+  <si>
+    <t>Пожалуйста, выберите хотя бы один вариант</t>
+  </si>
+  <si>
+    <t>signup.products.unit_type</t>
+  </si>
+  <si>
+    <t>Unitate de măsură:</t>
+  </si>
+  <si>
+    <t>Unit of measure:</t>
+  </si>
+  <si>
+    <t>Одиниця:</t>
+  </si>
+  <si>
+    <t>Единица измерения:</t>
+  </si>
+  <si>
+    <t>error.capacity.required</t>
+  </si>
+  <si>
+    <t>Introduceți capacitatea</t>
+  </si>
+  <si>
+    <t>Enter the capacity</t>
+  </si>
+  <si>
+    <t>Введіть ємність</t>
+  </si>
+  <si>
+    <t>Введите емкость</t>
+  </si>
+  <si>
+    <t>error.refrigeration.required</t>
+  </si>
+  <si>
+    <t>Selectați dacă aveți posibilitatea de refrigerare</t>
+  </si>
+  <si>
+    <t>Select if you can refrigerate</t>
+  </si>
+  <si>
+    <t>Виберіть, чи можна охолодити</t>
+  </si>
+  <si>
+    <t>Выберите, можно ли охлаждать</t>
+  </si>
+  <si>
+    <t>error.transportType.required</t>
+  </si>
+  <si>
+    <t>Selectați tipul de transport</t>
+  </si>
+  <si>
+    <t>Select the type of transport</t>
+  </si>
+  <si>
+    <t>Виберіть вид транспорту</t>
+  </si>
+  <si>
+    <t>Выберите вид транспорта</t>
+  </si>
+  <si>
+    <t>error.county.required</t>
+  </si>
+  <si>
+    <t>Selectați un județ</t>
+  </si>
+  <si>
+    <t>Select a county</t>
+  </si>
+  <si>
+    <t>Виберіть повіт</t>
+  </si>
+  <si>
+    <t>Выберите уезд</t>
+  </si>
+  <si>
+    <t>error.driverName.required</t>
+  </si>
+  <si>
+    <t>Introduceți numele șoferului</t>
+  </si>
+  <si>
+    <t>Enter the driver's name</t>
+  </si>
+  <si>
+    <t>Введіть ім'я водія</t>
+  </si>
+  <si>
+    <t>Введите имя водителя</t>
+  </si>
+  <si>
+    <t>error.driverCI.required</t>
+  </si>
+  <si>
+    <t>Introduceți seria si numarul de buletin</t>
+  </si>
+  <si>
+    <t>Enter the ID series and number</t>
+  </si>
+  <si>
+    <t>Введіть серію та номер «внутрішнього» паспорта</t>
+  </si>
+  <si>
+    <t>Введите серию и номер удостоверения личности</t>
+  </si>
+  <si>
+    <t>error.driverContact.required</t>
+  </si>
+  <si>
+    <t>Introduceți numarul de telefon</t>
+  </si>
+  <si>
+    <t>Enter your phone number</t>
+  </si>
+  <si>
+    <t>Введіть свій номер телефону</t>
+  </si>
+  <si>
+    <t>Введите номер телефона</t>
+  </si>
+  <si>
+    <t>error.driverContact.invalid</t>
+  </si>
+  <si>
+    <t>Numarul de telefon este invalid</t>
+  </si>
+  <si>
+    <t>This phone number is invalid</t>
+  </si>
+  <si>
+    <t>Цей номер телефону недійсний</t>
+  </si>
+  <si>
+    <t>Номер телефона является недействительным</t>
+  </si>
+  <si>
+    <t>error.carRegistration.required</t>
+  </si>
+  <si>
+    <t>Introduceți numărul de înmatriculare al mașinii</t>
+  </si>
+  <si>
+    <t>Enter the car registration number</t>
+  </si>
+  <si>
+    <t>Введіть реєстраційний номер автомобіля</t>
+  </si>
+  <si>
+    <t>Введите регистрационный номер автомобиля</t>
+  </si>
+  <si>
+    <t>error.carRegistation.invalid</t>
+  </si>
+  <si>
+    <t>Numărul de înmatriculare trebuie să fie de forma B22BOM</t>
+  </si>
+  <si>
+    <t>The registration number must be in the B22BOM format</t>
+  </si>
+  <si>
+    <t>Реєстраційний номер має бути у формі B22BOM</t>
+  </si>
+  <si>
+    <t>Регистрационный номер должен быть в формате B22BOM.</t>
+  </si>
+  <si>
+    <t>error.driverCI.invalid</t>
+  </si>
+  <si>
+    <t>Seria și numărul de buletin trebuie să fie de forma XT555222</t>
+  </si>
+  <si>
+    <t>The ID series and number must be in the XT555222 format</t>
+  </si>
+  <si>
+    <t>Серійний номер і номер повинні бути у формі XT555222</t>
+  </si>
+  <si>
+    <t>Серия и номер должны быть в формате XT555222.</t>
+  </si>
+  <si>
+    <t>services.availability</t>
+  </si>
+  <si>
+    <t>Cât timp puteți aloca pentru aceste activități?</t>
+  </si>
+  <si>
+    <t>How much time can you spend on these activities?</t>
+  </si>
+  <si>
+    <t>Скільки часу ви можете витратити на ці дії?</t>
+  </si>
+  <si>
+    <t>Сколько времени вы можете потратить на эти занятия?</t>
+  </si>
+  <si>
+    <t>services.county.placeholder</t>
+  </si>
+  <si>
+    <t>Selectează un județ</t>
+  </si>
+  <si>
+    <t>Виберіть округ</t>
+  </si>
+  <si>
+    <t>error.must.be.number</t>
+  </si>
+  <si>
+    <t>Valoarea introdusă trebuie să fie un număr</t>
+  </si>
+  <si>
+    <t>The value must be a number</t>
+  </si>
+  <si>
+    <t>Значення має бути числом</t>
+  </si>
+  <si>
+    <t>Значение должно быть числом</t>
+  </si>
+  <si>
+    <t>error.integer</t>
+  </si>
+  <si>
+    <t>Valoarea introdusă trebuie să fie un număr întreg</t>
+  </si>
+  <si>
+    <t>The value must be an integer</t>
+  </si>
+  <si>
+    <t>Значення має бути цілим числом</t>
+  </si>
+  <si>
+    <t>Значение должно быть целым числом</t>
+  </si>
+  <si>
+    <t>error.must.be.boolean</t>
+  </si>
+  <si>
+    <t>Alegeți o opțiune</t>
+  </si>
+  <si>
+    <t>Choose an option</t>
+  </si>
+  <si>
+    <t>Виберіть варіант</t>
+  </si>
+  <si>
+    <t>Выберите вариант</t>
+  </si>
+  <si>
+    <t>services.driverContact</t>
+  </si>
+  <si>
+    <t>Număr de telefon</t>
+  </si>
+  <si>
+    <t>error.county.minOne</t>
+  </si>
+  <si>
+    <t>Trebuie să selectați minim un județ</t>
+  </si>
+  <si>
+    <t>You must select at least one county</t>
+  </si>
+  <si>
+    <t>Ви повинні вибрати принаймні однин округ</t>
+  </si>
+  <si>
+    <t>Вы должны выбрать хотя бы один уезд</t>
+  </si>
+  <si>
+    <t>error.quantity.minOne</t>
+  </si>
+  <si>
+    <t>Cantitatea trebuie sa fie mai mare sau egala cu 1</t>
+  </si>
+  <si>
+    <t>Quantity must be greater or equal to 1</t>
+  </si>
+  <si>
+    <t>Кількість має бути більше або дорівнювати 1</t>
+  </si>
+  <si>
+    <t>Количество должно быть больше или равно 1</t>
+  </si>
+  <si>
+    <t>controls.counties.selected</t>
+  </si>
+  <si>
+    <t>județe selectate</t>
+  </si>
+  <si>
+    <t>selected counties</t>
+  </si>
+  <si>
+    <t>вибрані округи</t>
+  </si>
+  <si>
+    <t>выбранные уезды</t>
+  </si>
+  <si>
+    <t>gdpr.consent</t>
+  </si>
+  <si>
+    <t>Prin completarea formularului accept ca datele mele să fie procesate de Departamentul pentru Situații de Urgență. Cunosc faptul că Departamentul pentru Situații de Urgență prelucrează datele mele cu caracter personal în baza prevederilor Regulamentului (UE) 2016/679.</t>
+  </si>
+  <si>
+    <t>By completing the Form I consent that my personal data may be processed by The Department for Emergency Situations. I acknowledge that the Department for Emergency Situations processes my personal data based on the provisions of Regulation (EU) 2016/679</t>
+  </si>
+  <si>
+    <t>Заповнюючи форму, я даю згоду на обробку моїх персональних даних Департаментом надзвичайних ситуацій. Я визнаю, що Департамент з надзвичайних ситуацій обробляє мої персональні дані відповідно до положень Регламенту (ЄС) 2016/679</t>
+  </si>
+  <si>
+    <t>Заполняя форму, я даю согласие на обработку моих персональных данных Департаментом по чрезвычайным ситуациям. Я подтверждаю, что Департамент по чрезвычайным ситуациям обрабатывает мои персональные данные на основании положений Регламента (ЕС) 2016/679.</t>
+  </si>
+  <si>
+    <t>signup.error.gdpr.required</t>
+  </si>
+  <si>
+    <t>Pentru a merge mai departe trebuie să vă dați acordul cu privire la procesarea datelor cu caracter personal</t>
+  </si>
+  <si>
+    <t>To proceed, you must agree to the processing of your personal data</t>
+  </si>
+  <si>
+    <t>Щоб продовжити, ви повинні погодитися на обробку ваших персональних даних</t>
+  </si>
+  <si>
+    <t>Чтобы продолжить, дайте согласие на обработку ваших персональных данных</t>
+  </si>
+  <si>
+    <t>cookie.policy.title</t>
+  </si>
+  <si>
+    <t>Politica de confidențialitate**</t>
+  </si>
+  <si>
+    <t>Privacy Policy**</t>
+  </si>
+  <si>
+    <t>Політика конфіденційності**</t>
+  </si>
+  <si>
+    <t>Политика конфиденциальности**</t>
+  </si>
+  <si>
+    <t>cookie.policy.p1</t>
+  </si>
+  <si>
+    <t>Acest website folosește cookie-uri pentru a furniza vizitatorilor o experiență mult mai bună de navigare și servicii adaptate nevoilor și interesului fiecăruia.</t>
+  </si>
+  <si>
+    <t>This website uses cookies in order to provide users with a better browsing experience as well as services tailored to their needs and interests.</t>
+  </si>
+  <si>
+    <t>Цей веб-сайт використовує файли cookie, щоб надати користувачам найкращий досвід перегляду, а також послуги, адаптовані до їхніх потреб та інтересів.</t>
+  </si>
+  <si>
+    <t>Этот веб-сайт использует файлы cookie, чтобы предоставить пользователям лучший опыт просмотра, а также услуги, адаптированные к их потребностям и интересам.</t>
+  </si>
+  <si>
+    <t>cookie.policy.p2</t>
+  </si>
+  <si>
+    <t>“Cookie“-urile au rolul de a facilita accesul și livrarea serviciilor folosite de utilizator de internet, cum ar fi personalizarea anumitor setări (limba, țara, prețuri afișate în moneda națională. “Cookie“-urile, pe baza informațiilor pe care le adună despre utilizatori, îi ajută pe deținătorii de site-uri să își eficientizeze produsul astfel încât acesta să fie cât mai ușor accesat de către utilizatori, de asemenea cresc gradul de eficiență a publicității online și nu în ultimul rând pot permite aplicațiilor multimedia sau de alt tip de pe alte site-uri să fie incluse într-un anumit site pentru a face navigarea mai utilă.</t>
+  </si>
+  <si>
+    <t>“Cookies” are used to facilitate access and delivery for the services required by Internet users such as personalizing settings (language, country, prices displayed in local currency etc.) “Cookies”, based on the information about users that they gather, help operators make their websites more effective so that they can be easier to access by users. They also make online advertising more effective and can help multimedia apps and content from other websites be more easily embedded, to make navigation easier.</t>
+  </si>
+  <si>
+    <t>"Cookies" використовуються для полегшення доступу та надання послуг, необхідних користувачам Інтернету, таких як персоналізація налаштувань (мова, країна, ціни, що відображаються у місцевій валюті тощо). "Cookies", що базуються на інформації про користувачів, яку вони збирають, допомагають операторам зробити свої веб-сайти більш ефективними, щоб користувачам було легше отримати доступ до них. Вони також роблять онлайн рекламу більш ефективною і можуть спростити вбудовування мультимедійних програм та контенту з інших веб-сайтів, щоб спростити навігацію.</t>
+  </si>
+  <si>
+    <t>«Cookies» используются для облегчения доступа и предоставления услуг, необходимых пользователям Интернета, таких как персонализация настроек (язык, страна, цены, отображаемые в местной валюте и т. д.). «Cookies», основанные на информации о пользователях, которую они собирают, помогают операторам сделать свои веб-сайты более эффективными, чтобы пользователям было легче получить к ним доступ. Они также делают онлайн-рекламу более эффективной и могут упростить встраивание мультимедийных приложений и контента с других веб-сайтов, чтобы упростить навигацию.</t>
+  </si>
+  <si>
+    <t>cookie.policy.whatiscookie.header</t>
+  </si>
+  <si>
+    <t>Ce este un “cookie“?</t>
+  </si>
+  <si>
+    <t>What is a “Cookie”?</t>
+  </si>
+  <si>
+    <t>Що таке Cookie?</t>
+  </si>
+  <si>
+    <t>Что такое «Cookie»?</t>
+  </si>
+  <si>
+    <t>cookie.policy.whatiscookie.p1</t>
+  </si>
+  <si>
+    <t>Cookie (“browser cookie“ sau “HTTP cookie“) este un fișier de mici dimensiuni, format din litere și numere, care este stocat pe orice terminal cu acces la internet (computer, telefon mobil, tabletă etc.) și este instalat prin solicitare emisă de către un web-server unui browser (ex: Internet Explorer, Chrome). De reținut: “Cookie“-urile nu conțin programe software, viruși sau spyware și nu pot accesa informațiile de pe hard drive-ul utilizatorului.</t>
+  </si>
+  <si>
+    <t>Cookie (\"browser cookie\" or \"HTTP cookie\") is a small file, a succession of letters and numbers, that is stored on any terminal with Internet access (computers, mobile phones, tablets etc.) and is installed upon a request from a server to a browser (ex: Internet Explorer, Chrome). “Cookies” do not contain any software programs, viruses or spyware and cannot access information on the user’s hard drive.</t>
+  </si>
+  <si>
+    <t>Файл cookie ("cookie-файл браузера" або "HTTP-cookie") - це невеликий файл, що є послідовністю букв і цифр, який зберігається на будь-якому терміналі з доступом в Інтернет (комп'ютери, мобільні телефони, планшети і т. д.) і встановлюється за запитом із сервера до браузера (наприклад, Internet Explorer, Chrome). "Cookies" не містять жодних програм, вірусів або шпигунських програм і не можуть отримати доступ до інформації на жорсткому диску користувача.</t>
+  </si>
+  <si>
+    <t>Файл cookie («cookie-файл браузера» или «HTTP-cookie») — это небольшой файл, представляющий собой последовательность букв и цифр, который хранится на любом терминале с доступом в Интернет (компьютеры, мобильные телефоны, планшеты и т. д.) и устанавливается по запросу с сервера в браузер (например, Internet Explorer, Chrome). «Cookies» не содержат никаких программ, вирусов или шпионских программ и не могут получить доступ к информации на жестком диске пользователя.</t>
+  </si>
+  <si>
+    <t>cookie.policy.whatiscookie.p2</t>
+  </si>
+  <si>
+    <t>Un cookie este format din nume și conținut, durata de existență a acestuia fiind determinată, putând fi accesat din nou de webserver în momentul în care un utilizator se întoarce pe website-ul asociat webserverului respectiv.</t>
+  </si>
+  <si>
+    <t>Cookie consists of a name and content, the length of its existence is limited, and it can be accessed again by the webserver when a user returns to the website associated with that server.</t>
+  </si>
+  <si>
+    <t>Файл cookie складається з імені та вмісту, тривалість його існування обмежена, і веб-сервер може знову отримати доступ до нього, коли користувач повертається на веб-сайт, пов'язаний з цим сервером.</t>
+  </si>
+  <si>
+    <t>Файл cookie состоит из имени и содержимого, продолжительность его существования ограничена, и веб-сервер может снова получить к нему доступ, когда пользователь возвращается на веб-сайт, связанный с этим сервером.</t>
+  </si>
+  <si>
+    <t>cookie.policy.whatiscookie.p3</t>
+  </si>
+  <si>
+    <t>Cookie-urile nu solicită informații cu caracter personal și nu identifică personal utilizatorii de internet.</t>
+  </si>
+  <si>
+    <t>Cookies do not request personal information nor do they personally identify internet users.</t>
+  </si>
+  <si>
+    <t>Файли cookie не запитують особисту інформацію та не ідентифікують користувачів Інтернету.</t>
+  </si>
+  <si>
+    <t>Файлы cookie не запрашивают личную информацию и не идентифицируют пользователей Интернета.</t>
+  </si>
+  <si>
+    <t>cookie.policy.whatiscookie.p4</t>
+  </si>
+  <si>
+    <t>Cookieuri de sesiune - acestea sunt stocate temporar în istoricul browser-ului care le memorează până când utilizatorul iese de pe web-siteul respectiv sau închide fereastra browserului.</t>
+  </si>
+  <si>
+    <t>Session cookies - are cookies temporarily stored in the browser’s history where they are stored until the user leaves that website or closes the browser window.</t>
+  </si>
+  <si>
+    <t>Сеансові файли cookie — це файли cookie, що тимчасово зберігаються в історії браузера, де вони зберігаються доти, доки користувач не покине цей веб-сайт або не закриє вікно браузера.</t>
+  </si>
+  <si>
+    <t>Сеансовые файлы cookie — это файлы cookie, временно хранящиеся в истории браузера, где они хранятся до тех пор, пока пользователь не покинет этот веб-сайт или не закроет окно браузера.</t>
+  </si>
+  <si>
+    <t>cookie.policy.whatiscookie.p5</t>
+  </si>
+  <si>
+    <t>Cookieuri Persistente - Acestea sunt stocate, în funcție de durata prestabilită, pe hard-drive-ul unui computer sau echipament. Cookie-urile persistente le includ și pe cele plasate de un alt website decât cel pe care îl vizitează utilizatorul la momentul respectiv - cunoscute sub numele de “third party cookies“ - care pot fi folosite în mod anonim pentru a memora interesele unui utilizator, astfel încât să fie livrată publicitate cât mai relevantă pentru utilizatori.</t>
+  </si>
+  <si>
+    <t>Persistent Cookies - These are stored, for a predetermined length of time, on a computer hard drive or similar equipment. Persistent cookies include those placed by a different website than the one the user is visiting at the time, so-called “third-party cookies”- that can be anonymously used to track a user’s interests - allowing them to receive ads more relevant to their interests.</t>
+  </si>
+  <si>
+    <t>Постійні файли cookie — вони зберігаються протягом певного періоду часу на жорсткому диску комп'ютера або аналогічному обладнанні. Постійні файли cookie включають файли, що розміщуються веб-сайтом, відмінним від того, який користувач відвідує в даний момент, так звані "сторонні файли cookie", які можуть анонімно використовуватися для відстеження інтересів користувача, що дозволяє їм отримувати рекламу більш відповідну їх інтересам.</t>
+  </si>
+  <si>
+    <t>Постоянные файлы cookie — они хранятся в течение заранее определенного периода времени на жестком диске компьютера или аналогичном оборудовании. Постоянные файлы cookie включают файлы, размещаемые веб-сайтом, отличным от того, который пользователь посещает в данный момент, так называемые «сторонние файлы cookie», которые могут анонимно использоваться для отслеживания интересов пользователя, что позволяет им получать рекламу, более соответствующую их интересам.</t>
+  </si>
+  <si>
+    <t>cookie.policy.p3.header</t>
+  </si>
+  <si>
+    <t>Care sunt avantajele cookie-urilor?</t>
+  </si>
+  <si>
+    <t>What are the advantages of “Cookies”?</t>
+  </si>
+  <si>
+    <t>Які переваги Cookies?</t>
+  </si>
+  <si>
+    <t>Каковы преимущества «Cookies»?</t>
+  </si>
+  <si>
+    <t>cookie.policy.p3.content</t>
+  </si>
+  <si>
+    <t>Un cookie conține informații care fac legătura între utilizatori și un anume website. Dacă un browser accesează acel web-server din nou, acesta poate citi informația deja stocată și reacționa în consecință.</t>
+  </si>
+  <si>
+    <t>A cookie contains information that connects users to a specific website. If a browser accesses the same server again it can read the information already stored in the cookie and react accordingly.</t>
+  </si>
+  <si>
+    <t>Файл cookie містить інформацію, яка пов'язує користувачів із певним веб-сайтом. Якщо браузер знову звертається до сервера, він може прочитати інформацію, вже збережену у файлі cookie, і відреагувати відповідним чином.</t>
+  </si>
+  <si>
+    <t>Файл cookie содержит информацию, которая связывает пользователей с определенным веб-сайтом. Если браузер снова обращается к тому же серверу, он может прочитать информацию, уже сохраненную в файле cookie, и отреагировать соответствующим образом.</t>
+  </si>
+  <si>
+    <t>cookie.policy.p4.header</t>
+  </si>
+  <si>
+    <t>Care este durata de viață a unui cookie?</t>
+  </si>
+  <si>
+    <t>What is the average lifespan of a cookie?</t>
+  </si>
+  <si>
+    <t>Який середній термін життя файлу cookie?</t>
+  </si>
+  <si>
+    <t>Каков средний срок жизни файла cookie?</t>
+  </si>
+  <si>
+    <t>cookie.policy.p4.content</t>
+  </si>
+  <si>
+    <t>Exista cookie-uri folosite exclusiv pentru o singură sesiune - acestea nu mai sunt reținute după ce utilizatorul iese de pe website. Cookie-uri permanente - sunt reținute și refolosite de fiecare dată când utilizatorul revine pe acel website, însă pot fi șterse oricând de utilizator.</t>
+  </si>
+  <si>
+    <t>There are cookies that are exclusively used for a single session - these are no longer stored after the user has left the website. Permanent cookies are stored and reused every time the user returns to that website but can be deleted at any time by the user.</t>
+  </si>
+  <si>
+    <t>Існують файли cookie, які використовуються виключно для одного сеансу – вони більше не зберігаються після того, як користувач залишив веб-сайт. Постійні файли cookie зберігаються і повторно використовуються щоразу, коли користувач повертається на цей веб-сайт, але може бути видалений користувачем у будь-який час.</t>
+  </si>
+  <si>
+    <t>Существуют файлы cookie, которые используются исключительно для одного сеанса — они больше не сохраняются после того, как пользователь покинул веб-сайт. Постоянные файлы cookie сохраняются и повторно используются каждый раз, когда пользователь возвращается на этот веб-сайт, но может быть удален пользователем в любое время.</t>
+  </si>
+  <si>
+    <t>cookie.policy.p5.header</t>
+  </si>
+  <si>
+    <t>Ce sunt cookie-urile plasate de terți?</t>
+  </si>
+  <si>
+    <t>What are third party cookies?</t>
+  </si>
+  <si>
+    <t>Що таке сторонні файли cookie?</t>
+  </si>
+  <si>
+    <t>Что такое сторонние файлы cookie?</t>
+  </si>
+  <si>
+    <t>cookie.policy.p5.content</t>
+  </si>
+  <si>
+    <t>Părți de conținut sau servicii pot fi plasate pe website-ul accesat, de către terțe părți prin intermediul bannerelor, boxurilor sau linkurilor - iar toate aceste instrumente pot conține cookie-uri. Ele se numesc “third party cookies“ pentru că nu sunt plasate de proprietarul website-ului respectiv, iar furnizorii terți se supun legilor îin vigoare și politicilor de confidențialitate ale deținătorului site-ului.</t>
+  </si>
+  <si>
+    <t>Some parts of the content or services on the accessed website can be placed there by third parties via banners, boxes or links - and all these instruments can contain cookies. These are called “third-party cookies” because they are not placed by the owner of the respective website, third party cookies do however have to abide by the law and by the site owner’s confidentiality policy.</t>
+  </si>
+  <si>
+    <t>Деякі частини контенту або послуг на веб-сайті, що відвідуються, можуть бути розміщені там третіми особами за допомогою банерів, блоків або посилань, і всі ці інструменти можуть містити файли cookie. Вони називаються «сторонніми файлами cookie», оскільки вони не розміщуються власником відповідного веб-сайту, однак сторонні файли cookie повинні дотримуватися закону та політики конфіденційності власника сайту.</t>
+  </si>
+  <si>
+    <t>Некоторые части контента или услуг на посещаемом веб-сайте могут быть размещены там третьими лицами с помощью баннеров, блоков или ссылок, и все эти инструменты могут содержать файлы cookie. Они называются «сторонними файлами cookie», поскольку они не размещаются владельцем соответствующего веб-сайта, однако сторонние файлы cookie должны соблюдать закон и политику конфиденциальности владельца сайта.</t>
+  </si>
+  <si>
+    <t>cookie.policy.p6.header</t>
+  </si>
+  <si>
+    <t>Cum sunt folosite cookie-urile de către acest site?</t>
+  </si>
+  <si>
+    <t>How does this website use cookies?</t>
+  </si>
+  <si>
+    <t>Як цей веб-сайт використовує файли cookie?</t>
+  </si>
+  <si>
+    <t>Как этот веб-сайт использует файлы cookie?</t>
+  </si>
+  <si>
+    <t>cookie.policy.p6.content</t>
+  </si>
+  <si>
+    <t>O vizită pe acest site poate plasa cookie-uri în scopuri de:</t>
+  </si>
+  <si>
+    <t>Upon visiting this website you may receive the following cookie types:</t>
+  </si>
+  <si>
+    <t>Під час відвідування цього веб-сайту ви можете отримувати такі типи файлів cookie:</t>
+  </si>
+  <si>
+    <t>При посещении этого веб-сайта вы можете получать следующие типы файлов cookie:</t>
+  </si>
+  <si>
+    <t>cookie.policy.type.general</t>
+  </si>
+  <si>
+    <t>Cookie-uri pentru analiza vizitatorilor</t>
+  </si>
+  <si>
+    <t>Cookies that are used to analyse general user data</t>
+  </si>
+  <si>
+    <t>Файли cookie, які використовуються для аналізу загальних даних користувача.</t>
+  </si>
+  <si>
+    <t>Файлы cookie, которые используются для анализа общих пользовательских данных.</t>
+  </si>
+  <si>
+    <t>cookie.policy.type.registration</t>
+  </si>
+  <si>
+    <t>Cookie-uri de înregistrare</t>
+  </si>
+  <si>
+    <t>Registration cookies</t>
+  </si>
+  <si>
+    <t>Реєстраційні файли cookie</t>
+  </si>
+  <si>
+    <t>Регистрационные файлы cookie</t>
+  </si>
+  <si>
+    <t>cookie.policy.type.thirdparty</t>
+  </si>
+  <si>
+    <t>Unele cookie-uri pot proveni de la terți.</t>
+  </si>
+  <si>
+    <t>Some cookies can be third-party cookies.</t>
+  </si>
+  <si>
+    <t>Деякі файли cookie можуть бути сторонніми файлами cookie.</t>
+  </si>
+  <si>
+    <t>Некоторые файлы cookie могут быть сторонними файлами cookie.</t>
+  </si>
+  <si>
+    <t>cookie.policy.type.general.content</t>
+  </si>
+  <si>
+    <t>De fiecare dată când un utilizator vizitează acest site softul de analytics furnizat de o terță parte generează un cookie de analiză a utilizatorului. Acest cookie ne spune dacă ați mai vizitat acest site până acum. Browser-ul ne va spune dacă aveți acest cookie, iar dacă nu, vom genera unul. Acesta permite monitorizarea utilizatorilor unici care ne vizitează și cât de des o fac. Acest cookie nu poate fi folosit pentru a identifica persoanele fizice, ele sunt folosite doar în scop statistic.</t>
+  </si>
+  <si>
+    <t>Every time a user visits this website the analytics software provided by a third-party generates a cookie used to analyze the user profile. This cookie tells us if you've ever visited this website before. The browser will let us know if you have this cookie installed, and if not, this cookie will be generated. This allows us to monitor the number of unique users visiting this website as well as how often they return. This cookie cannot be used to identify physical persons and it is only used for statistical purposes.</t>
+  </si>
+  <si>
+    <t>Щоразу, коли я використовую ваше відвідування цього веб-сайту, аналітичне програмне забезпечення, надане третьою стороною, створює файл cookie, який використовується для аналізу профілю користувача. Cookie повідомляє нам, чи ви коли-небудь відвідували цей веб-сайт раніше. Браузер повідомить нам, чи встановлений цей файл cookie, а якщо ні, він буде згенерований. Це дозволяє нам відстежувати кількість унікальних користувачів, які відвідують цей веб-сайт, а також те, як часто вони повертаються. Цей файл cookie не може використовуватись для ідентифікації фізичних осіб та використовується лише для статистичних цілей.</t>
+  </si>
+  <si>
+    <t>Каждый раз, когда я использую ваше посещение этого веб-сайта, аналитическое программное обеспечение, предоставленное третьей стороной, создает файл cookie, используемый для анализа профиля пользователя. Cookie сообщает нам, посещали ли вы когда-либо этот веб-сайт раньше. Браузер сообщит нам, установлен ли у вас этот файл cookie, а если нет, он будет сгенерирован. Это позволяет нам отслеживать количество уникальных пользователей, посещающих этот веб-сайт, а также то, как часто они возвращаются. Этот файл cookie не может использоваться для идентификации физических лиц и используется только для статистических целей.</t>
+  </si>
+  <si>
+    <t>cookie.policy.type.registration.content</t>
+  </si>
+  <si>
+    <t>When registering to this website, we generate a cookie with your registration data. The cookie helps us in the next steps for communicating with the server. It is possible for this cookie to remain on your device if you do not follow through with all the registration steps. However, this cookie will be overwritten the next time you attempt to register on this website.</t>
+  </si>
+  <si>
+    <t>При реєстрації на цьому веб-сайті ми генеруємо файл cookie із вашими реєстраційними даними. Файл cookie допомагає нам на наступних етапах зв'язку із сервером. Цей файл cookie може залишитися на вашому пристрої, якщо ви не виконуєте всі кроки реєстрації. Однак цей файл cookie буде перезаписано за наступної спроби зареєструватися на цьому веб-сайті.</t>
+  </si>
+  <si>
+    <t>При регистрации на этом веб-сайте мы генерируем файл cookie с вашими регистрационными данными. Файл cookie помогает нам на следующих этапах связи с сервером. Этот файл cookie может остаться на вашем устройстве, если вы не выполните все шаги регистрации. Однако этот файл cookie будет перезаписан при следующей попытке зарегистрироваться на этом веб-сайте.</t>
+  </si>
+  <si>
+    <t>cookie.policy.type.thirdparty.content</t>
+  </si>
+  <si>
+    <t>Pe unele pagini, terții pot seta propriile cookie-uri anonime, în scopul de a urmări succesul unei aplicații, sau pentru a customiza o aplicație. Datorită modului de utilizare, acest site nu poate accesa aceste cookie-uri, la fel cum terțele părți nu pot accesa cookie-urile deținute de acest site. De exemplu, când distribuiți o pagină folosind butonul pentru rețelele sociale aflat pe acest site, acea rețea socială va înregistra activitatea dvs.</t>
+  </si>
+  <si>
+    <t>On some pages third parties can set up their own anonymous cookies for purposes of tracking an app’s success rate, or for customizing that app. Due to the way it is used, this website cannot access these cookies, just as third parties cannot access the cookies that belong to this website. For example when you share a page using a “share to social network” button on this website, that social network can track your activity.</t>
+  </si>
+  <si>
+    <t>На деяких сторінках треті особи можуть встановлювати власні анонімні файли cookie для відстеження успішності програми або для налаштування цієї програми. Через те, що він використовується, цей веб-сайт не може отримати доступ до цих файлів cookie, так само як треті сторони не можуть отримати доступ до файлів cookie, що належать цьому веб-сайту. Наприклад, коли ви ділитеся сторінкою за допомогою кнопки «Поділитися в соціальній мережі» на цьому веб-сайті, ця соціальна мережа може відстежувати вашу активність.</t>
+  </si>
+  <si>
+    <t>На некоторых страницах третьи лица могут устанавливать свои собственные анонимные файлы cookie для отслеживания успешности приложения или для настройки этого приложения. Из-за того, как он используется, этот веб-сайт не может получить доступ к этим файлам cookie, так же как третьи стороны не могут получить доступ к файлам cookie, принадлежащим этому веб-сайту. Например, когда вы делитесь страницей с помощью кнопки «Поделиться в социальной сети» на этом веб-сайте, эта социальная сеть может отслеживать вашу активность.</t>
+  </si>
+  <si>
+    <t>cookie.policy.p7.header</t>
+  </si>
+  <si>
+    <t>Ce tip de informații sunt stocate și accesate prin intermediul cookie-urilor?</t>
+  </si>
+  <si>
+    <t>What kind of information is stored and accessed through cookies?</t>
+  </si>
+  <si>
+    <t>Яка інформація зберігається та доступна через файли cookie?</t>
+  </si>
+  <si>
+    <t>Какая информация хранится и доступна через файлы cookie?</t>
+  </si>
+  <si>
+    <t>cookie.policy.p7.content</t>
+  </si>
+  <si>
+    <t>Cookie-urile păstrează informații într-un fișier text de mici dimensiuni care permit unui website să recunoască un browser. Webserver-ul va recunoaște browserul până când cookie-ul expiră sau este șters. Cookie-ul stochează informații importante care îmbunătățesc experiența de navigare pe Internet (ex: un număr de ordine pentru donația ta).</t>
+  </si>
+  <si>
+    <t>Cookies save information in a small text file allowing a website to recognize a browser. The web server will recognize the browser up until the cookie expires or is deleted. The cookie stores important information that improve the browsing experience (e.g. a serial number for your donation)</t>
+  </si>
+  <si>
+    <t>Файли cookie зберігають інформацію в невеликому текстовому файлі, який дозволяє веб-сайту розпізнавати браузер. Веб-сервер розпізнаватиме браузер доти, доки не закінчиться термін дії файлу cookie або він не буде видалений. Файл cookie зберігає важливу інформацію, яка покращує роботу в Інтернеті (наприклад, серійний номер вашої пожертвування).</t>
+  </si>
+  <si>
+    <t>Файлы cookie сохраняют информацию в небольшом текстовом файле, позволяющем веб-сайту распознавать браузер. Веб-сервер будет распознавать браузер до тех пор, пока не истечет срок действия файла cookie или он не будет удален. Файл cookie хранит важную информацию, которая улучшает работу в Интернете (например, серийный номер вашего пожертвования).</t>
+  </si>
+  <si>
+    <t>cookie.policy.p8.header</t>
+  </si>
+  <si>
+    <t>De ce sunt cookie-urile importante pentru Internet?</t>
+  </si>
+  <si>
+    <t>Why are cookies important to the Internet?</t>
+  </si>
+  <si>
+    <t>Чому важливі файли cookie для Інтернету?</t>
+  </si>
+  <si>
+    <t>Почему файлы cookie важны для Интернета?</t>
+  </si>
+  <si>
+    <t>cookie.policy.p8.content</t>
+  </si>
+  <si>
+    <t>Cookie-urile reprezintă punctul central al funcționării eficiente a Internetului, ajutând la generarea unei experiențe de navigare prietenoase și adaptată preferințelor și intereselor fiecărui utilizator. Refuzarea sau dezactivarea cookieurilor poate face unele site-uri imposibil de folosit.</t>
+  </si>
+  <si>
+    <t>Cookies are one of the most important tools for a seamless, efficient Internet experience, helping to generate friendly browsing experiences tailored to the needs of every user. Refusing to accept cookies or deactivating them can make some websites impossible to use.</t>
+  </si>
+  <si>
+    <t>Файли cookie є одним з найважливіших інструментів для безперешкодного та ефективного використання Інтернету, допомагаючи створювати зручні умови перегляду, адаптовані до потреб кожного користувача. Відмова від прийому файлів cookie або їх деактивація можуть унеможливити використання деяких веб-сайтів.</t>
+  </si>
+  <si>
+    <t>Файлы cookie являются одним из наиболее важных инструментов для беспрепятственного и эффективного использования Интернета, помогая создавать удобные условия просмотра, адаптированные к потребностям каждого пользователя. Отказ от приема файлов cookie или их деактивация могут сделать невозможным использование некоторых веб-сайтов.</t>
+  </si>
+  <si>
+    <t>cookie.policy.p9</t>
+  </si>
+  <si>
+    <t>Refuzarea sau dezactivarea cookie-urilor nu înseamnă că nu veți mai primi publicitate online - ci doar că aceasta nu va mai putea ține cont de preferințele și interesele dvs, evidențiate prin comportamentul de navigare.</t>
+  </si>
+  <si>
+    <t>Refusing to accept cookies or deactivating them does not mean that you will no longer receive online ads, only that these ads will no longer take your interests or preferences into account as determined by your browsing behavior.</t>
+  </si>
+  <si>
+    <t>Відмова приймати файли cookie або їх деактивація не означає, що ви більше не отримуватимете онлайн-рекламу, а лише те, що ця реклама більше не враховуватиме ваші інтереси або переваги, що визначаються вашою поведінкою в Інтернеті.</t>
+  </si>
+  <si>
+    <t>Отказ принимать файлы cookie или их деактивация не означает, что вы больше не будете получать онлайн-рекламу, а только то, что эта реклама больше не будет учитывать ваши интересы или предпочтения, определяемые вашим поведением в Интернете.</t>
+  </si>
+  <si>
+    <t>cookie.policy.security.header</t>
+  </si>
+  <si>
+    <t>Securitate și probleme legate de confidențialitate</t>
+  </si>
+  <si>
+    <t>Security and confidentiality concerns</t>
+  </si>
+  <si>
+    <t>Питання безпеки та конфіденційності</t>
+  </si>
+  <si>
+    <t>Вопросы безопасности и конфиденциальности</t>
+  </si>
+  <si>
+    <t>cookie.policy.security.p1</t>
+  </si>
+  <si>
+    <t>Cookie-urile NU sunt viruși! Ele folosesc formate tip plain text. Nu sunt alcătuite din bucăți de cod așa că nu pot fi executate nici nu pot auto-rula. În consecință, nu se pot duplica sau replica pe alte rețele pentru a se rula sau replica din nou. Deoarece nu pot îndeplini aceste funcții, nu pot fi considerate viruși.</t>
+  </si>
+  <si>
+    <t>Cookies are NOT viruses! They use plain text formats. They do not contain code strings and therefore cannot be triggered remotely nor can they activate themselves. They cannot duplicate or self-replicate across networks. As they cannot do any of the above that cannot be considered viruses.</t>
+  </si>
+  <si>
+    <t>Файли cookie не є вірусами! Вони використовують звичайні текстові формати. Вони не містять рядки коду і, отже, не можуть бути запущені віддалено і не можуть активуватися власними силами. Вони не можуть дублюватися або відтворюватися в мережі. Оскільки вони не можуть робити нічого з перерахованого вище, це не можна вважати вірусами.</t>
+  </si>
+  <si>
+    <t>Файлы cookie НЕ являются вирусами! Они используют простые текстовые форматы. Они не содержат строки кода и, следовательно, не могут быть запущены удаленно и не могут активироваться сами по себе. Они не могут дублироваться или самовоспроизводиться в сети. Поскольку они не могут делать ничего из вышеперечисленного, это нельзя считать вирусами.</t>
+  </si>
+  <si>
+    <t>cookie.policy.security.p2</t>
+  </si>
+  <si>
+    <t>Cookie-urile pot fi totuși folosite pentru scopuri negative. Deoarece stochează informații despre preferințele și istoricul de navigare al utilizatorilor, atât pe un anume site cât și pe mai multe alte siteuri, cookieurile pot fi folosite ca o formă de Spyware. Multe produse anti-spyware sunt conștiente de acest fapt și în mod constant marchează cookie-urile pentru a fi șterse în cadrul procedurilor de ștergere/scanare anti-virus/anti-spyware.</t>
+  </si>
+  <si>
+    <t>However, some cookies can be used for bad purposes. As they can store user preferences and navigation history, both from a specific website and for a broad selection of sites, cookies can be used as a form of spyware. Many anti-spyware products know this and constantly mark cookies to be deleted as part of anti-virus or anti-spyware scans.</t>
+  </si>
+  <si>
+    <t>Тим не менш, деякі файли cookie можуть використовуватись у поганих цілях. Оскільки вони можуть зберігати налаштування користувача та історію відвідувань як з певного веб-сайту, так і для широкого кола сайтів, файли cookie можуть використовуватися як форма шпигунського ПЗ. Багато антишпигунських продуктів знають про це і постійно помічають файли cookie для видалення в рамках антивірусного або антишпигунського сканування.</t>
+  </si>
+  <si>
+    <t>Тем не менее, некоторые файлы cookie могут использоваться в плохих целях. Поскольку они могут хранить пользовательские настройки и историю посещений как с определенного веб-сайта, так и для широкого круга сайтов, файлы cookie могут использоваться как форма шпионского ПО. Многие антишпионские продукты знают об этом и постоянно помечают файлы cookie для удаления в рамках антивирусного или антишпионского сканирования.</t>
+  </si>
+  <si>
+    <t>cookie.policy.security.p3</t>
+  </si>
+  <si>
+    <t>În general browserele au integrate setari de confidențialitate care furnizează diferite nivele de acceptare a cookieurilor, perioada de valabilitate și ștergere automată dupa ce utilizatorul a vizitat un anumit site.</t>
+  </si>
+  <si>
+    <t>Most browsers have privacy settings allowing you to select the types of cookies to accept, their duration as well as auto-delete features that remove cookies once the user has visited a certain site.</t>
+  </si>
+  <si>
+    <t>У більшості браузерів є налаштування конфіденційності, що дозволяють вам вибирати типи файлів cookie, їх тривалість, а також функції автоматичного видалення, які видаляють файли cookie після відвідування користувачем певного сайту.</t>
+  </si>
+  <si>
+    <t>В большинстве браузеров есть настройки конфиденциальности, позволяющие вам выбирать типы принимаемых файлов cookie, их продолжительность, а также функции автоматического удаления, которые удаляют файлы cookie после посещения пользователем определенного сайта.</t>
+  </si>
+  <si>
+    <t>cookie.policy.other.header</t>
+  </si>
+  <si>
+    <t>Alte aspecte de securitate legate de cookie-uri</t>
+  </si>
+  <si>
+    <t>Other Cookies security aspects</t>
+  </si>
+  <si>
+    <t>Інші аспекти безпеки файлів cookie</t>
+  </si>
+  <si>
+    <t>Другие аспекты безопасности файлов cookie</t>
+  </si>
+  <si>
+    <t>cookie.policy.other.p1</t>
+  </si>
+  <si>
+    <t>Deoarece protecția identității este foarte valoroasă și reprezintă dreptul fiecărui utilizator de internet, este indicat să se știe ce eventuale probleme pot crea cookieurile. Pentru că prin intermediul lor se transmit în mod constant în ambele sensuri informații între browser și website, dacă un atacator sau persoana neautorizată intervine în parcursul de transmitere a datelor, informațiile conținute de cookie pot fi interceptate. Deși foarte rar, acest lucru se poate întâmpla dacă browserul se conectează la server folosind o rețea necriptată (ex: o rețea WiFi nesecurizată).</t>
+  </si>
+  <si>
+    <t>As identity protection is very important and represents the right of every internet user, it is important for you to know what potential problems may be caused by cookies. Because cookies are used to constantly transmit information both ways between the browser and the website, unauthorised persons looking to compromise your security may intercept the information contained by cookies. Although this is very rare it can happen if your browser accesses the website by using an unencrypted network (e.g. an unsecured Wifi network).</t>
+  </si>
+  <si>
+    <t>Оскільки захист особистих даних дуже важливий і є правом кожного користувача Інтернету, вам важливо знати, які потенційні проблеми можуть бути викликані файлами cookie. Оскільки файли cookie використовуються для постійної передачі інформації в обох напрямках між браузером та веб-сайтом, сторонні особи, які намагаються поставити під загрозу вашу безпеку, можуть перехопити інформацію, яка міститься у файлах cookie. Хоча це дуже рідко, це може статися, якщо ваш браузер звертається на веб-сайт через незашифровану мережу (наприклад, незахищену мережу Wi-Fi).</t>
+  </si>
+  <si>
+    <t>Поскольку защита личных данных очень важна и представляет собой право каждого пользователя Интернета, вам важно знать, какие потенциальные проблемы могут быть вызваны файлами cookie. Поскольку файлы cookie используются для постоянной передачи информации в обоих направлениях между браузером и веб-сайтом, посторонние лица, пытающиеся поставить под угрозу вашу безопасность, могут перехватить информацию, содержащуюся в файлах cookie. Хотя это очень редко, это может произойти, если ваш браузер обращается к веб-сайту через незашифрованную сеть (например, незащищенную сеть Wi-Fi).</t>
+  </si>
+  <si>
+    <t>cookie.policy.other.p2</t>
+  </si>
+  <si>
+    <t>Alte atacuri bazate pe cookie implică setări greșite ale cookieurilor pe servere. Dacă un website nu solicită browserului să folosească doar canale criptate, atacatorii pot folosi această vulnerabilitate pentru a păcăli browserele în a trimite informații prin intermediul canalelor nesecurizate. Atacatorii utilizează apoi informațiile în scopuri de a accesa neautorizat anumite site-uri. Este foarte important să fiți atenți în alegerea metodei celei mai potrivite de protecție a informațiilor personale.</t>
+  </si>
+  <si>
+    <t>Other cookie-based attacks use wrong cookie settings on servers. If a website does not ask the browser to use encrypted channels only, attackers can use this vulnerability to trick browsers into sending information via unencrypted channels. Attackers then use this information to access unauthorised websites. It is very important to take great care in choosing the right methods of protecting your personal information.</t>
+  </si>
+  <si>
+    <t>Інші атаки на основі файлів cookie використовують неправильні налаштування файлів cookie на серверах. Якщо веб-сайт не просить браузер використовувати лише зашифровані канали, зловмисники можуть використовувати цю вразливість, щоб змусити браузери надсилати інформацію незашифрованими каналами. Потім зловмисники використовують цю інформацію для доступу до несанкціонованих веб-сайтів. Дуже важливо виявляти велику обережність під час вибору правильних методів захисту вашої особистої інформації.</t>
+  </si>
+  <si>
+    <t>Другие атаки на основе файлов cookie используют неправильные настройки файлов cookie на серверах. Если веб-сайт не просит браузер использовать только зашифрованные каналы, злоумышленники могут использовать эту уязвимость, чтобы заставить браузеры отправлять информацию по незашифрованным каналам. Затем злоумышленники используют эту информацию для доступа к несанкционированным веб-сайтам. Очень важно проявлять большую осторожность при выборе правильных методов защиты вашей личной информации.</t>
+  </si>
+  <si>
+    <t>cookie.policy.advice.header</t>
+  </si>
+  <si>
+    <t>Sfaturi pentru o navigare sigură și responsabilă, bazată pe cookies</t>
+  </si>
+  <si>
+    <t>Advice for safe and responsible cookie-based browsing</t>
+  </si>
+  <si>
+    <t>Поради щодо безпечного та відповідального пошуку з файлами cookie</t>
+  </si>
+  <si>
+    <t>Советы по безопасному и ответственному поиску с файлами cookie</t>
+  </si>
+  <si>
+    <t>cookie.policy.advice.p1</t>
+  </si>
+  <si>
+    <t>Datorită flexibilitatii lor și a faptului ca majoritatea dintre cele mai vizitate site-uri și cele mai mari folosesc cookieuri, acestea sunt aproape inevitabile.</t>
+  </si>
+  <si>
+    <t>Because of their flexibility and the fact that the majority of the largest and most visited websites use cookies, they are inevitable.</t>
+  </si>
+  <si>
+    <t>Через гнучкість і той факт, що більшість найбільших і найбільш відвідуваних веб-сайтів використовують файли cookie, вони є неминучими.</t>
+  </si>
+  <si>
+    <t>Из-за гибкости и тому факту, что большинство крупнейших и наиболее посещаемых веб-сайтов используют файлы cookie, они неизбежны.</t>
+  </si>
+  <si>
+    <t>cookie.policy.advice.p2</t>
+  </si>
+  <si>
+    <t>Dezactivarea cookie-urilor nu va permite accesul utilizatorului pe site-urile cele mai răspândite și utilizate printre care Youtube, Gmail, Yahoo și altele. Iată câteva sfaturi care vă pot asigura că navigați fără griji însă cu ajutorul cookie-urilor:</t>
+  </si>
+  <si>
+    <t>Deactivating cookies will no longer allow user access to some of the most important websites such as Youtube, Gmail, Yahoo and others. Here's some advice that can help you browse safely while retaining cookies:</t>
+  </si>
+  <si>
+    <t>Вимкнення файлів cookie більше не дозволить користувачеві отримати доступ до деяких найважливіших веб-сайтів, таких як Youtube, Gmail, Yahoo та інших. Ось кілька порад, які допоможуть вам безпечно переглядати веб-сторінки із збереженням файлів cookie:</t>
+  </si>
+  <si>
+    <t>Отключение файлов cookie больше не позволит пользователю получить доступ к некоторым наиболее важным веб-сайтам, таким как Youtube, Gmail, Yahoo и другим. Вот несколько советов, которые помогут вам безопасно просматривать веб-страницы с сохранением файлов cookie:</t>
+  </si>
+  <si>
+    <t>cookie.policy.advice.p1.1</t>
+  </si>
+  <si>
+    <t>Particularizați-vă setările browserului în ceea ce privește cookie-urile pentru a reflecta un nivel confortabil pentru voi al securității utilizării cookie-urilor. Dacă nu vă deranjează cookie-urile și sunteți singura persoană care utilizează computerul, puteți seta termene lungi de expirare pentru stocarea istoricului de navigare și al datelor personale de acces. Dacă împărțiți accesul la calculator, puteți lua în considerare setarea browserului pentru a șterge datele individuale de navigare de fiecare dată când închideți browserul. Aceasta este o variantă de a accesa site-urile care plasează cookie-uri și de a șterge orice informație de vizitare la închiderea sesiunii navigare.</t>
+  </si>
+  <si>
+    <t>Customize your browser cookie settings to allow for a comfortable security level. If cookies are not a problem for you and you are the only person using that device you can set long cookie retention intervals in order to store your browsing history and your personal access data. If you share the device or computer you may want to set up the browser to delete your individual browsing data every time it is closed. This is one way to access websites that place cookies on your shared computer while deleting all your browsing data when closing the session.</t>
+  </si>
+  <si>
+    <t>Налаштуйте параметри файлів cookie вашого браузера, щоб забезпечити зручний рівень безпеки. Якщо файли cookie не представляють вам проблеми і ви є єдиною людиною, яка використовує цей пристрій, ви можете встановити тривалі інтервали зберігання файлів cookie, щоб зберегти історію переглядів та ваші особисті дані доступу. Якщо ви ділитеся пристроєм або комп'ютером, ви можете налаштувати браузер так, щоб він видаляв ваші індивідуальні дані перегляду щоразу, коли він закривається. Це один із способів отримати доступ до веб-сайтів, які розміщують файли cookie на загальному комп'ютері, видаляючи всі дані перегляду при закритті сеансу.</t>
+  </si>
+  <si>
+    <t>Настройте параметры файлов cookie вашего браузера, чтобы обеспечить удобный уровень безопасности. Если файлы cookie не представляют для вас проблемы и вы являетесь единственным человеком, использующим это устройство, вы можете установить длительные интервалы хранения файлов cookie, чтобы сохранить историю просмотров и ваши личные данные доступа. Если вы делитесь устройством или компьютером, вы можете настроить браузер так, чтобы он удалял ваши индивидуальные данные просмотра каждый раз, когда он закрывается. Это один из способов получить доступ к веб-сайтам, которые размещают файлы cookie на вашем общем компьютере, удаляя при этом все данные просмотра при закрытии сеанса.</t>
+  </si>
+  <si>
+    <t>cookie.policy.advice.p1.2</t>
+  </si>
+  <si>
+    <t>Instalați-vă și updatați-vă constant aplicații antispyware.</t>
+  </si>
+  <si>
+    <t>Install and update regularly anti-spyware apps.</t>
+  </si>
+  <si>
+    <t>Встановіть антишпигунську програму та регулярно оновлюйте її</t>
+  </si>
+  <si>
+    <t>Установите антишпионское приложение и регулярно обновляйте его</t>
+  </si>
+  <si>
+    <t>cookie.policy.advice.p1.3</t>
+  </si>
+  <si>
+    <t>Multe dintre aplicațiile de detectare și prevenire a spyware-ului includ detectarea atacurilor pe site-uri. Astfel, impiedică browserul de la a accesa website-uri care ar putea să exploateze vulnerabilitățile browserului sau să descarce software periculos. Asigurați-vă că aveți browserul mereu updatat. Multe dintre atacurile bazate pe cookies se realizează exploatând punctele slabe ale versiunilor vechi ale browserelor.</t>
+  </si>
+  <si>
+    <t>Many anti-spyware apps include website attack detection. These apps prevent the browser from accessing websites that might exploit the browser’s vulnerabilities or download dangerous software. Ensure your browser is up-to-date. Many cookie-based attacks exploit the weak points of old browser versions.</t>
+  </si>
+  <si>
+    <t>Багато антишпигунських програм включають виявлення атак на веб-сайти. Ці програми запобігають доступу браузера до веб-сайтів, які можуть використовувати вразливість браузера або завантажувати небезпечні програми. Переконайтеся, що ваш браузер оновлено. Багато атак на основі файлів cookie використовують слабкі місця старих версій браузерів.</t>
+  </si>
+  <si>
+    <t>Многие антишпионские приложения включают обнаружение атак на веб-сайты. Эти приложения предотвращают доступ браузера к веб-сайтам, которые могут использовать уязвимости браузера или загружать опасные программы. Убедитесь, что ваш браузер обновлен. Многие атаки на основе файлов cookie используют слабые места старых версий браузеров.</t>
+  </si>
+  <si>
+    <t>cookie.policy.advice.p3</t>
+  </si>
+  <si>
+    <t>Cookie-urile sunt pretutindeni și nu pot fi evitate dacă doriți să vă bucurați de acces pe cele mai bune și cele mai mari site-uri de pe Internet - locale sau internaționale. Cu o înțelegere clară a modului lor de operare și a beneficiilor pe care le aduc, puteți lua măsurile necesare de securitate astel încât să puteți naviga cu încredere pe internet.</t>
+  </si>
+  <si>
+    <t>Cookies are everywhere and cannot be avoided if you wish to access some of the largest and best websites on the internet, either local or international. The clear understanding of the way cookies work and the benefits they bring you can take the necessary security measures so that you always have a safe and satisfactory browsing experience.</t>
+  </si>
+  <si>
+    <t>Файли cookie є скрізь, і їх не можна уникнути, якщо ви хочете отримати доступ до деяких з найбільших та найкращих веб-сайтів в Інтернеті, як місцевих, так і міжнародних. Чітке розуміння того, як працюють файли cookie та які переваги вони приносять, може вжити необхідних заходів безпеки, щоб у вас завжди був безпечний та задовільний досвід перегляду.</t>
+  </si>
+  <si>
+    <t>Файлы cookie есть везде, и их нельзя избежать, если вы хотите получить доступ к некоторым из крупнейших и лучших веб-сайтов в Интернете, как местных, так и международных. Четкое понимание того, как работают файлы cookie и какие преимущества они приносят, может принять необходимые меры безопасности, чтобы у вас всегда был безопасный и удовлетворительный опыт просмотра.</t>
+  </si>
+  <si>
+    <t>cookie.policy.turnoff.header</t>
+  </si>
+  <si>
+    <t>Cum pot opri cookie-urile?</t>
+  </si>
+  <si>
+    <t>How can I turn cookies off?</t>
+  </si>
+  <si>
+    <t>Як я можу вимкнути файли cookie?</t>
+  </si>
+  <si>
+    <t>Как я могу отключить файлы cookie?</t>
+  </si>
+  <si>
+    <t>cookie.policy.turnoff.p1</t>
+  </si>
+  <si>
+    <t>Dezactivarea și refuzul de a primi cookie-uri pot face anumite site-uri impracticabile sau dificil de vizitat și folosit. De asemenea, refuzul de a accepta cookie-uri nu înseamnă că nu veți mai primi/vedea publicitate online.</t>
+  </si>
+  <si>
+    <t>Refusing to accept cookies or deactivating them can make some websites difficult or impossible to navigate or use. Refusing to accept cookies also does not mean that you will no longer receive online ads.</t>
+  </si>
+  <si>
+    <t>Відмова від прийому файлів cookie або їх деактивація можуть утруднити або унеможливити навігацію або використання деяких веб-сайтів. Відмова від прийому файлів cookie також не означає, що ви не будете отримувати онлайн-рекламу.</t>
+  </si>
+  <si>
+    <t>Отказ от приема файлов cookie или их деактивация могут затруднить или сделать невозможным навигацию или использование некоторых веб-сайтов. Отказ от приема файлов cookie также не означает, что вы больше не будете получать онлайн-рекламу.</t>
+  </si>
+  <si>
+    <t>cookie.policy.turnoff.p2</t>
+  </si>
+  <si>
+    <t>Este posibilă setarea din browser pentru ca aceste cookie-uri să nu mai fie acceptate sau poți seta browserul să accepte cookie-uri de la un site anume. Dar, de exemplu, dacă nu dorești să folosești cookie-urile nu poți să urmezi și pașii următori după înregistrarea completarea formularului.</t>
+  </si>
+  <si>
+    <t>You can set up your browser to reject cookies automatically or you can select only some websites where cookies are enabled. But, for example, if you turn off cookies on this website you can not follow through with the next steps in filling out the form.</t>
+  </si>
+  <si>
+    <t>Ви можете настроїти свій браузер на автоматичну відмову від файлів cookie або вибрати лише деякі веб-сайти, на яких дозволено файли cookie. Але, наприклад, якщо ви вимкнете файли cookie на цьому веб-сайті, ви не зможете виконати наступні кроки під час заповнення форми.</t>
+  </si>
+  <si>
+    <t>Вы можете настроить свой браузер на автоматический отказ от файлов cookie или выбрать только некоторые веб-сайты, на которых разрешены файлы cookie. Но, например, если вы отключите файлы cookie на этом веб-сайте, вы не сможете выполнить следующие шаги при заполнении формы.</t>
+  </si>
+  <si>
+    <t>cookie.policy.turnoff.p3</t>
+  </si>
+  <si>
+    <t>Toate browserele moderne oferă posibilitatea de a schimba setarile cookie-urilor. Aceste setari se găsesc de regula în “opțiuni“ sau în meniul de “preferințe“ al browserului tău.</t>
+  </si>
+  <si>
+    <t>Modern browsers offer the ability to change cookie settings. You can usually find cookie settings under the “Options” tab or the “Preferences” menu of your browser.</t>
+  </si>
+  <si>
+    <t>Сучасні браузери пропонують можливість змінювати налаштування файлів cookie. Зазвичай ви можете знайти настройки файлів cookie на вкладці "Параметри" або в меню "Налаштування" вашого браузера.</t>
+  </si>
+  <si>
+    <t>Современные браузеры предлагают возможность изменять настройки файлов cookie. Обычно вы можете найти настройки файлов cookie на вкладке «Параметры» или в меню «Настройки» вашего браузера.</t>
+  </si>
+  <si>
+    <t>cookie.policy.p10</t>
+  </si>
+  <si>
+    <t>Pentru setarile cookie-urilor generate de terți, și pentru mai multe informații privind confidențialitatea legată de publicitatea online, IAB Romania pune la dispoziție următorul site:</t>
+  </si>
+  <si>
+    <t>For third-party cookies settings and for more information about online ad confidentiality, IAB Romania offers the following website:</t>
+  </si>
+  <si>
+    <t>Для налаштування сторонніх файлів cookie та отримання додаткової інформації про конфіденційність онлайн-реклами IAB Romania пропонує наступний веб-сайт:</t>
+  </si>
+  <si>
+    <t>Для настройки сторонних файлов cookie и получения дополнительной информации о конфиденциальности онлайн-рекламы IAB Romania предлагает следующий веб-сайт:</t>
+  </si>
+  <si>
+    <t>error.availability.required</t>
+  </si>
+  <si>
+    <t>Trebuie să selectați o valoare</t>
+  </si>
+  <si>
+    <t>Select a value</t>
+  </si>
+  <si>
+    <t>Виберіть значення</t>
+  </si>
+  <si>
+    <t>Выберите значение</t>
+  </si>
+  <si>
+    <t>resources.product</t>
+  </si>
+  <si>
+    <t>Produs</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Продукт</t>
+  </si>
+  <si>
+    <t>resources.quantity</t>
+  </si>
+  <si>
+    <t>Cantitate</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Кількість</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>resources.volunteering</t>
+  </si>
+  <si>
+    <t>resources.other</t>
+  </si>
+  <si>
+    <t>Resurse</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>Ресурси</t>
+  </si>
+  <si>
+    <t>Ресурсы</t>
+  </si>
+  <si>
+    <t>resources.added.products</t>
+  </si>
+  <si>
+    <t>Produse adăugate</t>
+  </si>
+  <si>
+    <t>Added products</t>
+  </si>
+  <si>
+    <t>Додані продукти</t>
+  </si>
+  <si>
+    <t>Добавленные продукты</t>
+  </si>
+  <si>
+    <t>resources.volunteering.added</t>
+  </si>
+  <si>
+    <t>Voluntariate adăugate</t>
+  </si>
+  <si>
+    <t>Added volunteering</t>
+  </si>
+  <si>
+    <t>Додане волонтерство</t>
+  </si>
+  <si>
+    <t>Добавленные волонтёрства</t>
+  </si>
+  <si>
+    <t>resources.services.added</t>
+  </si>
+  <si>
+    <t>Servicii adăugate</t>
+  </si>
+  <si>
+    <t>Added services</t>
+  </si>
+  <si>
+    <t>Додані сервіси</t>
+  </si>
+  <si>
+    <t>Добавленные услуги</t>
+  </si>
+  <si>
+    <t>resources.added.other</t>
+  </si>
+  <si>
+    <t>Alte resurse adăugate</t>
+  </si>
+  <si>
+    <t>Other added resources</t>
+  </si>
+  <si>
+    <t>Інші додані ресурси</t>
+  </si>
+  <si>
+    <t>Другие добавленные ресурсы</t>
+  </si>
+  <si>
+    <t>services.offerTransport</t>
+  </si>
+  <si>
+    <t>Pot asigura transport</t>
+  </si>
+  <si>
+    <t>I can provide transportation</t>
+  </si>
+  <si>
+    <t>Можемо забезпечити транспорт</t>
+  </si>
+  <si>
+    <t>Можем обеспечить транспорт</t>
+  </si>
+  <si>
+    <t>error.productName.required</t>
+  </si>
+  <si>
+    <t>Introduceți numele produsului</t>
+  </si>
+  <si>
+    <t>Insert the name of the product</t>
+  </si>
+  <si>
+    <t>Введіть назву продукту</t>
+  </si>
+  <si>
+    <t>Введите название продукта</t>
+  </si>
+  <si>
+    <t>error.packagkingType.required</t>
+  </si>
+  <si>
+    <t>Introduceți tipul de ambalaj</t>
+  </si>
+  <si>
+    <t>Insert the type of packaging</t>
+  </si>
+  <si>
+    <t>Вкажіть тип упаковки</t>
+  </si>
+  <si>
+    <t>Введите тип упаковки</t>
+  </si>
+  <si>
+    <t>error.unitType.required</t>
+  </si>
+  <si>
+    <t>Introduceți unitatea de măsură</t>
+  </si>
+  <si>
+    <t>Insert unit of measure</t>
+  </si>
+  <si>
+    <t>Введіть одиницю вимірювання</t>
+  </si>
+  <si>
+    <t>Введите единицу измерения</t>
+  </si>
+  <si>
+    <t>error.has_transportation.required</t>
+  </si>
+  <si>
+    <t>Please select an option</t>
+  </si>
+  <si>
+    <t>Будь ласка оберіть варіант</t>
+  </si>
+  <si>
+    <t>Пожалуйста, выберите вариант</t>
+  </si>
+  <si>
+    <t>error.tentCapacity.required</t>
+  </si>
+  <si>
+    <t>Introduceți numărul de corturi</t>
+  </si>
+  <si>
+    <t>Insert number of tents</t>
+  </si>
+  <si>
+    <t>Введіть кількість наметів</t>
+  </si>
+  <si>
+    <t>Введите количество палаток</t>
+  </si>
+  <si>
+    <t>signup.volunteering.name</t>
+  </si>
+  <si>
+    <t>error.name.required</t>
+  </si>
+  <si>
+    <t>Introduceți numele</t>
+  </si>
+  <si>
+    <t>Please enter a name</t>
+  </si>
+  <si>
+    <t>Будь ласка введіть назву</t>
+  </si>
+  <si>
+    <t>Пожалуйста, введите имя</t>
+  </si>
+  <si>
+    <t>endpoints./api/v1/donate/item/</t>
+  </si>
+  <si>
+    <t>endpoints./api/v1/donate/other</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Інше</t>
+  </si>
+  <si>
+    <t>endpoints./api/v1/donate/transport_service</t>
+  </si>
+  <si>
+    <t>Сервіси</t>
+  </si>
+  <si>
+    <t>endpoints./api/v1/donate/volunteering</t>
+  </si>
+  <si>
+    <t>error.value.must.be.non.zero</t>
+  </si>
+  <si>
+    <t>Valoarea trebuie sa fie mai mare ca 0</t>
+  </si>
+  <si>
+    <t>Value must be greater than 0</t>
+  </si>
+  <si>
+    <t>Значення має бути більше 0</t>
+  </si>
+  <si>
+    <t>Значение должно быть больше 0</t>
+  </si>
+  <si>
+    <t>services.transport-persons</t>
+  </si>
+  <si>
+    <t>validation.date.must.be.in.future</t>
+  </si>
+  <si>
+    <t>Data introdusa trebuie sa fie în viitor</t>
+  </si>
+  <si>
+    <t>The entered date must be in the future</t>
+  </si>
+  <si>
+    <t>Введена дата має бути в майбутньому</t>
+  </si>
+  <si>
+    <t>Введенная дата должна быть в будущем</t>
+  </si>
+  <si>
+    <t>validation.date.invalid</t>
+  </si>
+  <si>
+    <t>Data introdusa este intr-un format invalid</t>
+  </si>
+  <si>
+    <t>The entered date is in an invalid format</t>
+  </si>
+  <si>
+    <t>Введена дата має неправильний формат</t>
+  </si>
+  <si>
+    <t>Введенная дата имеет неверный формат</t>
+  </si>
+  <si>
+    <t>ua</t>
+  </si>
+  <si>
+    <t>Ukranian</t>
+  </si>
+  <si>
+    <t>Alt tip de resursă</t>
+  </si>
+  <si>
+    <t>Other type of resource</t>
+  </si>
+  <si>
+    <t>Інший тип ресурсу</t>
+  </si>
+  <si>
+    <t>Другой тип ресурса</t>
+  </si>
+  <si>
+    <t>Psiholog</t>
+  </si>
+  <si>
+    <t>Psychologist</t>
+  </si>
+  <si>
+    <t>Психолог</t>
+  </si>
+  <si>
+    <t>Medic</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>Лікар</t>
+  </si>
+  <si>
+    <t>Врач</t>
+  </si>
+  <si>
+    <t>Asistent medical</t>
+  </si>
+  <si>
+    <t>Nurse</t>
+  </si>
+  <si>
+    <t>Медсестра</t>
+  </si>
+  <si>
+    <t>Organizare</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Організація</t>
+  </si>
+  <si>
+    <t>Организация</t>
+  </si>
+  <si>
+    <t>Другое</t>
+  </si>
+  <si>
+    <t>Avocat</t>
+  </si>
+  <si>
+    <t>Lawyer</t>
+  </si>
+  <si>
+    <t>Юрист</t>
+  </si>
+  <si>
+    <t>Bucătar</t>
+  </si>
+  <si>
+    <t>Cook</t>
+  </si>
+  <si>
+    <t>Кухар</t>
+  </si>
+  <si>
+    <t>Повар</t>
+  </si>
+  <si>
+    <t>resources.added.other.added</t>
+  </si>
+  <si>
+    <t>Додано інші ресурси</t>
+  </si>
+  <si>
+    <t>Disponibil in weekend</t>
+  </si>
+  <si>
+    <t>Available during the weekend</t>
+  </si>
+  <si>
+    <t>Доступний на вихідних</t>
+  </si>
+  <si>
+    <t>Доступно в выходные</t>
+  </si>
+  <si>
+    <t>Disponibil in timpul saptamanii</t>
+  </si>
+  <si>
+    <t>Available during the week</t>
+  </si>
+  <si>
+    <t>Доступний протягом тижня</t>
+  </si>
+  <si>
+    <t>Доступно в течение недели</t>
+  </si>
+  <si>
+    <t>Disponibil oricand</t>
+  </si>
+  <si>
+    <t>Available anytime</t>
+  </si>
+  <si>
+    <t>Доступний у будь-який час</t>
+  </si>
+  <si>
+    <t>Доступно в любое время</t>
+  </si>
+  <si>
+    <t>Intervale fixe</t>
+  </si>
+  <si>
+    <t>Fixed intervals</t>
+  </si>
+  <si>
+    <t>Фіксовані інтервали</t>
+  </si>
+  <si>
+    <t>Фиксированные интервалы</t>
+  </si>
+  <si>
+    <t>signup.products.textiles</t>
+  </si>
+  <si>
+    <t>Alte textile</t>
+  </si>
+  <si>
+    <t>Other textiles</t>
+  </si>
+  <si>
+    <t>Інші текстильні товари</t>
+  </si>
+  <si>
+    <t>Другие текстильные товары</t>
+  </si>
+  <si>
+    <t>signup.products.name</t>
+  </si>
+  <si>
+    <t>Nume produs</t>
+  </si>
+  <si>
+    <t>Product name</t>
+  </si>
+  <si>
+    <t>Найменування товару</t>
+  </si>
+  <si>
+    <t>Наименование товара</t>
+  </si>
+  <si>
+    <t>error.textile.category.required</t>
+  </si>
+  <si>
+    <t>Alege o categorie de textile</t>
+  </si>
+  <si>
+    <t>Please pick a textile category</t>
+  </si>
+  <si>
+    <t>Виберіть категорію текстилю</t>
+  </si>
+  <si>
+    <t>Выберите категорию текстиля</t>
+  </si>
+  <si>
+    <t>signup.products.size</t>
+  </si>
+  <si>
+    <t>Marime / Vârsta</t>
+  </si>
+  <si>
+    <t>Size / Age</t>
+  </si>
+  <si>
+    <t>Розмір/вік</t>
+  </si>
+  <si>
+    <t>Размер / возраст</t>
+  </si>
+  <si>
+    <t>register.genericError</t>
+  </si>
+  <si>
+    <t>A apărut o errore. Te rugăm să încerci mai târziu</t>
+  </si>
+  <si>
+    <t>An error occured. Please try again later</t>
+  </si>
+  <si>
+    <t>Виникла помилка. Будь ласка, спробуйте пізніше</t>
+  </si>
+  <si>
+    <t>Произошла ошибка. Пожалуйста, попробуйте позже</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>Persoană Fizică</t>
+  </si>
+  <si>
+    <t>Фізична особа</t>
+  </si>
+  <si>
+    <t>Физическое лицо</t>
+  </si>
+  <si>
+    <t>Corporate</t>
+  </si>
+  <si>
+    <t>Companie</t>
+  </si>
+  <si>
+    <t>Компанія</t>
+  </si>
+  <si>
+    <t>Компания</t>
+  </si>
+  <si>
+    <t>Non-Profit</t>
+  </si>
+  <si>
+    <t>ONG</t>
+  </si>
+  <si>
+    <t>Некомерційна організація</t>
+  </si>
+  <si>
+    <t>Некоммерческая организация</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>Autoritate Publică</t>
+  </si>
+  <si>
+    <t>Уряд</t>
+  </si>
+  <si>
+    <t>Правительство</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>signup.resources.request</t>
-  </si>
-  <si>
-    <t>Resursa solicitata:</t>
-  </si>
-  <si>
-    <t>Resource Required:</t>
-  </si>
-  <si>
-    <t>Необхідний ресурс:</t>
-  </si>
-  <si>
-    <t>Требуемый ресурс:</t>
-  </si>
-  <si>
-    <t>signup.resources.request.thankYouMessage</t>
-  </si>
-  <si>
-    <t>Îți mulțumim pentru mesajul transmis. Vom procesa cererea ta cât de repede posibil.</t>
-  </si>
-  <si>
-    <t>Thank you for your message. We will process your request as soon as possible.</t>
-  </si>
-  <si>
-    <t>signup.resources.fillInDetails</t>
-  </si>
-  <si>
-    <t>Completeaza detalii mai jos pentru fiecare resursa selectata:</t>
-  </si>
-  <si>
-    <t>Complete details below for each selected resource:</t>
-  </si>
-  <si>
-    <t>Заповніть деталі нижче для кожного вибраного ресурсу:</t>
-  </si>
-  <si>
-    <t>Заполните данные ниже для каждого выбранного ресурса:</t>
-  </si>
-  <si>
-    <t>signup.resources.thankYouMessage</t>
-  </si>
-  <si>
-    <t>Complete Details Below For Each Selected Resource:</t>
-  </si>
-  <si>
-    <t>Нижче наведена повна інформація для кожного вибраного ресурсу:</t>
-  </si>
-  <si>
-    <t>signup.resources.gdpr</t>
-  </si>
-  <si>
-    <t>Prin completarea formularului accept ca datele mele să fie procesate de Guvernul României. Cunosc faptul că Guvernul României prelucrează datele mele cu caracter personal în baza prevederilor regulamentului (UE) 2016/679</t>
-  </si>
-  <si>
-    <t>By completing the form I accept that my data may be processed by the Government of Romania. I acknowledge that the Government of Romania processes my personal data based on the provisions of Regulation (EU) 2016/679</t>
-  </si>
-  <si>
-    <t>Заповнюючи форму, я погоджуюсь з тим, що мої дані обробляються урядом Румунії. Я знаю, що уряд Румунії обробляє мої персональні дані відповідно до положень Регламенту (ЄС) 2016/679.</t>
-  </si>
-  <si>
-    <t>Заполняя форму, я соглашаюсь с тем, что мои данные могут обрабатываться правительством Румынии. Я подтверждаю, что правительство Румынии обрабатывает мои личные данные на основании положений Регламента (ЕС) 2016/679.</t>
-  </si>
-  <si>
-    <t>signup.userType.type</t>
-  </si>
-  <si>
-    <t>signup.userType.type.placeholder</t>
-  </si>
-  <si>
-    <t>Selectează tipul de utilizator</t>
-  </si>
-  <si>
-    <t>Select user type</t>
-  </si>
-  <si>
-    <t>Виберіть тип користувача</t>
-  </si>
-  <si>
-    <t>Выберите тип пользователя</t>
-  </si>
-  <si>
-    <t>signup.userType.business_name</t>
-  </si>
-  <si>
-    <t>Denumire</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Именование</t>
-  </si>
-  <si>
-    <t>signup.userType.business_name.required</t>
-  </si>
-  <si>
-    <t>Va rugăm introduceti numele companiei</t>
-  </si>
-  <si>
-    <t>Please enter the name of the company</t>
-  </si>
-  <si>
-    <t>Будь ласка, введіть назву компанії</t>
-  </si>
-  <si>
-    <t>Пожалуйста, введите название компании</t>
-  </si>
-  <si>
-    <t>signup.userType.first_name</t>
-  </si>
-  <si>
-    <t>Prenume</t>
-  </si>
-  <si>
-    <t>First name</t>
-  </si>
-  <si>
-    <t>Ім'я</t>
-  </si>
-  <si>
-    <t>Имя</t>
-  </si>
-  <si>
-    <t>signup.userType.first_name.required</t>
-  </si>
-  <si>
-    <t>Va rugăm introduceti prenumele</t>
-  </si>
-  <si>
-    <t>Please enter your first name</t>
-  </si>
-  <si>
-    <t>Будь ласка, введіть ваше ім'я</t>
-  </si>
-  <si>
-    <t>Пожалуйста, введите ваше имя</t>
-  </si>
-  <si>
-    <t>signup.userType.last_name</t>
-  </si>
-  <si>
-    <t>Nume</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Неправильний формат номера телефонурізвище</t>
-  </si>
-  <si>
-    <t>Фамилия</t>
-  </si>
-  <si>
-    <t>signup.userType.last_name.required</t>
-  </si>
-  <si>
-    <t>Va rugam introduceti numele</t>
-  </si>
-  <si>
-    <t>Please enter your last name</t>
-  </si>
-  <si>
-    <t>Будь ласка, введіть ваше прізвище</t>
-  </si>
-  <si>
-    <t>Пожалуйста, введите свою фамилию</t>
-  </si>
-  <si>
-    <t>signup.userType.phone_number</t>
-  </si>
-  <si>
-    <t>Telefon de contact</t>
-  </si>
-  <si>
-    <t>Phone number</t>
-  </si>
-  <si>
-    <t>Номер телефону</t>
-  </si>
-  <si>
-    <t>Номер телефона</t>
-  </si>
-  <si>
-    <t>signup.userType.phone_number.invalid</t>
-  </si>
-  <si>
-    <t>Numărul de telefon in format invalid</t>
-  </si>
-  <si>
-    <t>Invalid phone number format</t>
-  </si>
-  <si>
-    <t>Неправильний формат номера телефону</t>
-  </si>
-  <si>
-    <t>Неверный формат номера телефона</t>
-  </si>
-  <si>
-    <t>signup.userType.phone_number.required</t>
-  </si>
-  <si>
-    <t>Va rugam introduceti numarul de telefon</t>
-  </si>
-  <si>
-    <t>Please enter your phone number</t>
-  </si>
-  <si>
-    <t>Будь ласка, введіть номер телефону</t>
-  </si>
-  <si>
-    <t>Пожалуйста введите ваш номер телефона</t>
-  </si>
-  <si>
-    <t>signup.userType.email</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Email address</t>
-  </si>
-  <si>
-    <t>Електронна адреса</t>
-  </si>
-  <si>
-    <t>Электронный адрес</t>
-  </si>
-  <si>
-    <t>signup.userType.email.invalid</t>
-  </si>
-  <si>
-    <t>Va rugam introduceti un email valid</t>
-  </si>
-  <si>
-    <t>Please enter a valid email address</t>
-  </si>
-  <si>
-    <t>Будь ласка, введіть дійсну адресу електронної пошти</t>
-  </si>
-  <si>
-    <t>Пожалуйста, введите действительный адрес электронной почты</t>
-  </si>
-  <si>
-    <t>signup.userType.email.required</t>
-  </si>
-  <si>
-    <t>Va rugam introduceti adresa de email</t>
-  </si>
-  <si>
-    <t>Please enter your email address</t>
-  </si>
-  <si>
-    <t>Будь ласка, введіть адресу електронної пошти</t>
-  </si>
-  <si>
-    <t>Пожалуйста, введите адрес электронной почты</t>
-  </si>
-  <si>
-    <t>signup.userType.identification_no</t>
-  </si>
-  <si>
-    <t>CUI/CIF</t>
-  </si>
-  <si>
-    <t>Tax Identification Code/Number</t>
-  </si>
-  <si>
-    <t>Код ЄДРПОУ</t>
-  </si>
-  <si>
-    <t>ИНН/ОГРН</t>
-  </si>
-  <si>
-    <t>signup.userType.identification_no.required</t>
-  </si>
-  <si>
-    <t>Va rugam introduceti CUI/CIF</t>
-  </si>
-  <si>
-    <t>Please enter the Tax Identification Code/Number</t>
-  </si>
-  <si>
-    <t>Будь ласка, введіть податковий номер</t>
-  </si>
-  <si>
-    <t>Пожалуйста, введите налоговый номер</t>
-  </si>
-  <si>
-    <t>signup.userType.password</t>
-  </si>
-  <si>
-    <t>signup.userType.password.required</t>
-  </si>
-  <si>
-    <t>Va rugam introduceti o parola</t>
-  </si>
-  <si>
-    <t>Please enter a password</t>
-  </si>
-  <si>
-    <t>Будь ласка, введіть пароль</t>
-  </si>
-  <si>
-    <t>Пожалуйста, введите пароль</t>
-  </si>
-  <si>
-    <t>signup.userType.re_password</t>
-  </si>
-  <si>
-    <t>Confirma parola</t>
-  </si>
-  <si>
-    <t>Confirm password</t>
-  </si>
-  <si>
-    <t>Підтвердити пароль</t>
-  </si>
-  <si>
-    <t>Подтверждение пароля</t>
-  </si>
-  <si>
-    <t>signup.userType.re_password.required</t>
-  </si>
-  <si>
-    <t>Va rugam confirmati parola</t>
-  </si>
-  <si>
-    <t>Please confirm your password</t>
-  </si>
-  <si>
-    <t>Будь ласка, підтвердіть свій пароль</t>
-  </si>
-  <si>
-    <t>Пожалуйста, подтвердите свой пароль</t>
-  </si>
-  <si>
-    <t>signup.userType.re_password.missmatch</t>
-  </si>
-  <si>
-    <t>Parola nu coincide</t>
-  </si>
-  <si>
-    <t>The password does not match</t>
-  </si>
-  <si>
-    <t>Пароль не збігається</t>
-  </si>
-  <si>
-    <t>Пароль не совпадает</t>
-  </si>
-  <si>
-    <t>unit.tons</t>
-  </si>
-  <si>
-    <t>tone</t>
-  </si>
-  <si>
-    <t>tons</t>
-  </si>
-  <si>
-    <t>Tone</t>
-  </si>
-  <si>
-    <t>тон</t>
-  </si>
-  <si>
-    <t>unit.persons</t>
-  </si>
-  <si>
-    <t>persoane</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>особи</t>
-  </si>
-  <si>
-    <t>лица</t>
-  </si>
-  <si>
-    <t>services.transport-goods</t>
-  </si>
-  <si>
-    <t>Transport marfă</t>
-  </si>
-  <si>
-    <t>Freight transportation</t>
-  </si>
-  <si>
-    <t>Вантажний транспорт</t>
-  </si>
-  <si>
-    <t>Грузовой транспорт</t>
-  </si>
-  <si>
-    <t>services.transport-people</t>
-  </si>
-  <si>
-    <t>Transport persoane</t>
-  </si>
-  <si>
-    <t>Passenger transportation</t>
-  </si>
-  <si>
-    <t>Пасажирські перевезення</t>
-  </si>
-  <si>
-    <t>Пассажирские перевозки</t>
-  </si>
-  <si>
-    <t>services.capacity</t>
-  </si>
-  <si>
-    <t>Capacitate:</t>
-  </si>
-  <si>
-    <t>Capacity:</t>
-  </si>
-  <si>
-    <t>Місткість:</t>
-  </si>
-  <si>
-    <t>Вместимость:</t>
-  </si>
-  <si>
-    <t>services.cooling</t>
-  </si>
-  <si>
-    <t>Refrigerare</t>
-  </si>
-  <si>
-    <t>Refrigeration</t>
-  </si>
-  <si>
-    <t>Охолодження</t>
-  </si>
-  <si>
-    <t>Охлаждение</t>
-  </si>
-  <si>
-    <t>services.transport</t>
-  </si>
-  <si>
-    <t>Transport</t>
-  </si>
-  <si>
-    <t>Транспорт</t>
-  </si>
-  <si>
-    <t>services.description</t>
-  </si>
-  <si>
-    <t>Detalii</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t>Деталі</t>
-  </si>
-  <si>
-    <t>Подробности</t>
-  </si>
-  <si>
-    <t>services.driver-name</t>
-  </si>
-  <si>
-    <t>Nume șofer</t>
-  </si>
-  <si>
-    <t>Driver Name</t>
-  </si>
-  <si>
-    <t>Имя водителя</t>
-  </si>
-  <si>
-    <t>services.driver-ci</t>
-  </si>
-  <si>
-    <t>Serie și nr. buletin:</t>
-  </si>
-  <si>
-    <t>ID Series and No:</t>
-  </si>
-  <si>
-    <t>Серія і номер «внутрішнього» паспорта:</t>
-  </si>
-  <si>
-    <t>Серия и номер удостоверения личности:</t>
-  </si>
-  <si>
-    <t>services.car-plate</t>
-  </si>
-  <si>
-    <t>Număr mașină:</t>
-  </si>
-  <si>
-    <t>Car number:</t>
-  </si>
-  <si>
-    <t>Номер автомобіля:</t>
-  </si>
-  <si>
-    <t>Номер автомобиля:</t>
-  </si>
-  <si>
-    <t>services.available_seats</t>
-  </si>
-  <si>
-    <t>Număr de locuri in mașină</t>
-  </si>
-  <si>
-    <t>No of seats in the car</t>
-  </si>
-  <si>
-    <t>Кількість місць у машині</t>
-  </si>
-  <si>
-    <t>Количество мест в машине</t>
-  </si>
-  <si>
-    <t>services.has_disabled_access</t>
-  </si>
-  <si>
-    <t>Transport persoane cu dizabilități</t>
-  </si>
-  <si>
-    <t>Transportatio of people with disabilities</t>
-  </si>
-  <si>
-    <t>Перевезення людей з обмеженими можливостями</t>
-  </si>
-  <si>
-    <t>Перевозка людей с ограниченными возможностями</t>
-  </si>
-  <si>
-    <t>services.pets_allowed</t>
-  </si>
-  <si>
-    <t>Transport cu animale de companie</t>
-  </si>
-  <si>
-    <t>Transportation with pets</t>
-  </si>
-  <si>
-    <t>Перевезення з домашніми тваринами</t>
-  </si>
-  <si>
-    <t>Перевозка с домашними животными</t>
-  </si>
-  <si>
-    <t>services.from_county</t>
-  </si>
-  <si>
-    <t>De la judetul</t>
-  </si>
-  <si>
-    <t>From county</t>
-  </si>
-  <si>
-    <t>З повіту</t>
-  </si>
-  <si>
-    <t>Из уезда</t>
-  </si>
-  <si>
-    <t>services.to_county</t>
-  </si>
-  <si>
-    <t>Pana in judetul</t>
-  </si>
-  <si>
-    <t>To county</t>
-  </si>
-  <si>
-    <t>До повіту</t>
-  </si>
-  <si>
-    <t>В уезд</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Da</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Так</t>
-  </si>
-  <si>
-    <t>Да</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>Nu</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Ні</t>
-  </si>
-  <si>
-    <t>Нет</t>
-  </si>
-  <si>
-    <t>add</t>
-  </si>
-  <si>
-    <t>Adaugă</t>
-  </si>
-  <si>
-    <t>Add</t>
-  </si>
-  <si>
-    <t>Додати</t>
-  </si>
-  <si>
-    <t>Добавить</t>
-  </si>
-  <si>
-    <t>services.transport-type.national</t>
-  </si>
-  <si>
-    <t>National</t>
-  </si>
-  <si>
-    <t>Національний</t>
-  </si>
-  <si>
-    <t>Национальный</t>
-  </si>
-  <si>
-    <t>describeTheResource</t>
-  </si>
-  <si>
-    <t>Descrieți resursa</t>
-  </si>
-  <si>
-    <t>Describe resource</t>
-  </si>
-  <si>
-    <t>Опишіть ресурс</t>
-  </si>
-  <si>
-    <t>Опишите ресурс</t>
-  </si>
-  <si>
-    <t>services.availability_interval_from</t>
-  </si>
-  <si>
-    <t>De la</t>
-  </si>
-  <si>
-    <t>From</t>
-  </si>
-  <si>
-    <t>Від</t>
-  </si>
-  <si>
-    <t>От</t>
-  </si>
-  <si>
-    <t>services.availability_interval_to</t>
-  </si>
-  <si>
-    <t>Până la</t>
-  </si>
-  <si>
-    <t>Until</t>
-  </si>
-  <si>
-    <t>До</t>
-  </si>
-  <si>
-    <t>services.weight_unit</t>
-  </si>
-  <si>
-    <t>Unitate de măsură</t>
-  </si>
-  <si>
-    <t>Unit of measure</t>
-  </si>
-  <si>
-    <t>Одиниця виміру</t>
-  </si>
-  <si>
-    <t>Единица измерения</t>
-  </si>
-  <si>
-    <t>services.county_coverage</t>
-  </si>
-  <si>
-    <t>Județ</t>
-  </si>
-  <si>
-    <t>County</t>
-  </si>
-  <si>
-    <t>Округ</t>
-  </si>
-  <si>
-    <t>Уезд</t>
-  </si>
-  <si>
-    <t>error.must.be.string</t>
-  </si>
-  <si>
-    <t>Valoarea introdusă trebuie contina caractere</t>
-  </si>
-  <si>
-    <t>The value must contain characters</t>
-  </si>
-  <si>
-    <t>Значення має містити символи</t>
-  </si>
-  <si>
-    <t>Значение должно содержать символы</t>
-  </si>
-  <si>
-    <t>error.must.be.time</t>
-  </si>
-  <si>
-    <t>Valoarea introdusă trebuie să fie tip oră:minute</t>
-  </si>
-  <si>
-    <t>The value must be in hour:minute format</t>
-  </si>
-  <si>
-    <t>Значення має бути година: хвилина</t>
-  </si>
-  <si>
-    <t>Значение должно быть в формате час:минута</t>
-  </si>
-  <si>
-    <t>error.must.be.date</t>
-  </si>
-  <si>
-    <t>Valoarea introdusă trebuie să fie tip dată</t>
-  </si>
-  <si>
-    <t>The value must be a date</t>
-  </si>
-  <si>
-    <t>Значення має бути датою</t>
-  </si>
-  <si>
-    <t>Значение должно быть датой</t>
-  </si>
-  <si>
-    <t>signup.products.header</t>
-  </si>
-  <si>
-    <t>Продукти</t>
-  </si>
-  <si>
-    <t>signup.products.food</t>
-  </si>
-  <si>
-    <t>Alimente</t>
-  </si>
-  <si>
-    <t>Food</t>
-  </si>
-  <si>
-    <t>Еда</t>
-  </si>
-  <si>
-    <t>signup.products.generalHygiene</t>
-  </si>
-  <si>
-    <t>Produse de igiena generala</t>
-  </si>
-  <si>
-    <t>General hygiene products</t>
-  </si>
-  <si>
-    <t>Засоби загальної гігієни</t>
-  </si>
-  <si>
-    <t>Средства общей гигиены</t>
-  </si>
-  <si>
-    <t>signup.products.feminineHygiene</t>
-  </si>
-  <si>
-    <t>Produse de igiena feminina</t>
-  </si>
-  <si>
-    <t>Women's hygiene products</t>
-  </si>
-  <si>
-    <t>Засоби жіночої гігієни</t>
-  </si>
-  <si>
-    <t>Средства женской гигиены</t>
-  </si>
-  <si>
-    <t>signup.products.textile</t>
-  </si>
-  <si>
-    <t>Imbracaminte si alte textile</t>
-  </si>
-  <si>
-    <t>Clothing and other textiles</t>
-  </si>
-  <si>
-    <t>Одяг та інші текстильні вироби</t>
-  </si>
-  <si>
-    <t>Одежда и другие текстильные изделия</t>
-  </si>
-  <si>
-    <t>signup.products.buildingMaterials</t>
-  </si>
-  <si>
-    <t>Materiale de constructii</t>
-  </si>
-  <si>
-    <t>Building materials</t>
-  </si>
-  <si>
-    <t>Будівельні матеріали</t>
-  </si>
-  <si>
-    <t>Строительные материалы</t>
-  </si>
-  <si>
-    <t>signup.products.tents</t>
-  </si>
-  <si>
-    <t>Corturi</t>
-  </si>
-  <si>
-    <t>Tents</t>
-  </si>
-  <si>
-    <t>Намети:</t>
-  </si>
-  <si>
-    <t>Палатки:</t>
-  </si>
-  <si>
-    <t>signup.products.product</t>
-  </si>
-  <si>
-    <t>Produs:</t>
-  </si>
-  <si>
-    <t>Product:</t>
-  </si>
-  <si>
-    <t>Продукт:</t>
-  </si>
-  <si>
-    <t>signup.products.qty</t>
-  </si>
-  <si>
-    <t>Cantitate:</t>
-  </si>
-  <si>
-    <t>Quantity:</t>
-  </si>
-  <si>
-    <t>Кількість:</t>
-  </si>
-  <si>
-    <t>Количество:</t>
-  </si>
-  <si>
-    <t>signup.products.packaging</t>
-  </si>
-  <si>
-    <t>Ambalaj:</t>
-  </si>
-  <si>
-    <t>Packaging:</t>
-  </si>
-  <si>
-    <t>Упаковка:</t>
-  </si>
-  <si>
-    <t>signup.products.expireDate</t>
-  </si>
-  <si>
-    <t>Data de expirare:</t>
-  </si>
-  <si>
-    <t>Expiration date:</t>
-  </si>
-  <si>
-    <t>Термін придатності:</t>
-  </si>
-  <si>
-    <t>Срок годности:</t>
-  </si>
-  <si>
-    <t>signup.products.location</t>
-  </si>
-  <si>
-    <t>Locatie resursa:</t>
-  </si>
-  <si>
-    <t>Location of the resource:</t>
-  </si>
-  <si>
-    <t>Місцезнаходження ресурсу:</t>
-  </si>
-  <si>
-    <t>Местонахождение ресурса:</t>
-  </si>
-  <si>
-    <t>signup.products.county</t>
-  </si>
-  <si>
-    <t>Judet</t>
-  </si>
-  <si>
-    <t>Повіт</t>
-  </si>
-  <si>
-    <t>signup.products.city</t>
-  </si>
-  <si>
-    <t>Localitate</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Місто</t>
-  </si>
-  <si>
-    <t>Город</t>
-  </si>
-  <si>
-    <t>signup.products.town</t>
-  </si>
-  <si>
-    <t>Oras</t>
-  </si>
-  <si>
-    <t>signup.products.clothing</t>
-  </si>
-  <si>
-    <t>Haine:</t>
-  </si>
-  <si>
-    <t>Clothes:</t>
-  </si>
-  <si>
-    <t>Одяг:</t>
-  </si>
-  <si>
-    <t>Одежда:</t>
-  </si>
-  <si>
-    <t>signup.products.female</t>
-  </si>
-  <si>
-    <t>Femei</t>
-  </si>
-  <si>
-    <t>Women</t>
-  </si>
-  <si>
-    <t>Жінки</t>
-  </si>
-  <si>
-    <t>Женщины</t>
-  </si>
-  <si>
-    <t>signup.products.male</t>
-  </si>
-  <si>
-    <t>Barbati</t>
-  </si>
-  <si>
-    <t>Men</t>
-  </si>
-  <si>
-    <t>Чоловіків</t>
-  </si>
-  <si>
-    <t>Мужчины</t>
-  </si>
-  <si>
-    <t>signup.products.children</t>
-  </si>
-  <si>
-    <t>Copii</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>Діти</t>
-  </si>
-  <si>
-    <t>Дети</t>
-  </si>
-  <si>
-    <t>signup.products.children.age</t>
-  </si>
-  <si>
-    <t>Varsta:</t>
-  </si>
-  <si>
-    <t>Age:</t>
-  </si>
-  <si>
-    <t>Вік:</t>
-  </si>
-  <si>
-    <t>Возраст:</t>
-  </si>
-  <si>
-    <t>signup.products.blankets</t>
-  </si>
-  <si>
-    <t>Paturi</t>
-  </si>
-  <si>
-    <t>Beds</t>
-  </si>
-  <si>
-    <t>Ліжка</t>
-  </si>
-  <si>
-    <t>Кровати</t>
-  </si>
-  <si>
-    <t>signup.products.sheets</t>
-  </si>
-  <si>
-    <t>Cuverturi</t>
-  </si>
-  <si>
-    <t>Blankets</t>
-  </si>
-  <si>
-    <t>Ковдри</t>
-  </si>
-  <si>
-    <t>Одеяла</t>
-  </si>
-  <si>
-    <t>signup.products.sleepingBags</t>
-  </si>
-  <si>
-    <t>Saci de dormit</t>
-  </si>
-  <si>
-    <t>Sleeping bags</t>
-  </si>
-  <si>
-    <t>Спальні мішки</t>
-  </si>
-  <si>
-    <t>Спальные мешки</t>
-  </si>
-  <si>
-    <t>signup.products.others</t>
-  </si>
-  <si>
-    <t>Altele:</t>
-  </si>
-  <si>
-    <t>Other:</t>
-  </si>
-  <si>
-    <t>Другое:</t>
-  </si>
-  <si>
-    <t>signup.products.capacity</t>
-  </si>
-  <si>
-    <t>Ємкість:</t>
-  </si>
-  <si>
-    <t>signup.products.persons</t>
-  </si>
-  <si>
-    <t>люди</t>
-  </si>
-  <si>
-    <t>человека</t>
-  </si>
-  <si>
-    <t>signup.products.pleaseAddProduct</t>
-  </si>
-  <si>
-    <t>Nici un produs adaugat.</t>
-  </si>
-  <si>
-    <t>No products added.</t>
-  </si>
-  <si>
-    <t>Жодного продукту не додано.</t>
-  </si>
-  <si>
-    <t>Ни одного продукта не добавлено.</t>
-  </si>
-  <si>
-    <t>signup.products.description</t>
-  </si>
-  <si>
-    <t>Опис:</t>
-  </si>
-  <si>
-    <t>Описание:</t>
-  </si>
-  <si>
-    <t>error.availability.minOne</t>
-  </si>
-  <si>
-    <t>Trebuie să selectați minim o opțiune</t>
-  </si>
-  <si>
-    <t>Please select at least one option</t>
-  </si>
-  <si>
-    <t>Виберіть принаймні один варіант</t>
-  </si>
-  <si>
-    <t>Пожалуйста, выберите хотя бы один вариант</t>
-  </si>
-  <si>
-    <t>signup.products.unit_type</t>
-  </si>
-  <si>
-    <t>Unitate de măsură:</t>
-  </si>
-  <si>
-    <t>Unit of measure:</t>
-  </si>
-  <si>
-    <t>Одиниця:</t>
-  </si>
-  <si>
-    <t>Единица измерения:</t>
-  </si>
-  <si>
-    <t>error.capacity.required</t>
-  </si>
-  <si>
-    <t>Introduceți capacitatea</t>
-  </si>
-  <si>
-    <t>Enter the capacity</t>
-  </si>
-  <si>
-    <t>Введіть ємність</t>
-  </si>
-  <si>
-    <t>Введите емкость</t>
-  </si>
-  <si>
-    <t>error.refrigeration.required</t>
-  </si>
-  <si>
-    <t>Selectați dacă aveți posibilitatea de refrigerare</t>
-  </si>
-  <si>
-    <t>Select if you can refrigerate</t>
-  </si>
-  <si>
-    <t>Виберіть, чи можна охолодити</t>
-  </si>
-  <si>
-    <t>Выберите, можно ли охлаждать</t>
-  </si>
-  <si>
-    <t>error.transportType.required</t>
-  </si>
-  <si>
-    <t>Selectați tipul de transport</t>
-  </si>
-  <si>
-    <t>Select the type of transport</t>
-  </si>
-  <si>
-    <t>Виберіть вид транспорту</t>
-  </si>
-  <si>
-    <t>Выберите вид транспорта</t>
-  </si>
-  <si>
-    <t>error.county.required</t>
-  </si>
-  <si>
-    <t>Selectați un județ</t>
-  </si>
-  <si>
-    <t>Select a county</t>
-  </si>
-  <si>
-    <t>Виберіть повіт</t>
-  </si>
-  <si>
-    <t>Выберите уезд</t>
-  </si>
-  <si>
-    <t>error.driverName.required</t>
-  </si>
-  <si>
-    <t>Introduceți numele șoferului</t>
-  </si>
-  <si>
-    <t>Enter the driver's name</t>
-  </si>
-  <si>
-    <t>Введіть ім'я водія</t>
-  </si>
-  <si>
-    <t>Введите имя водителя</t>
-  </si>
-  <si>
-    <t>error.driverCI.required</t>
-  </si>
-  <si>
-    <t>Introduceți seria si numarul de buletin</t>
-  </si>
-  <si>
-    <t>Enter the ID series and number</t>
-  </si>
-  <si>
-    <t>Введіть серію та номер «внутрішнього» паспорта</t>
-  </si>
-  <si>
-    <t>Введите серию и номер удостоверения личности</t>
-  </si>
-  <si>
-    <t>error.driverContact.required</t>
-  </si>
-  <si>
-    <t>Introduceți numarul de telefon</t>
-  </si>
-  <si>
-    <t>Enter your phone number</t>
-  </si>
-  <si>
-    <t>Введіть свій номер телефону</t>
-  </si>
-  <si>
-    <t>Введите номер телефона</t>
-  </si>
-  <si>
-    <t>error.driverContact.invalid</t>
-  </si>
-  <si>
-    <t>Numarul de telefon este invalid</t>
-  </si>
-  <si>
-    <t>This phone number is invalid</t>
-  </si>
-  <si>
-    <t>Цей номер телефону недійсний</t>
-  </si>
-  <si>
-    <t>Номер телефона является недействительным</t>
-  </si>
-  <si>
-    <t>error.carRegistration.required</t>
-  </si>
-  <si>
-    <t>Introduceți numărul de înmatriculare al mașinii</t>
-  </si>
-  <si>
-    <t>Enter the car registration number</t>
-  </si>
-  <si>
-    <t>Введіть реєстраційний номер автомобіля</t>
-  </si>
-  <si>
-    <t>Введите регистрационный номер автомобиля</t>
-  </si>
-  <si>
-    <t>error.carRegistation.invalid</t>
-  </si>
-  <si>
-    <t>Numărul de înmatriculare trebuie să fie de forma B22BOM</t>
-  </si>
-  <si>
-    <t>The registration number must be in the B22BOM format</t>
-  </si>
-  <si>
-    <t>Реєстраційний номер має бути у формі B22BOM</t>
-  </si>
-  <si>
-    <t>Регистрационный номер должен быть в формате B22BOM.</t>
-  </si>
-  <si>
-    <t>error.driverCI.invalid</t>
-  </si>
-  <si>
-    <t>Seria și numărul de buletin trebuie să fie de forma XT555222</t>
-  </si>
-  <si>
-    <t>The ID series and number must be in the XT555222 format</t>
-  </si>
-  <si>
-    <t>Серійний номер і номер повинні бути у формі XT555222</t>
-  </si>
-  <si>
-    <t>Серия и номер должны быть в формате XT555222.</t>
-  </si>
-  <si>
-    <t>services.availability</t>
-  </si>
-  <si>
-    <t>Cât timp puteți aloca pentru aceste activități?</t>
-  </si>
-  <si>
-    <t>How much time can you spend on these activities?</t>
-  </si>
-  <si>
-    <t>Скільки часу ви можете витратити на ці дії?</t>
-  </si>
-  <si>
-    <t>Сколько времени вы можете потратить на эти занятия?</t>
-  </si>
-  <si>
-    <t>services.county.placeholder</t>
-  </si>
-  <si>
-    <t>Selectează un județ</t>
-  </si>
-  <si>
-    <t>Виберіть округ</t>
-  </si>
-  <si>
-    <t>error.must.be.number</t>
-  </si>
-  <si>
-    <t>Valoarea introdusă trebuie să fie un număr</t>
-  </si>
-  <si>
-    <t>The value must be a number</t>
-  </si>
-  <si>
-    <t>Значення має бути числом</t>
-  </si>
-  <si>
-    <t>Значение должно быть числом</t>
-  </si>
-  <si>
-    <t>error.integer</t>
-  </si>
-  <si>
-    <t>Valoarea introdusă trebuie să fie un număr întreg</t>
-  </si>
-  <si>
-    <t>The value must be an integer</t>
-  </si>
-  <si>
-    <t>Значення має бути цілим числом</t>
-  </si>
-  <si>
-    <t>Значение должно быть целым числом</t>
-  </si>
-  <si>
-    <t>error.must.be.boolean</t>
-  </si>
-  <si>
-    <t>Alegeți o opțiune</t>
-  </si>
-  <si>
-    <t>Choose an option</t>
-  </si>
-  <si>
-    <t>Виберіть варіант</t>
-  </si>
-  <si>
-    <t>Выберите вариант</t>
-  </si>
-  <si>
-    <t>services.driverContact</t>
-  </si>
-  <si>
-    <t>Număr de telefon</t>
-  </si>
-  <si>
-    <t>error.county.minOne</t>
-  </si>
-  <si>
-    <t>Trebuie să selectați minim un județ</t>
-  </si>
-  <si>
-    <t>You must select at least one county</t>
-  </si>
-  <si>
-    <t>Ви повинні вибрати принаймні однин округ</t>
-  </si>
-  <si>
-    <t>Вы должны выбрать хотя бы один уезд</t>
-  </si>
-  <si>
-    <t>error.quantity.minOne</t>
-  </si>
-  <si>
-    <t>Cantitatea trebuie sa fie mai mare sau egala cu 1</t>
-  </si>
-  <si>
-    <t>Quantity must be greater or equal to 1</t>
-  </si>
-  <si>
-    <t>Кількість має бути більше або дорівнювати 1</t>
-  </si>
-  <si>
-    <t>Количество должно быть больше или равно 1</t>
-  </si>
-  <si>
-    <t>controls.counties.selected</t>
-  </si>
-  <si>
-    <t>județe selectate</t>
-  </si>
-  <si>
-    <t>selected counties</t>
-  </si>
-  <si>
-    <t>вибрані округи</t>
-  </si>
-  <si>
-    <t>выбранные уезды</t>
-  </si>
-  <si>
-    <t>gdpr.consent</t>
-  </si>
-  <si>
-    <t>Prin completarea formularului accept ca datele mele să fie procesate de Departamentul pentru Situații de Urgență. Cunosc faptul că Departamentul pentru Situații de Urgență prelucrează datele mele cu caracter personal în baza prevederilor Regulamentului (UE) 2016/679.</t>
-  </si>
-  <si>
-    <t>By completing the Form I consent that my personal data may be processed by The Department for Emergency Situations. I acknowledge that the Department for Emergency Situations processes my personal data based on the provisions of Regulation (EU) 2016/679</t>
-  </si>
-  <si>
-    <t>Заповнюючи форму, я даю згоду на обробку моїх персональних даних Департаментом надзвичайних ситуацій. Я визнаю, що Департамент з надзвичайних ситуацій обробляє мої персональні дані відповідно до положень Регламенту (ЄС) 2016/679</t>
-  </si>
-  <si>
-    <t>Заполняя форму, я даю согласие на обработку моих персональных данных Департаментом по чрезвычайным ситуациям. Я подтверждаю, что Департамент по чрезвычайным ситуациям обрабатывает мои персональные данные на основании положений Регламента (ЕС) 2016/679.</t>
-  </si>
-  <si>
-    <t>signup.error.gdpr.required</t>
-  </si>
-  <si>
-    <t>Pentru a merge mai departe trebuie să vă dați acordul cu privire la procesarea datelor cu caracter personal</t>
-  </si>
-  <si>
-    <t>To proceed, you must agree to the processing of your personal data</t>
-  </si>
-  <si>
-    <t>Щоб продовжити, ви повинні погодитися на обробку ваших персональних даних</t>
-  </si>
-  <si>
-    <t>Чтобы продолжить, дайте согласие на обработку ваших персональных данных</t>
-  </si>
-  <si>
-    <t>cookie.policy.title</t>
-  </si>
-  <si>
-    <t>Politica de confidențialitate**</t>
-  </si>
-  <si>
-    <t>Privacy Policy**</t>
-  </si>
-  <si>
-    <t>Політика конфіденційності**</t>
-  </si>
-  <si>
-    <t>Политика конфиденциальности**</t>
-  </si>
-  <si>
-    <t>cookie.policy.p1</t>
-  </si>
-  <si>
-    <t>Acest website folosește cookie-uri pentru a furniza vizitatorilor o experiență mult mai bună de navigare și servicii adaptate nevoilor și interesului fiecăruia.</t>
-  </si>
-  <si>
-    <t>This website uses cookies in order to provide users with a better browsing experience as well as services tailored to their needs and interests.</t>
-  </si>
-  <si>
-    <t>Цей веб-сайт використовує файли cookie, щоб надати користувачам найкращий досвід перегляду, а також послуги, адаптовані до їхніх потреб та інтересів.</t>
-  </si>
-  <si>
-    <t>Этот веб-сайт использует файлы cookie, чтобы предоставить пользователям лучший опыт просмотра, а также услуги, адаптированные к их потребностям и интересам.</t>
-  </si>
-  <si>
-    <t>cookie.policy.p2</t>
-  </si>
-  <si>
-    <t>“Cookie“-urile au rolul de a facilita accesul și livrarea serviciilor folosite de utilizator de internet, cum ar fi personalizarea anumitor setări (limba, țara, prețuri afișate în moneda națională. “Cookie“-urile, pe baza informațiilor pe care le adună despre utilizatori, îi ajută pe deținătorii de site-uri să își eficientizeze produsul astfel încât acesta să fie cât mai ușor accesat de către utilizatori, de asemenea cresc gradul de eficiență a publicității online și nu în ultimul rând pot permite aplicațiilor multimedia sau de alt tip de pe alte site-uri să fie incluse într-un anumit site pentru a face navigarea mai utilă.</t>
-  </si>
-  <si>
-    <t>“Cookies” are used to facilitate access and delivery for the services required by Internet users such as personalizing settings (language, country, prices displayed in local currency etc.) “Cookies”, based on the information about users that they gather, help operators make their websites more effective so that they can be easier to access by users. They also make online advertising more effective and can help multimedia apps and content from other websites be more easily embedded, to make navigation easier.</t>
-  </si>
-  <si>
-    <t>"Cookies" використовуються для полегшення доступу та надання послуг, необхідних користувачам Інтернету, таких як персоналізація налаштувань (мова, країна, ціни, що відображаються у місцевій валюті тощо). "Cookies", що базуються на інформації про користувачів, яку вони збирають, допомагають операторам зробити свої веб-сайти більш ефективними, щоб користувачам було легше отримати доступ до них. Вони також роблять онлайн рекламу більш ефективною і можуть спростити вбудовування мультимедійних програм та контенту з інших веб-сайтів, щоб спростити навігацію.</t>
-  </si>
-  <si>
-    <t>«Cookies» используются для облегчения доступа и предоставления услуг, необходимых пользователям Интернета, таких как персонализация настроек (язык, страна, цены, отображаемые в местной валюте и т. д.). «Cookies», основанные на информации о пользователях, которую они собирают, помогают операторам сделать свои веб-сайты более эффективными, чтобы пользователям было легче получить к ним доступ. Они также делают онлайн-рекламу более эффективной и могут упростить встраивание мультимедийных приложений и контента с других веб-сайтов, чтобы упростить навигацию.</t>
-  </si>
-  <si>
-    <t>cookie.policy.whatiscookie.header</t>
-  </si>
-  <si>
-    <t>Ce este un “cookie“?</t>
-  </si>
-  <si>
-    <t>What is a “Cookie”?</t>
-  </si>
-  <si>
-    <t>Що таке Cookie?</t>
-  </si>
-  <si>
-    <t>Что такое «Cookie»?</t>
-  </si>
-  <si>
-    <t>cookie.policy.whatiscookie.p1</t>
-  </si>
-  <si>
-    <t>Cookie (“browser cookie“ sau “HTTP cookie“) este un fișier de mici dimensiuni, format din litere și numere, care este stocat pe orice terminal cu acces la internet (computer, telefon mobil, tabletă etc.) și este instalat prin solicitare emisă de către un web-server unui browser (ex: Internet Explorer, Chrome). De reținut: “Cookie“-urile nu conțin programe software, viruși sau spyware și nu pot accesa informațiile de pe hard drive-ul utilizatorului.</t>
-  </si>
-  <si>
-    <t>Cookie (\"browser cookie\" or \"HTTP cookie\") is a small file, a succession of letters and numbers, that is stored on any terminal with Internet access (computers, mobile phones, tablets etc.) and is installed upon a request from a server to a browser (ex: Internet Explorer, Chrome). “Cookies” do not contain any software programs, viruses or spyware and cannot access information on the user’s hard drive.</t>
-  </si>
-  <si>
-    <t>Файл cookie ("cookie-файл браузера" або "HTTP-cookie") - це невеликий файл, що є послідовністю букв і цифр, який зберігається на будь-якому терміналі з доступом в Інтернет (комп'ютери, мобільні телефони, планшети і т. д.) і встановлюється за запитом із сервера до браузера (наприклад, Internet Explorer, Chrome). "Cookies" не містять жодних програм, вірусів або шпигунських програм і не можуть отримати доступ до інформації на жорсткому диску користувача.</t>
-  </si>
-  <si>
-    <t>Файл cookie («cookie-файл браузера» или «HTTP-cookie») — это небольшой файл, представляющий собой последовательность букв и цифр, который хранится на любом терминале с доступом в Интернет (компьютеры, мобильные телефоны, планшеты и т. д.) и устанавливается по запросу с сервера в браузер (например, Internet Explorer, Chrome). «Cookies» не содержат никаких программ, вирусов или шпионских программ и не могут получить доступ к информации на жестком диске пользователя.</t>
-  </si>
-  <si>
-    <t>cookie.policy.whatiscookie.p2</t>
-  </si>
-  <si>
-    <t>Un cookie este format din nume și conținut, durata de existență a acestuia fiind determinată, putând fi accesat din nou de webserver în momentul în care un utilizator se întoarce pe website-ul asociat webserverului respectiv.</t>
-  </si>
-  <si>
-    <t>Cookie consists of a name and content, the length of its existence is limited, and it can be accessed again by the webserver when a user returns to the website associated with that server.</t>
-  </si>
-  <si>
-    <t>Файл cookie складається з імені та вмісту, тривалість його існування обмежена, і веб-сервер може знову отримати доступ до нього, коли користувач повертається на веб-сайт, пов'язаний з цим сервером.</t>
-  </si>
-  <si>
-    <t>Файл cookie состоит из имени и содержимого, продолжительность его существования ограничена, и веб-сервер может снова получить к нему доступ, когда пользователь возвращается на веб-сайт, связанный с этим сервером.</t>
-  </si>
-  <si>
-    <t>cookie.policy.whatiscookie.p3</t>
-  </si>
-  <si>
-    <t>Cookie-urile nu solicită informații cu caracter personal și nu identifică personal utilizatorii de internet.</t>
-  </si>
-  <si>
-    <t>Cookies do not request personal information nor do they personally identify internet users.</t>
-  </si>
-  <si>
-    <t>Файли cookie не запитують особисту інформацію та не ідентифікують користувачів Інтернету.</t>
-  </si>
-  <si>
-    <t>Файлы cookie не запрашивают личную информацию и не идентифицируют пользователей Интернета.</t>
-  </si>
-  <si>
-    <t>cookie.policy.whatiscookie.p4</t>
-  </si>
-  <si>
-    <t>Cookieuri de sesiune - acestea sunt stocate temporar în istoricul browser-ului care le memorează până când utilizatorul iese de pe web-siteul respectiv sau închide fereastra browserului.</t>
-  </si>
-  <si>
-    <t>Session cookies - are cookies temporarily stored in the browser’s history where they are stored until the user leaves that website or closes the browser window.</t>
-  </si>
-  <si>
-    <t>Сеансові файли cookie — це файли cookie, що тимчасово зберігаються в історії браузера, де вони зберігаються доти, доки користувач не покине цей веб-сайт або не закриє вікно браузера.</t>
-  </si>
-  <si>
-    <t>Сеансовые файлы cookie — это файлы cookie, временно хранящиеся в истории браузера, где они хранятся до тех пор, пока пользователь не покинет этот веб-сайт или не закроет окно браузера.</t>
-  </si>
-  <si>
-    <t>cookie.policy.whatiscookie.p5</t>
-  </si>
-  <si>
-    <t>Cookieuri Persistente - Acestea sunt stocate, în funcție de durata prestabilită, pe hard-drive-ul unui computer sau echipament. Cookie-urile persistente le includ și pe cele plasate de un alt website decât cel pe care îl vizitează utilizatorul la momentul respectiv - cunoscute sub numele de “third party cookies“ - care pot fi folosite în mod anonim pentru a memora interesele unui utilizator, astfel încât să fie livrată publicitate cât mai relevantă pentru utilizatori.</t>
-  </si>
-  <si>
-    <t>Persistent Cookies - These are stored, for a predetermined length of time, on a computer hard drive or similar equipment. Persistent cookies include those placed by a different website than the one the user is visiting at the time, so-called “third-party cookies”- that can be anonymously used to track a user’s interests - allowing them to receive ads more relevant to their interests.</t>
-  </si>
-  <si>
-    <t>Постійні файли cookie — вони зберігаються протягом певного періоду часу на жорсткому диску комп'ютера або аналогічному обладнанні. Постійні файли cookie включають файли, що розміщуються веб-сайтом, відмінним від того, який користувач відвідує в даний момент, так звані "сторонні файли cookie", які можуть анонімно використовуватися для відстеження інтересів користувача, що дозволяє їм отримувати рекламу більш відповідну їх інтересам.</t>
-  </si>
-  <si>
-    <t>Постоянные файлы cookie — они хранятся в течение заранее определенного периода времени на жестком диске компьютера или аналогичном оборудовании. Постоянные файлы cookie включают файлы, размещаемые веб-сайтом, отличным от того, который пользователь посещает в данный момент, так называемые «сторонние файлы cookie», которые могут анонимно использоваться для отслеживания интересов пользователя, что позволяет им получать рекламу, более соответствующую их интересам.</t>
-  </si>
-  <si>
-    <t>cookie.policy.p3.header</t>
-  </si>
-  <si>
-    <t>Care sunt avantajele cookie-urilor?</t>
-  </si>
-  <si>
-    <t>What are the advantages of “Cookies”?</t>
-  </si>
-  <si>
-    <t>Які переваги Cookies?</t>
-  </si>
-  <si>
-    <t>Каковы преимущества «Cookies»?</t>
-  </si>
-  <si>
-    <t>cookie.policy.p3.content</t>
-  </si>
-  <si>
-    <t>Un cookie conține informații care fac legătura între utilizatori și un anume website. Dacă un browser accesează acel web-server din nou, acesta poate citi informația deja stocată și reacționa în consecință.</t>
-  </si>
-  <si>
-    <t>A cookie contains information that connects users to a specific website. If a browser accesses the same server again it can read the information already stored in the cookie and react accordingly.</t>
-  </si>
-  <si>
-    <t>Файл cookie містить інформацію, яка пов'язує користувачів із певним веб-сайтом. Якщо браузер знову звертається до сервера, він може прочитати інформацію, вже збережену у файлі cookie, і відреагувати відповідним чином.</t>
-  </si>
-  <si>
-    <t>Файл cookie содержит информацию, которая связывает пользователей с определенным веб-сайтом. Если браузер снова обращается к тому же серверу, он может прочитать информацию, уже сохраненную в файле cookie, и отреагировать соответствующим образом.</t>
-  </si>
-  <si>
-    <t>cookie.policy.p4.header</t>
-  </si>
-  <si>
-    <t>Care este durata de viață a unui cookie?</t>
-  </si>
-  <si>
-    <t>What is the average lifespan of a cookie?</t>
-  </si>
-  <si>
-    <t>Який середній термін життя файлу cookie?</t>
-  </si>
-  <si>
-    <t>Каков средний срок жизни файла cookie?</t>
-  </si>
-  <si>
-    <t>cookie.policy.p4.content</t>
-  </si>
-  <si>
-    <t>Exista cookie-uri folosite exclusiv pentru o singură sesiune - acestea nu mai sunt reținute după ce utilizatorul iese de pe website. Cookie-uri permanente - sunt reținute și refolosite de fiecare dată când utilizatorul revine pe acel website, însă pot fi șterse oricând de utilizator.</t>
-  </si>
-  <si>
-    <t>There are cookies that are exclusively used for a single session - these are no longer stored after the user has left the website. Permanent cookies are stored and reused every time the user returns to that website but can be deleted at any time by the user.</t>
-  </si>
-  <si>
-    <t>Існують файли cookie, які використовуються виключно для одного сеансу – вони більше не зберігаються після того, як користувач залишив веб-сайт. Постійні файли cookie зберігаються і повторно використовуються щоразу, коли користувач повертається на цей веб-сайт, але може бути видалений користувачем у будь-який час.</t>
-  </si>
-  <si>
-    <t>Существуют файлы cookie, которые используются исключительно для одного сеанса — они больше не сохраняются после того, как пользователь покинул веб-сайт. Постоянные файлы cookie сохраняются и повторно используются каждый раз, когда пользователь возвращается на этот веб-сайт, но может быть удален пользователем в любое время.</t>
-  </si>
-  <si>
-    <t>cookie.policy.p5.header</t>
-  </si>
-  <si>
-    <t>Ce sunt cookie-urile plasate de terți?</t>
-  </si>
-  <si>
-    <t>What are third party cookies?</t>
-  </si>
-  <si>
-    <t>Що таке сторонні файли cookie?</t>
-  </si>
-  <si>
-    <t>Что такое сторонние файлы cookie?</t>
-  </si>
-  <si>
-    <t>cookie.policy.p5.content</t>
-  </si>
-  <si>
-    <t>Părți de conținut sau servicii pot fi plasate pe website-ul accesat, de către terțe părți prin intermediul bannerelor, boxurilor sau linkurilor - iar toate aceste instrumente pot conține cookie-uri. Ele se numesc “third party cookies“ pentru că nu sunt plasate de proprietarul website-ului respectiv, iar furnizorii terți se supun legilor îin vigoare și politicilor de confidențialitate ale deținătorului site-ului.</t>
-  </si>
-  <si>
-    <t>Some parts of the content or services on the accessed website can be placed there by third parties via banners, boxes or links - and all these instruments can contain cookies. These are called “third-party cookies” because they are not placed by the owner of the respective website, third party cookies do however have to abide by the law and by the site owner’s confidentiality policy.</t>
-  </si>
-  <si>
-    <t>Деякі частини контенту або послуг на веб-сайті, що відвідуються, можуть бути розміщені там третіми особами за допомогою банерів, блоків або посилань, і всі ці інструменти можуть містити файли cookie. Вони називаються «сторонніми файлами cookie», оскільки вони не розміщуються власником відповідного веб-сайту, однак сторонні файли cookie повинні дотримуватися закону та політики конфіденційності власника сайту.</t>
-  </si>
-  <si>
-    <t>Некоторые части контента или услуг на посещаемом веб-сайте могут быть размещены там третьими лицами с помощью баннеров, блоков или ссылок, и все эти инструменты могут содержать файлы cookie. Они называются «сторонними файлами cookie», поскольку они не размещаются владельцем соответствующего веб-сайта, однако сторонние файлы cookie должны соблюдать закон и политику конфиденциальности владельца сайта.</t>
-  </si>
-  <si>
-    <t>cookie.policy.p6.header</t>
-  </si>
-  <si>
-    <t>Cum sunt folosite cookie-urile de către acest site?</t>
-  </si>
-  <si>
-    <t>How does this website use cookies?</t>
-  </si>
-  <si>
-    <t>Як цей веб-сайт використовує файли cookie?</t>
-  </si>
-  <si>
-    <t>Как этот веб-сайт использует файлы cookie?</t>
-  </si>
-  <si>
-    <t>cookie.policy.p6.content</t>
-  </si>
-  <si>
-    <t>O vizită pe acest site poate plasa cookie-uri în scopuri de:</t>
-  </si>
-  <si>
-    <t>Upon visiting this website you may receive the following cookie types:</t>
-  </si>
-  <si>
-    <t>Під час відвідування цього веб-сайту ви можете отримувати такі типи файлів cookie:</t>
-  </si>
-  <si>
-    <t>При посещении этого веб-сайта вы можете получать следующие типы файлов cookie:</t>
-  </si>
-  <si>
-    <t>cookie.policy.type.general</t>
-  </si>
-  <si>
-    <t>Cookie-uri pentru analiza vizitatorilor</t>
-  </si>
-  <si>
-    <t>Cookies that are used to analyse general user data</t>
-  </si>
-  <si>
-    <t>Файли cookie, які використовуються для аналізу загальних даних користувача.</t>
-  </si>
-  <si>
-    <t>Файлы cookie, которые используются для анализа общих пользовательских данных.</t>
-  </si>
-  <si>
-    <t>cookie.policy.type.registration</t>
-  </si>
-  <si>
-    <t>Cookie-uri de înregistrare</t>
-  </si>
-  <si>
-    <t>Registration cookies</t>
-  </si>
-  <si>
-    <t>Реєстраційні файли cookie</t>
-  </si>
-  <si>
-    <t>Регистрационные файлы cookie</t>
-  </si>
-  <si>
-    <t>cookie.policy.type.thirdparty</t>
-  </si>
-  <si>
-    <t>Unele cookie-uri pot proveni de la terți.</t>
-  </si>
-  <si>
-    <t>Some cookies can be third-party cookies.</t>
-  </si>
-  <si>
-    <t>Деякі файли cookie можуть бути сторонніми файлами cookie.</t>
-  </si>
-  <si>
-    <t>Некоторые файлы cookie могут быть сторонними файлами cookie.</t>
-  </si>
-  <si>
-    <t>cookie.policy.type.general.content</t>
-  </si>
-  <si>
-    <t>De fiecare dată când un utilizator vizitează acest site softul de analytics furnizat de o terță parte generează un cookie de analiză a utilizatorului. Acest cookie ne spune dacă ați mai vizitat acest site până acum. Browser-ul ne va spune dacă aveți acest cookie, iar dacă nu, vom genera unul. Acesta permite monitorizarea utilizatorilor unici care ne vizitează și cât de des o fac. Acest cookie nu poate fi folosit pentru a identifica persoanele fizice, ele sunt folosite doar în scop statistic.</t>
-  </si>
-  <si>
-    <t>Every time a user visits this website the analytics software provided by a third-party generates a cookie used to analyze the user profile. This cookie tells us if you've ever visited this website before. The browser will let us know if you have this cookie installed, and if not, this cookie will be generated. This allows us to monitor the number of unique users visiting this website as well as how often they return. This cookie cannot be used to identify physical persons and it is only used for statistical purposes.</t>
-  </si>
-  <si>
-    <t>Щоразу, коли я використовую ваше відвідування цього веб-сайту, аналітичне програмне забезпечення, надане третьою стороною, створює файл cookie, який використовується для аналізу профілю користувача. Cookie повідомляє нам, чи ви коли-небудь відвідували цей веб-сайт раніше. Браузер повідомить нам, чи встановлений цей файл cookie, а якщо ні, він буде згенерований. Це дозволяє нам відстежувати кількість унікальних користувачів, які відвідують цей веб-сайт, а також те, як часто вони повертаються. Цей файл cookie не може використовуватись для ідентифікації фізичних осіб та використовується лише для статистичних цілей.</t>
-  </si>
-  <si>
-    <t>Каждый раз, когда я использую ваше посещение этого веб-сайта, аналитическое программное обеспечение, предоставленное третьей стороной, создает файл cookie, используемый для анализа профиля пользователя. Cookie сообщает нам, посещали ли вы когда-либо этот веб-сайт раньше. Браузер сообщит нам, установлен ли у вас этот файл cookie, а если нет, он будет сгенерирован. Это позволяет нам отслеживать количество уникальных пользователей, посещающих этот веб-сайт, а также то, как часто они возвращаются. Этот файл cookie не может использоваться для идентификации физических лиц и используется только для статистических целей.</t>
-  </si>
-  <si>
-    <t>cookie.policy.type.registration.content</t>
-  </si>
-  <si>
-    <t>When registering to this website, we generate a cookie with your registration data. The cookie helps us in the next steps for communicating with the server. It is possible for this cookie to remain on your device if you do not follow through with all the registration steps. However, this cookie will be overwritten the next time you attempt to register on this website.</t>
-  </si>
-  <si>
-    <t>При реєстрації на цьому веб-сайті ми генеруємо файл cookie із вашими реєстраційними даними. Файл cookie допомагає нам на наступних етапах зв'язку із сервером. Цей файл cookie може залишитися на вашому пристрої, якщо ви не виконуєте всі кроки реєстрації. Однак цей файл cookie буде перезаписано за наступної спроби зареєструватися на цьому веб-сайті.</t>
-  </si>
-  <si>
-    <t>При регистрации на этом веб-сайте мы генерируем файл cookie с вашими регистрационными данными. Файл cookie помогает нам на следующих этапах связи с сервером. Этот файл cookie может остаться на вашем устройстве, если вы не выполните все шаги регистрации. Однако этот файл cookie будет перезаписан при следующей попытке зарегистрироваться на этом веб-сайте.</t>
-  </si>
-  <si>
-    <t>cookie.policy.type.thirdparty.content</t>
-  </si>
-  <si>
-    <t>Pe unele pagini, terții pot seta propriile cookie-uri anonime, în scopul de a urmări succesul unei aplicații, sau pentru a customiza o aplicație. Datorită modului de utilizare, acest site nu poate accesa aceste cookie-uri, la fel cum terțele părți nu pot accesa cookie-urile deținute de acest site. De exemplu, când distribuiți o pagină folosind butonul pentru rețelele sociale aflat pe acest site, acea rețea socială va înregistra activitatea dvs.</t>
-  </si>
-  <si>
-    <t>On some pages third parties can set up their own anonymous cookies for purposes of tracking an app’s success rate, or for customizing that app. Due to the way it is used, this website cannot access these cookies, just as third parties cannot access the cookies that belong to this website. For example when you share a page using a “share to social network” button on this website, that social network can track your activity.</t>
-  </si>
-  <si>
-    <t>На деяких сторінках треті особи можуть встановлювати власні анонімні файли cookie для відстеження успішності програми або для налаштування цієї програми. Через те, що він використовується, цей веб-сайт не може отримати доступ до цих файлів cookie, так само як треті сторони не можуть отримати доступ до файлів cookie, що належать цьому веб-сайту. Наприклад, коли ви ділитеся сторінкою за допомогою кнопки «Поділитися в соціальній мережі» на цьому веб-сайті, ця соціальна мережа може відстежувати вашу активність.</t>
-  </si>
-  <si>
-    <t>На некоторых страницах третьи лица могут устанавливать свои собственные анонимные файлы cookie для отслеживания успешности приложения или для настройки этого приложения. Из-за того, как он используется, этот веб-сайт не может получить доступ к этим файлам cookie, так же как третьи стороны не могут получить доступ к файлам cookie, принадлежащим этому веб-сайту. Например, когда вы делитесь страницей с помощью кнопки «Поделиться в социальной сети» на этом веб-сайте, эта социальная сеть может отслеживать вашу активность.</t>
-  </si>
-  <si>
-    <t>cookie.policy.p7.header</t>
-  </si>
-  <si>
-    <t>Ce tip de informații sunt stocate și accesate prin intermediul cookie-urilor?</t>
-  </si>
-  <si>
-    <t>What kind of information is stored and accessed through cookies?</t>
-  </si>
-  <si>
-    <t>Яка інформація зберігається та доступна через файли cookie?</t>
-  </si>
-  <si>
-    <t>Какая информация хранится и доступна через файлы cookie?</t>
-  </si>
-  <si>
-    <t>cookie.policy.p7.content</t>
-  </si>
-  <si>
-    <t>Cookie-urile păstrează informații într-un fișier text de mici dimensiuni care permit unui website să recunoască un browser. Webserver-ul va recunoaște browserul până când cookie-ul expiră sau este șters. Cookie-ul stochează informații importante care îmbunătățesc experiența de navigare pe Internet (ex: un număr de ordine pentru donația ta).</t>
-  </si>
-  <si>
-    <t>Cookies save information in a small text file allowing a website to recognize a browser. The web server will recognize the browser up until the cookie expires or is deleted. The cookie stores important information that improve the browsing experience (e.g. a serial number for your donation)</t>
-  </si>
-  <si>
-    <t>Файли cookie зберігають інформацію в невеликому текстовому файлі, який дозволяє веб-сайту розпізнавати браузер. Веб-сервер розпізнаватиме браузер доти, доки не закінчиться термін дії файлу cookie або він не буде видалений. Файл cookie зберігає важливу інформацію, яка покращує роботу в Інтернеті (наприклад, серійний номер вашої пожертвування).</t>
-  </si>
-  <si>
-    <t>Файлы cookie сохраняют информацию в небольшом текстовом файле, позволяющем веб-сайту распознавать браузер. Веб-сервер будет распознавать браузер до тех пор, пока не истечет срок действия файла cookie или он не будет удален. Файл cookie хранит важную информацию, которая улучшает работу в Интернете (например, серийный номер вашего пожертвования).</t>
-  </si>
-  <si>
-    <t>cookie.policy.p8.header</t>
-  </si>
-  <si>
-    <t>De ce sunt cookie-urile importante pentru Internet?</t>
-  </si>
-  <si>
-    <t>Why are cookies important to the Internet?</t>
-  </si>
-  <si>
-    <t>Чому важливі файли cookie для Інтернету?</t>
-  </si>
-  <si>
-    <t>Почему файлы cookie важны для Интернета?</t>
-  </si>
-  <si>
-    <t>cookie.policy.p8.content</t>
-  </si>
-  <si>
-    <t>Cookie-urile reprezintă punctul central al funcționării eficiente a Internetului, ajutând la generarea unei experiențe de navigare prietenoase și adaptată preferințelor și intereselor fiecărui utilizator. Refuzarea sau dezactivarea cookieurilor poate face unele site-uri imposibil de folosit.</t>
-  </si>
-  <si>
-    <t>Cookies are one of the most important tools for a seamless, efficient Internet experience, helping to generate friendly browsing experiences tailored to the needs of every user. Refusing to accept cookies or deactivating them can make some websites impossible to use.</t>
-  </si>
-  <si>
-    <t>Файли cookie є одним з найважливіших інструментів для безперешкодного та ефективного використання Інтернету, допомагаючи створювати зручні умови перегляду, адаптовані до потреб кожного користувача. Відмова від прийому файлів cookie або їх деактивація можуть унеможливити використання деяких веб-сайтів.</t>
-  </si>
-  <si>
-    <t>Файлы cookie являются одним из наиболее важных инструментов для беспрепятственного и эффективного использования Интернета, помогая создавать удобные условия просмотра, адаптированные к потребностям каждого пользователя. Отказ от приема файлов cookie или их деактивация могут сделать невозможным использование некоторых веб-сайтов.</t>
-  </si>
-  <si>
-    <t>cookie.policy.p9</t>
-  </si>
-  <si>
-    <t>Refuzarea sau dezactivarea cookie-urilor nu înseamnă că nu veți mai primi publicitate online - ci doar că aceasta nu va mai putea ține cont de preferințele și interesele dvs, evidențiate prin comportamentul de navigare.</t>
-  </si>
-  <si>
-    <t>Refusing to accept cookies or deactivating them does not mean that you will no longer receive online ads, only that these ads will no longer take your interests or preferences into account as determined by your browsing behavior.</t>
-  </si>
-  <si>
-    <t>Відмова приймати файли cookie або їх деактивація не означає, що ви більше не отримуватимете онлайн-рекламу, а лише те, що ця реклама більше не враховуватиме ваші інтереси або переваги, що визначаються вашою поведінкою в Інтернеті.</t>
-  </si>
-  <si>
-    <t>Отказ принимать файлы cookie или их деактивация не означает, что вы больше не будете получать онлайн-рекламу, а только то, что эта реклама больше не будет учитывать ваши интересы или предпочтения, определяемые вашим поведением в Интернете.</t>
-  </si>
-  <si>
-    <t>cookie.policy.security.header</t>
-  </si>
-  <si>
-    <t>Securitate și probleme legate de confidențialitate</t>
-  </si>
-  <si>
-    <t>Security and confidentiality concerns</t>
-  </si>
-  <si>
-    <t>Питання безпеки та конфіденційності</t>
-  </si>
-  <si>
-    <t>Вопросы безопасности и конфиденциальности</t>
-  </si>
-  <si>
-    <t>cookie.policy.security.p1</t>
-  </si>
-  <si>
-    <t>Cookie-urile NU sunt viruși! Ele folosesc formate tip plain text. Nu sunt alcătuite din bucăți de cod așa că nu pot fi executate nici nu pot auto-rula. În consecință, nu se pot duplica sau replica pe alte rețele pentru a se rula sau replica din nou. Deoarece nu pot îndeplini aceste funcții, nu pot fi considerate viruși.</t>
-  </si>
-  <si>
-    <t>Cookies are NOT viruses! They use plain text formats. They do not contain code strings and therefore cannot be triggered remotely nor can they activate themselves. They cannot duplicate or self-replicate across networks. As they cannot do any of the above that cannot be considered viruses.</t>
-  </si>
-  <si>
-    <t>Файли cookie не є вірусами! Вони використовують звичайні текстові формати. Вони не містять рядки коду і, отже, не можуть бути запущені віддалено і не можуть активуватися власними силами. Вони не можуть дублюватися або відтворюватися в мережі. Оскільки вони не можуть робити нічого з перерахованого вище, це не можна вважати вірусами.</t>
-  </si>
-  <si>
-    <t>Файлы cookie НЕ являются вирусами! Они используют простые текстовые форматы. Они не содержат строки кода и, следовательно, не могут быть запущены удаленно и не могут активироваться сами по себе. Они не могут дублироваться или самовоспроизводиться в сети. Поскольку они не могут делать ничего из вышеперечисленного, это нельзя считать вирусами.</t>
-  </si>
-  <si>
-    <t>cookie.policy.security.p2</t>
-  </si>
-  <si>
-    <t>Cookie-urile pot fi totuși folosite pentru scopuri negative. Deoarece stochează informații despre preferințele și istoricul de navigare al utilizatorilor, atât pe un anume site cât și pe mai multe alte siteuri, cookieurile pot fi folosite ca o formă de Spyware. Multe produse anti-spyware sunt conștiente de acest fapt și în mod constant marchează cookie-urile pentru a fi șterse în cadrul procedurilor de ștergere/scanare anti-virus/anti-spyware.</t>
-  </si>
-  <si>
-    <t>However, some cookies can be used for bad purposes. As they can store user preferences and navigation history, both from a specific website and for a broad selection of sites, cookies can be used as a form of spyware. Many anti-spyware products know this and constantly mark cookies to be deleted as part of anti-virus or anti-spyware scans.</t>
-  </si>
-  <si>
-    <t>Тим не менш, деякі файли cookie можуть використовуватись у поганих цілях. Оскільки вони можуть зберігати налаштування користувача та історію відвідувань як з певного веб-сайту, так і для широкого кола сайтів, файли cookie можуть використовуватися як форма шпигунського ПЗ. Багато антишпигунських продуктів знають про це і постійно помічають файли cookie для видалення в рамках антивірусного або антишпигунського сканування.</t>
-  </si>
-  <si>
-    <t>Тем не менее, некоторые файлы cookie могут использоваться в плохих целях. Поскольку они могут хранить пользовательские настройки и историю посещений как с определенного веб-сайта, так и для широкого круга сайтов, файлы cookie могут использоваться как форма шпионского ПО. Многие антишпионские продукты знают об этом и постоянно помечают файлы cookie для удаления в рамках антивирусного или антишпионского сканирования.</t>
-  </si>
-  <si>
-    <t>cookie.policy.security.p3</t>
-  </si>
-  <si>
-    <t>În general browserele au integrate setari de confidențialitate care furnizează diferite nivele de acceptare a cookieurilor, perioada de valabilitate și ștergere automată dupa ce utilizatorul a vizitat un anumit site.</t>
-  </si>
-  <si>
-    <t>Most browsers have privacy settings allowing you to select the types of cookies to accept, their duration as well as auto-delete features that remove cookies once the user has visited a certain site.</t>
-  </si>
-  <si>
-    <t>У більшості браузерів є налаштування конфіденційності, що дозволяють вам вибирати типи файлів cookie, їх тривалість, а також функції автоматичного видалення, які видаляють файли cookie після відвідування користувачем певного сайту.</t>
-  </si>
-  <si>
-    <t>В большинстве браузеров есть настройки конфиденциальности, позволяющие вам выбирать типы принимаемых файлов cookie, их продолжительность, а также функции автоматического удаления, которые удаляют файлы cookie после посещения пользователем определенного сайта.</t>
-  </si>
-  <si>
-    <t>cookie.policy.other.header</t>
-  </si>
-  <si>
-    <t>Alte aspecte de securitate legate de cookie-uri</t>
-  </si>
-  <si>
-    <t>Other Cookies security aspects</t>
-  </si>
-  <si>
-    <t>Інші аспекти безпеки файлів cookie</t>
-  </si>
-  <si>
-    <t>Другие аспекты безопасности файлов cookie</t>
-  </si>
-  <si>
-    <t>cookie.policy.other.p1</t>
-  </si>
-  <si>
-    <t>Deoarece protecția identității este foarte valoroasă și reprezintă dreptul fiecărui utilizator de internet, este indicat să se știe ce eventuale probleme pot crea cookieurile. Pentru că prin intermediul lor se transmit în mod constant în ambele sensuri informații între browser și website, dacă un atacator sau persoana neautorizată intervine în parcursul de transmitere a datelor, informațiile conținute de cookie pot fi interceptate. Deși foarte rar, acest lucru se poate întâmpla dacă browserul se conectează la server folosind o rețea necriptată (ex: o rețea WiFi nesecurizată).</t>
-  </si>
-  <si>
-    <t>As identity protection is very important and represents the right of every internet user, it is important for you to know what potential problems may be caused by cookies. Because cookies are used to constantly transmit information both ways between the browser and the website, unauthorised persons looking to compromise your security may intercept the information contained by cookies. Although this is very rare it can happen if your browser accesses the website by using an unencrypted network (e.g. an unsecured Wifi network).</t>
-  </si>
-  <si>
-    <t>Оскільки захист особистих даних дуже важливий і є правом кожного користувача Інтернету, вам важливо знати, які потенційні проблеми можуть бути викликані файлами cookie. Оскільки файли cookie використовуються для постійної передачі інформації в обох напрямках між браузером та веб-сайтом, сторонні особи, які намагаються поставити під загрозу вашу безпеку, можуть перехопити інформацію, яка міститься у файлах cookie. Хоча це дуже рідко, це може статися, якщо ваш браузер звертається на веб-сайт через незашифровану мережу (наприклад, незахищену мережу Wi-Fi).</t>
-  </si>
-  <si>
-    <t>Поскольку защита личных данных очень важна и представляет собой право каждого пользователя Интернета, вам важно знать, какие потенциальные проблемы могут быть вызваны файлами cookie. Поскольку файлы cookie используются для постоянной передачи информации в обоих направлениях между браузером и веб-сайтом, посторонние лица, пытающиеся поставить под угрозу вашу безопасность, могут перехватить информацию, содержащуюся в файлах cookie. Хотя это очень редко, это может произойти, если ваш браузер обращается к веб-сайту через незашифрованную сеть (например, незащищенную сеть Wi-Fi).</t>
-  </si>
-  <si>
-    <t>cookie.policy.other.p2</t>
-  </si>
-  <si>
-    <t>Alte atacuri bazate pe cookie implică setări greșite ale cookieurilor pe servere. Dacă un website nu solicită browserului să folosească doar canale criptate, atacatorii pot folosi această vulnerabilitate pentru a păcăli browserele în a trimite informații prin intermediul canalelor nesecurizate. Atacatorii utilizează apoi informațiile în scopuri de a accesa neautorizat anumite site-uri. Este foarte important să fiți atenți în alegerea metodei celei mai potrivite de protecție a informațiilor personale.</t>
-  </si>
-  <si>
-    <t>Other cookie-based attacks use wrong cookie settings on servers. If a website does not ask the browser to use encrypted channels only, attackers can use this vulnerability to trick browsers into sending information via unencrypted channels. Attackers then use this information to access unauthorised websites. It is very important to take great care in choosing the right methods of protecting your personal information.</t>
-  </si>
-  <si>
-    <t>Інші атаки на основі файлів cookie використовують неправильні налаштування файлів cookie на серверах. Якщо веб-сайт не просить браузер використовувати лише зашифровані канали, зловмисники можуть використовувати цю вразливість, щоб змусити браузери надсилати інформацію незашифрованими каналами. Потім зловмисники використовують цю інформацію для доступу до несанкціонованих веб-сайтів. Дуже важливо виявляти велику обережність під час вибору правильних методів захисту вашої особистої інформації.</t>
-  </si>
-  <si>
-    <t>Другие атаки на основе файлов cookie используют неправильные настройки файлов cookie на серверах. Если веб-сайт не просит браузер использовать только зашифрованные каналы, злоумышленники могут использовать эту уязвимость, чтобы заставить браузеры отправлять информацию по незашифрованным каналам. Затем злоумышленники используют эту информацию для доступа к несанкционированным веб-сайтам. Очень важно проявлять большую осторожность при выборе правильных методов защиты вашей личной информации.</t>
-  </si>
-  <si>
-    <t>cookie.policy.advice.header</t>
-  </si>
-  <si>
-    <t>Sfaturi pentru o navigare sigură și responsabilă, bazată pe cookies</t>
-  </si>
-  <si>
-    <t>Advice for safe and responsible cookie-based browsing</t>
-  </si>
-  <si>
-    <t>Поради щодо безпечного та відповідального пошуку з файлами cookie</t>
-  </si>
-  <si>
-    <t>Советы по безопасному и ответственному поиску с файлами cookie</t>
-  </si>
-  <si>
-    <t>cookie.policy.advice.p1</t>
-  </si>
-  <si>
-    <t>Datorită flexibilitatii lor și a faptului ca majoritatea dintre cele mai vizitate site-uri și cele mai mari folosesc cookieuri, acestea sunt aproape inevitabile.</t>
-  </si>
-  <si>
-    <t>Because of their flexibility and the fact that the majority of the largest and most visited websites use cookies, they are inevitable.</t>
-  </si>
-  <si>
-    <t>Через гнучкість і той факт, що більшість найбільших і найбільш відвідуваних веб-сайтів використовують файли cookie, вони є неминучими.</t>
-  </si>
-  <si>
-    <t>Из-за гибкости и тому факту, что большинство крупнейших и наиболее посещаемых веб-сайтов используют файлы cookie, они неизбежны.</t>
-  </si>
-  <si>
-    <t>cookie.policy.advice.p2</t>
-  </si>
-  <si>
-    <t>Dezactivarea cookie-urilor nu va permite accesul utilizatorului pe site-urile cele mai răspândite și utilizate printre care Youtube, Gmail, Yahoo și altele. Iată câteva sfaturi care vă pot asigura că navigați fără griji însă cu ajutorul cookie-urilor:</t>
-  </si>
-  <si>
-    <t>Deactivating cookies will no longer allow user access to some of the most important websites such as Youtube, Gmail, Yahoo and others. Here's some advice that can help you browse safely while retaining cookies:</t>
-  </si>
-  <si>
-    <t>Вимкнення файлів cookie більше не дозволить користувачеві отримати доступ до деяких найважливіших веб-сайтів, таких як Youtube, Gmail, Yahoo та інших. Ось кілька порад, які допоможуть вам безпечно переглядати веб-сторінки із збереженням файлів cookie:</t>
-  </si>
-  <si>
-    <t>Отключение файлов cookie больше не позволит пользователю получить доступ к некоторым наиболее важным веб-сайтам, таким как Youtube, Gmail, Yahoo и другим. Вот несколько советов, которые помогут вам безопасно просматривать веб-страницы с сохранением файлов cookie:</t>
-  </si>
-  <si>
-    <t>cookie.policy.advice.p1.1</t>
-  </si>
-  <si>
-    <t>Particularizați-vă setările browserului în ceea ce privește cookie-urile pentru a reflecta un nivel confortabil pentru voi al securității utilizării cookie-urilor. Dacă nu vă deranjează cookie-urile și sunteți singura persoană care utilizează computerul, puteți seta termene lungi de expirare pentru stocarea istoricului de navigare și al datelor personale de acces. Dacă împărțiți accesul la calculator, puteți lua în considerare setarea browserului pentru a șterge datele individuale de navigare de fiecare dată când închideți browserul. Aceasta este o variantă de a accesa site-urile care plasează cookie-uri și de a șterge orice informație de vizitare la închiderea sesiunii navigare.</t>
-  </si>
-  <si>
-    <t>Customize your browser cookie settings to allow for a comfortable security level. If cookies are not a problem for you and you are the only person using that device you can set long cookie retention intervals in order to store your browsing history and your personal access data. If you share the device or computer you may want to set up the browser to delete your individual browsing data every time it is closed. This is one way to access websites that place cookies on your shared computer while deleting all your browsing data when closing the session.</t>
-  </si>
-  <si>
-    <t>Налаштуйте параметри файлів cookie вашого браузера, щоб забезпечити зручний рівень безпеки. Якщо файли cookie не представляють вам проблеми і ви є єдиною людиною, яка використовує цей пристрій, ви можете встановити тривалі інтервали зберігання файлів cookie, щоб зберегти історію переглядів та ваші особисті дані доступу. Якщо ви ділитеся пристроєм або комп'ютером, ви можете налаштувати браузер так, щоб він видаляв ваші індивідуальні дані перегляду щоразу, коли він закривається. Це один із способів отримати доступ до веб-сайтів, які розміщують файли cookie на загальному комп'ютері, видаляючи всі дані перегляду при закритті сеансу.</t>
-  </si>
-  <si>
-    <t>Настройте параметры файлов cookie вашего браузера, чтобы обеспечить удобный уровень безопасности. Если файлы cookie не представляют для вас проблемы и вы являетесь единственным человеком, использующим это устройство, вы можете установить длительные интервалы хранения файлов cookie, чтобы сохранить историю просмотров и ваши личные данные доступа. Если вы делитесь устройством или компьютером, вы можете настроить браузер так, чтобы он удалял ваши индивидуальные данные просмотра каждый раз, когда он закрывается. Это один из способов получить доступ к веб-сайтам, которые размещают файлы cookie на вашем общем компьютере, удаляя при этом все данные просмотра при закрытии сеанса.</t>
-  </si>
-  <si>
-    <t>cookie.policy.advice.p1.2</t>
-  </si>
-  <si>
-    <t>Instalați-vă și updatați-vă constant aplicații antispyware.</t>
-  </si>
-  <si>
-    <t>Install and update regularly anti-spyware apps.</t>
-  </si>
-  <si>
-    <t>Встановіть антишпигунську програму та регулярно оновлюйте її</t>
-  </si>
-  <si>
-    <t>Установите антишпионское приложение и регулярно обновляйте его</t>
-  </si>
-  <si>
-    <t>cookie.policy.advice.p1.3</t>
-  </si>
-  <si>
-    <t>Multe dintre aplicațiile de detectare și prevenire a spyware-ului includ detectarea atacurilor pe site-uri. Astfel, impiedică browserul de la a accesa website-uri care ar putea să exploateze vulnerabilitățile browserului sau să descarce software periculos. Asigurați-vă că aveți browserul mereu updatat. Multe dintre atacurile bazate pe cookies se realizează exploatând punctele slabe ale versiunilor vechi ale browserelor.</t>
-  </si>
-  <si>
-    <t>Many anti-spyware apps include website attack detection. These apps prevent the browser from accessing websites that might exploit the browser’s vulnerabilities or download dangerous software. Ensure your browser is up-to-date. Many cookie-based attacks exploit the weak points of old browser versions.</t>
-  </si>
-  <si>
-    <t>Багато антишпигунських програм включають виявлення атак на веб-сайти. Ці програми запобігають доступу браузера до веб-сайтів, які можуть використовувати вразливість браузера або завантажувати небезпечні програми. Переконайтеся, що ваш браузер оновлено. Багато атак на основі файлів cookie використовують слабкі місця старих версій браузерів.</t>
-  </si>
-  <si>
-    <t>Многие антишпионские приложения включают обнаружение атак на веб-сайты. Эти приложения предотвращают доступ браузера к веб-сайтам, которые могут использовать уязвимости браузера или загружать опасные программы. Убедитесь, что ваш браузер обновлен. Многие атаки на основе файлов cookie используют слабые места старых версий браузеров.</t>
-  </si>
-  <si>
-    <t>cookie.policy.advice.p3</t>
-  </si>
-  <si>
-    <t>Cookie-urile sunt pretutindeni și nu pot fi evitate dacă doriți să vă bucurați de acces pe cele mai bune și cele mai mari site-uri de pe Internet - locale sau internaționale. Cu o înțelegere clară a modului lor de operare și a beneficiilor pe care le aduc, puteți lua măsurile necesare de securitate astel încât să puteți naviga cu încredere pe internet.</t>
-  </si>
-  <si>
-    <t>Cookies are everywhere and cannot be avoided if you wish to access some of the largest and best websites on the internet, either local or international. The clear understanding of the way cookies work and the benefits they bring you can take the necessary security measures so that you always have a safe and satisfactory browsing experience.</t>
-  </si>
-  <si>
-    <t>Файли cookie є скрізь, і їх не можна уникнути, якщо ви хочете отримати доступ до деяких з найбільших та найкращих веб-сайтів в Інтернеті, як місцевих, так і міжнародних. Чітке розуміння того, як працюють файли cookie та які переваги вони приносять, може вжити необхідних заходів безпеки, щоб у вас завжди був безпечний та задовільний досвід перегляду.</t>
-  </si>
-  <si>
-    <t>Файлы cookie есть везде, и их нельзя избежать, если вы хотите получить доступ к некоторым из крупнейших и лучших веб-сайтов в Интернете, как местных, так и международных. Четкое понимание того, как работают файлы cookie и какие преимущества они приносят, может принять необходимые меры безопасности, чтобы у вас всегда был безопасный и удовлетворительный опыт просмотра.</t>
-  </si>
-  <si>
-    <t>cookie.policy.turnoff.header</t>
-  </si>
-  <si>
-    <t>Cum pot opri cookie-urile?</t>
-  </si>
-  <si>
-    <t>How can I turn cookies off?</t>
-  </si>
-  <si>
-    <t>Як я можу вимкнути файли cookie?</t>
-  </si>
-  <si>
-    <t>Как я могу отключить файлы cookie?</t>
-  </si>
-  <si>
-    <t>cookie.policy.turnoff.p1</t>
-  </si>
-  <si>
-    <t>Dezactivarea și refuzul de a primi cookie-uri pot face anumite site-uri impracticabile sau dificil de vizitat și folosit. De asemenea, refuzul de a accepta cookie-uri nu înseamnă că nu veți mai primi/vedea publicitate online.</t>
-  </si>
-  <si>
-    <t>Refusing to accept cookies or deactivating them can make some websites difficult or impossible to navigate or use. Refusing to accept cookies also does not mean that you will no longer receive online ads.</t>
-  </si>
-  <si>
-    <t>Відмова від прийому файлів cookie або їх деактивація можуть утруднити або унеможливити навігацію або використання деяких веб-сайтів. Відмова від прийому файлів cookie також не означає, що ви не будете отримувати онлайн-рекламу.</t>
-  </si>
-  <si>
-    <t>Отказ от приема файлов cookie или их деактивация могут затруднить или сделать невозможным навигацию или использование некоторых веб-сайтов. Отказ от приема файлов cookie также не означает, что вы больше не будете получать онлайн-рекламу.</t>
-  </si>
-  <si>
-    <t>cookie.policy.turnoff.p2</t>
-  </si>
-  <si>
-    <t>Este posibilă setarea din browser pentru ca aceste cookie-uri să nu mai fie acceptate sau poți seta browserul să accepte cookie-uri de la un site anume. Dar, de exemplu, dacă nu dorești să folosești cookie-urile nu poți să urmezi și pașii următori după înregistrarea completarea formularului.</t>
-  </si>
-  <si>
-    <t>You can set up your browser to reject cookies automatically or you can select only some websites where cookies are enabled. But, for example, if you turn off cookies on this website you can not follow through with the next steps in filling out the form.</t>
-  </si>
-  <si>
-    <t>Ви можете настроїти свій браузер на автоматичну відмову від файлів cookie або вибрати лише деякі веб-сайти, на яких дозволено файли cookie. Але, наприклад, якщо ви вимкнете файли cookie на цьому веб-сайті, ви не зможете виконати наступні кроки під час заповнення форми.</t>
-  </si>
-  <si>
-    <t>Вы можете настроить свой браузер на автоматический отказ от файлов cookie или выбрать только некоторые веб-сайты, на которых разрешены файлы cookie. Но, например, если вы отключите файлы cookie на этом веб-сайте, вы не сможете выполнить следующие шаги при заполнении формы.</t>
-  </si>
-  <si>
-    <t>cookie.policy.turnoff.p3</t>
-  </si>
-  <si>
-    <t>Toate browserele moderne oferă posibilitatea de a schimba setarile cookie-urilor. Aceste setari se găsesc de regula în “opțiuni“ sau în meniul de “preferințe“ al browserului tău.</t>
-  </si>
-  <si>
-    <t>Modern browsers offer the ability to change cookie settings. You can usually find cookie settings under the “Options” tab or the “Preferences” menu of your browser.</t>
-  </si>
-  <si>
-    <t>Сучасні браузери пропонують можливість змінювати налаштування файлів cookie. Зазвичай ви можете знайти настройки файлів cookie на вкладці "Параметри" або в меню "Налаштування" вашого браузера.</t>
-  </si>
-  <si>
-    <t>Современные браузеры предлагают возможность изменять настройки файлов cookie. Обычно вы можете найти настройки файлов cookie на вкладке «Параметры» или в меню «Настройки» вашего браузера.</t>
-  </si>
-  <si>
-    <t>cookie.policy.p10</t>
-  </si>
-  <si>
-    <t>Pentru setarile cookie-urilor generate de terți, și pentru mai multe informații privind confidențialitatea legată de publicitatea online, IAB Romania pune la dispoziție următorul site:</t>
-  </si>
-  <si>
-    <t>For third-party cookies settings and for more information about online ad confidentiality, IAB Romania offers the following website:</t>
-  </si>
-  <si>
-    <t>Для налаштування сторонніх файлів cookie та отримання додаткової інформації про конфіденційність онлайн-реклами IAB Romania пропонує наступний веб-сайт:</t>
-  </si>
-  <si>
-    <t>Для настройки сторонних файлов cookie и получения дополнительной информации о конфиденциальности онлайн-рекламы IAB Romania предлагает следующий веб-сайт:</t>
-  </si>
-  <si>
-    <t>error.availability.required</t>
-  </si>
-  <si>
-    <t>Trebuie să selectați o valoare</t>
-  </si>
-  <si>
-    <t>Select a value</t>
-  </si>
-  <si>
-    <t>Виберіть значення</t>
-  </si>
-  <si>
-    <t>Выберите значение</t>
-  </si>
-  <si>
-    <t>resources.product</t>
-  </si>
-  <si>
-    <t>Produs</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Продукт</t>
-  </si>
-  <si>
-    <t>resources.quantity</t>
-  </si>
-  <si>
-    <t>Cantitate</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Кількість</t>
-  </si>
-  <si>
-    <t>Количество</t>
-  </si>
-  <si>
-    <t>resources.volunteering</t>
-  </si>
-  <si>
-    <t>resources.other</t>
-  </si>
-  <si>
-    <t>Resurse</t>
-  </si>
-  <si>
-    <t>Resources</t>
-  </si>
-  <si>
-    <t>Ресурси</t>
-  </si>
-  <si>
-    <t>Ресурсы</t>
-  </si>
-  <si>
-    <t>resources.added.products</t>
-  </si>
-  <si>
-    <t>Produse adăugate</t>
-  </si>
-  <si>
-    <t>Added products</t>
-  </si>
-  <si>
-    <t>Додані продукти</t>
-  </si>
-  <si>
-    <t>Добавленные продукты</t>
-  </si>
-  <si>
-    <t>resources.volunteering.added</t>
-  </si>
-  <si>
-    <t>Voluntariate adăugate</t>
-  </si>
-  <si>
-    <t>Added volunteering</t>
-  </si>
-  <si>
-    <t>Додане волонтерство</t>
-  </si>
-  <si>
-    <t>Добавленные волонтёрства</t>
-  </si>
-  <si>
-    <t>resources.services.added</t>
-  </si>
-  <si>
-    <t>Servicii adăugate</t>
-  </si>
-  <si>
-    <t>Added services</t>
-  </si>
-  <si>
-    <t>Додані сервіси</t>
-  </si>
-  <si>
-    <t>Добавленные услуги</t>
-  </si>
-  <si>
-    <t>resources.added.other</t>
-  </si>
-  <si>
-    <t>Alte resurse adăugate</t>
-  </si>
-  <si>
-    <t>Other added resources</t>
-  </si>
-  <si>
-    <t>Інші додані ресурси</t>
-  </si>
-  <si>
-    <t>Другие добавленные ресурсы</t>
-  </si>
-  <si>
-    <t>services.offerTransport</t>
-  </si>
-  <si>
-    <t>Pot asigura transport</t>
-  </si>
-  <si>
-    <t>I can provide transportation</t>
-  </si>
-  <si>
-    <t>Можемо забезпечити транспорт</t>
-  </si>
-  <si>
-    <t>Можем обеспечить транспорт</t>
-  </si>
-  <si>
-    <t>error.productName.required</t>
-  </si>
-  <si>
-    <t>Introduceți numele produsului</t>
-  </si>
-  <si>
-    <t>Insert the name of the product</t>
-  </si>
-  <si>
-    <t>Введіть назву продукту</t>
-  </si>
-  <si>
-    <t>Введите название продукта</t>
-  </si>
-  <si>
-    <t>error.packagkingType.required</t>
-  </si>
-  <si>
-    <t>Introduceți tipul de ambalaj</t>
-  </si>
-  <si>
-    <t>Insert the type of packaging</t>
-  </si>
-  <si>
-    <t>Вкажіть тип упаковки</t>
-  </si>
-  <si>
-    <t>Введите тип упаковки</t>
-  </si>
-  <si>
-    <t>error.unitType.required</t>
-  </si>
-  <si>
-    <t>Introduceți unitatea de măsură</t>
-  </si>
-  <si>
-    <t>Insert unit of measure</t>
-  </si>
-  <si>
-    <t>Введіть одиницю вимірювання</t>
-  </si>
-  <si>
-    <t>Введите единицу измерения</t>
-  </si>
-  <si>
-    <t>error.has_transportation.required</t>
-  </si>
-  <si>
-    <t>Please select an option</t>
-  </si>
-  <si>
-    <t>Будь ласка оберіть варіант</t>
-  </si>
-  <si>
-    <t>Пожалуйста, выберите вариант</t>
-  </si>
-  <si>
-    <t>error.tentCapacity.required</t>
-  </si>
-  <si>
-    <t>Introduceți numărul de corturi</t>
-  </si>
-  <si>
-    <t>Insert number of tents</t>
-  </si>
-  <si>
-    <t>Введіть кількість наметів</t>
-  </si>
-  <si>
-    <t>Введите количество палаток</t>
-  </si>
-  <si>
-    <t>signup.volunteering.name</t>
-  </si>
-  <si>
-    <t>error.name.required</t>
-  </si>
-  <si>
-    <t>Introduceți numele</t>
-  </si>
-  <si>
-    <t>Please enter a name</t>
-  </si>
-  <si>
-    <t>Будь ласка введіть назву</t>
-  </si>
-  <si>
-    <t>Пожалуйста, введите имя</t>
-  </si>
-  <si>
-    <t>endpoints./api/v1/donate/item/</t>
-  </si>
-  <si>
-    <t>endpoints./api/v1/donate/other</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>Інше</t>
-  </si>
-  <si>
-    <t>endpoints./api/v1/donate/transport_service</t>
-  </si>
-  <si>
-    <t>Сервіси</t>
-  </si>
-  <si>
-    <t>endpoints./api/v1/donate/volunteering</t>
-  </si>
-  <si>
-    <t>error.value.must.be.non.zero</t>
-  </si>
-  <si>
-    <t>Valoarea trebuie sa fie mai mare ca 0</t>
-  </si>
-  <si>
-    <t>Value must be greater than 0</t>
-  </si>
-  <si>
-    <t>Значення має бути більше 0</t>
-  </si>
-  <si>
-    <t>Значение должно быть больше 0</t>
-  </si>
-  <si>
-    <t>services.transport-persons</t>
-  </si>
-  <si>
-    <t>validation.date.must.be.in.future</t>
-  </si>
-  <si>
-    <t>Data introdusa trebuie sa fie în viitor</t>
-  </si>
-  <si>
-    <t>The entered date must be in the future</t>
-  </si>
-  <si>
-    <t>Введена дата має бути в майбутньому</t>
-  </si>
-  <si>
-    <t>Введенная дата должна быть в будущем</t>
-  </si>
-  <si>
-    <t>validation.date.invalid</t>
-  </si>
-  <si>
-    <t>Data introdusa este intr-un format invalid</t>
-  </si>
-  <si>
-    <t>The entered date is in an invalid format</t>
-  </si>
-  <si>
-    <t>Введена дата має неправильний формат</t>
-  </si>
-  <si>
-    <t>Введенная дата имеет неверный формат</t>
-  </si>
-  <si>
-    <t>ua</t>
-  </si>
-  <si>
-    <t>Ukranian</t>
-  </si>
-  <si>
-    <t>Alt tip de resursă</t>
-  </si>
-  <si>
-    <t>Other type of resource</t>
-  </si>
-  <si>
-    <t>Інший тип ресурсу</t>
-  </si>
-  <si>
-    <t>Другой тип ресурса</t>
-  </si>
-  <si>
-    <t>Psiholog</t>
-  </si>
-  <si>
-    <t>Psychologist</t>
-  </si>
-  <si>
-    <t>Психолог</t>
-  </si>
-  <si>
-    <t>Medic</t>
-  </si>
-  <si>
-    <t>Doctor</t>
-  </si>
-  <si>
-    <t>Лікар</t>
-  </si>
-  <si>
-    <t>Врач</t>
-  </si>
-  <si>
-    <t>Asistent medical</t>
-  </si>
-  <si>
-    <t>Nurse</t>
-  </si>
-  <si>
-    <t>Медсестра</t>
-  </si>
-  <si>
-    <t>Organizare</t>
-  </si>
-  <si>
-    <t>Organization</t>
-  </si>
-  <si>
-    <t>Організація</t>
-  </si>
-  <si>
-    <t>Организация</t>
-  </si>
-  <si>
-    <t>Другое</t>
-  </si>
-  <si>
-    <t>Avocat</t>
-  </si>
-  <si>
-    <t>Lawyer</t>
-  </si>
-  <si>
-    <t>Юрист</t>
-  </si>
-  <si>
-    <t>Bucătar</t>
-  </si>
-  <si>
-    <t>Cook</t>
-  </si>
-  <si>
-    <t>Кухар</t>
-  </si>
-  <si>
-    <t>Повар</t>
-  </si>
-  <si>
-    <t>resources.added.other.added</t>
-  </si>
-  <si>
-    <t>Додано інші ресурси</t>
-  </si>
-  <si>
-    <t>Disponibil in weekend</t>
-  </si>
-  <si>
-    <t>Available during the weekend</t>
-  </si>
-  <si>
-    <t>Доступний на вихідних</t>
-  </si>
-  <si>
-    <t>Доступно в выходные</t>
-  </si>
-  <si>
-    <t>Disponibil in timpul saptamanii</t>
-  </si>
-  <si>
-    <t>Available during the week</t>
-  </si>
-  <si>
-    <t>Доступний протягом тижня</t>
-  </si>
-  <si>
-    <t>Доступно в течение недели</t>
-  </si>
-  <si>
-    <t>Disponibil oricand</t>
-  </si>
-  <si>
-    <t>Available anytime</t>
-  </si>
-  <si>
-    <t>Доступний у будь-який час</t>
-  </si>
-  <si>
-    <t>Доступно в любое время</t>
-  </si>
-  <si>
-    <t>Intervale fixe</t>
-  </si>
-  <si>
-    <t>Fixed intervals</t>
-  </si>
-  <si>
-    <t>Фіксовані інтервали</t>
-  </si>
-  <si>
-    <t>Фиксированные интервалы</t>
-  </si>
-  <si>
-    <t>signup.products.textiles</t>
-  </si>
-  <si>
-    <t>Alte textile</t>
-  </si>
-  <si>
-    <t>Other textiles</t>
-  </si>
-  <si>
-    <t>signup.products.name</t>
-  </si>
-  <si>
-    <t>Nume produs</t>
-  </si>
-  <si>
-    <t>Product name</t>
-  </si>
-  <si>
-    <t>error.textile.category.required</t>
-  </si>
-  <si>
-    <t>Alege o categorie de textile</t>
-  </si>
-  <si>
-    <t>Please pick a textile category</t>
-  </si>
-  <si>
-    <t>signup.products.size</t>
-  </si>
-  <si>
-    <t>Marime / Vârsta</t>
-  </si>
-  <si>
-    <t>Size / Age</t>
-  </si>
-  <si>
-    <t>register.genericError</t>
-  </si>
-  <si>
-    <t>A apărut o errore. Te rugăm să încerci mai târziu</t>
-  </si>
-  <si>
-    <t>An error occured. Please try again later</t>
-  </si>
-  <si>
-    <t>Individual</t>
-  </si>
-  <si>
-    <t>Persoană Fizică</t>
-  </si>
-  <si>
-    <t>Corporate</t>
-  </si>
-  <si>
-    <t>Companie</t>
-  </si>
-  <si>
-    <t>Non-Profit</t>
-  </si>
-  <si>
-    <t>ONG</t>
-  </si>
-  <si>
-    <t>Government</t>
-  </si>
-  <si>
-    <t>Autoritate Publică</t>
   </si>
 </sst>
 </file>
@@ -4122,7 +4188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E276"/>
+  <dimension ref="A1:E278"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -5397,97 +5463,97 @@
         <v>355</v>
       </c>
       <c r="E75" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B76" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C76" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D76" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E76" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B77" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C77" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D77" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="E77" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B78" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C78" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D78" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E78" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>372</v>
+      </c>
+      <c r="B79" t="s">
+        <v>373</v>
+      </c>
+      <c r="C79" t="s">
         <v>369</v>
       </c>
-      <c r="B79" t="s">
-        <v>370</v>
-      </c>
-      <c r="C79" t="s">
-        <v>366</v>
-      </c>
       <c r="D79" t="s">
+        <v>374</v>
+      </c>
+      <c r="E79" t="s">
         <v>371</v>
-      </c>
-      <c r="E79" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B80" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C80" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D80" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E80" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B81" t="s">
         <v>181</v>
@@ -5504,262 +5570,262 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B82" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C82" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D82" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E82" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B83" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C83" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D83" t="s">
         <v>289</v>
       </c>
       <c r="E83" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B84" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C84" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D84" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E84" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B85" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C85" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D85" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E85" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B86" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C86" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D86" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E86" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B87" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C87" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D87" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E87" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B88" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C88" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D88" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E88" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B89" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C89" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D89" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="E89" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B90" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C90" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D90" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E90" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B91" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C91" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D91" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="E91" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B92" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C92" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D92" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E92" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B93" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C93" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D93" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="E93" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B94" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C94" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D94" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="E94" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B95" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C95" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D95" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E95" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B96" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C96" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D96" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="E96" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B97" t="s">
         <v>167</v>
@@ -5776,551 +5842,551 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B98" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C98" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D98" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="E98" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B99" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C99" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D99" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E99" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B100" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C100" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D100" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="E100" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B101" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C101" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D101" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="E101" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B102" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C102" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D102" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="E102" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B103" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C103" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D103" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="E103" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B104" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C104" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D104" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E104" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B105" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C105" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D105" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="E105" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B106" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C106" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D106" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="E106" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B107" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C107" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="D107" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="E107" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B108" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C108" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D108" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="E108" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B109" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C109" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D109" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E109" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B110" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C110" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D110" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="E110" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B111" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C111" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D111" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="E111" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B112" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C112" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D112" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="E112" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B113" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C113" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="D113" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="E113" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B114" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C114" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D114" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="E114" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B115" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C115" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="D115" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="E115" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B116" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C116" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D116" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="E116" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B117" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C117" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="D117" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="E117" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="B118" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C118" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="D118" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="E118" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B119" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C119" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D119" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="E119" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B120" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C120" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="D120" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="E120" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B121" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C121" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="D121" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="E121" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="B122" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C122" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="D122" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="E122" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="B123" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C123" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="D123" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="E123" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B124" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C124" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="D124" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="E124" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B125" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C125" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="D125" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="E125" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B126" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="C126" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="D126" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="E126" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="B127" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C127" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D127" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="E127" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B128" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C128" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="D128" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="E128" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B129" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C129" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="D129" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="E129" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="B130" t="s">
         <v>123</v>
@@ -6329,7 +6395,7 @@
         <v>124</v>
       </c>
       <c r="D130" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="E130" t="s">
         <v>126</v>
@@ -6337,449 +6403,449 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="B131" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="C131" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="D131" t="s">
         <v>125</v>
       </c>
       <c r="E131" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="B132" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="C132" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="D132" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="E132" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B133" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="C133" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="D133" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="E133" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="B134" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="C134" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="D134" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="E134" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B135" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C135" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="D135" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="E135" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="B136" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C136" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="D136" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="E136" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B137" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="C137" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="D137" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="E137" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="B138" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="C138" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="D138" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="E138" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="B139" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="C139" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="D139" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="E139" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B140" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C140" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="D140" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="E140" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B141" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C141" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="D141" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="E141" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B142" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="C142" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="D142" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="E142" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B143" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="C143" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="D143" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="E143" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>673</v>
+      </c>
+      <c r="B144" t="s">
+        <v>674</v>
+      </c>
+      <c r="C144" t="s">
         <v>670</v>
       </c>
-      <c r="B144" t="s">
+      <c r="D144" t="s">
         <v>671</v>
       </c>
-      <c r="C144" t="s">
-        <v>667</v>
-      </c>
-      <c r="D144" t="s">
-        <v>668</v>
-      </c>
       <c r="E144" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="B145" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="C145" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="D145" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="E145" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B146" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="C146" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D146" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="E146" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="B147" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="C147" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="D147" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="E147" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="B148" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="C148" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="D148" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="E148" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="B149" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="C149" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="D149" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="E149" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="B150" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="C150" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="D150" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="E150" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="B151" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C151" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="D151" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="E151" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="B152" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="C152" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="D152" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="E152" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="B153" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="C153" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="D153" t="s">
         <v>135</v>
       </c>
       <c r="E153" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="B154" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C154" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D154" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="E154" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="B155" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C155" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D155" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="E155" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="B156" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="C156" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="D156" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="E156" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="B157" t="s">
         <v>293</v>
@@ -6788,1273 +6854,1273 @@
         <v>294</v>
       </c>
       <c r="D157" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="E157" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="B158" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="C158" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="D158" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="E158" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="B159" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="C159" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="D159" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="E159" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="B160" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="C160" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="D160" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="E160" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="B161" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="C161" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="D161" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="E161" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="B162" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="C162" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="D162" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="E162" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="B163" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="C163" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="D163" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="E163" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="B164" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="C164" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="D164" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="E164" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="B165" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="C165" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="D165" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="E165" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="B166" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="C166" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="D166" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="E166" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B167" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="C167" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="D167" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="E167" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="B168" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="C168" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="D168" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="E168" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="B169" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="C169" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="D169" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="E169" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="B170" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="C170" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="D170" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="E170" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="B171" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C171" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="D171" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="E171" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="B172" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="C172" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="D172" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="E172" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="B173" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="C173" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="D173" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="E173" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="B174" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="C174" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="D174" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="E174" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="B175" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="C175" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="D175" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="E175" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="B176" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="C176" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D176" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="E176" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="B177" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C177" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="D177" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="E177" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="B178" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="C178" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="D178" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="E178" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="B179" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="C179" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="D179" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="E179" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="B180" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="C180" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="D180" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="E180" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="B181" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="C181" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="D181" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="E181" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="B182" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="C182" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="D182" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="E182" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="B183" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="C183" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="D183" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="E183" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="B184" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="C184" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="D184" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="E184" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="B185" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="C185" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="D185" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="E185" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="B186" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="C186" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="D186" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="E186" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="B187" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="C187" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="D187" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="E187" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="B188" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="C188" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="D188" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="E188" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="B189" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="C189" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="D189" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="E189" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="B190" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="C190" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="D190" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="E190" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="B191" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="C191" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="D191" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="E191" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="B192" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="C192" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="D192" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="E192" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="B193" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="C193" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="D193" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="E193" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="B194" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="C194" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="D194" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="E194" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="B195" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="C195" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="D195" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="E195" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="B196" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="C196" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="D196" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="E196" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="B197" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="C197" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="D197" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="E197" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="B198" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="C198" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="D198" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="E198" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="B199" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="C199" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="D199" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="E199" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="B200" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="C200" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="D200" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="E200" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="B201" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="C201" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="D201" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="E201" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="B202" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="C202" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="D202" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="E202" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="B203" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="C203" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="D203" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="E203" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="B204" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="C204" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="D204" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="E204" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="B205" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="C205" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="D205" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="E205" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="B206" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="C206" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="D206" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="E206" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="B207" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="C207" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="D207" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="E207" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="B208" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="C208" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="D208" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="E208" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="B209" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="C209" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="D209" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="E209" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="B210" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="C210" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="D210" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="E210" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="B211" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="C211" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="D211" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="E211" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="B212" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="C212" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="D212" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="E212" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="B213" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="C213" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="D213" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="E213" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="B214" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="C214" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="D214" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="E214" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="B215" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="C215" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="D215" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="E215" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="B216" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="C216" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="D216" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="E216" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="B217" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="C217" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="D217" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="E217" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="B218" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="C218" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="D218" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="E218" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="B219" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="C219" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="D219" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="E219" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="B220" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="C220" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="D220" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="E220" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="B221" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="C221" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="D221" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="E221" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="B222" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="C222" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="D222" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="E222" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="B223" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="C223" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="D223" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="E223" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="B224" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="C224" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="D224" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="E224" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="B225" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="C225" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="D225" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="E225" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="B226" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="C226" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="D226" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="E226" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="B227" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="C227" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="D227" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="E227" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="B228" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="C228" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="D228" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="E228" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="B229" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="C229" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="D229" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="E229" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="B230" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="C230" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="D230" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="E230" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="B231" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="C231" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="D231" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="E231" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="B232" t="s">
         <v>138</v>
@@ -8071,228 +8137,228 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="B233" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="C233" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="D233" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="E233" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="B234" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="C234" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="D234" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="E234" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="B235" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="C235" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="D235" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="E235" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="B236" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="C236" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="D236" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="E236" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="B237" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="C237" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="D237" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="E237" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B238" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="C238" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="D238" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="E238" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="B239" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="C239" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="D239" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="E239" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="B240" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="C240" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="D240" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="E240" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="B241" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="C241" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="D241" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="E241" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="B242" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="C242" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="D242" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="E242" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="B243" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="C243" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="D243" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="E243" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="B244" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C244" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D244" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E244" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="B245" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="C245" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="D245" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="E245" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="B246" t="s">
         <v>123</v>
@@ -8301,7 +8367,7 @@
         <v>124</v>
       </c>
       <c r="D246" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="E246" t="s">
         <v>126</v>
@@ -8309,24 +8375,24 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="B247" t="s">
         <v>133</v>
       </c>
       <c r="C247" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="D247" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="E247" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="B248" t="s">
         <v>128</v>
@@ -8335,7 +8401,7 @@
         <v>129</v>
       </c>
       <c r="D248" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="E248" t="s">
         <v>131</v>
@@ -8343,7 +8409,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="B249" t="s">
         <v>138</v>
@@ -8360,81 +8426,81 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="B250" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="C250" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="D250" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="E250" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B251" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C251" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D251" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="E251" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="B252" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="C252" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="D252" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="E252" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="B253" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="C253" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="D253" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="E253" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="B254" t="s">
         <v>16</v>
       </c>
       <c r="C254" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="D254" t="s">
         <v>18</v>
@@ -8445,87 +8511,87 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="B255" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="C255" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="D255" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="E255" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="B256" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="C256" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="D256" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="E256" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="B257" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="C257" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="D257" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="E257" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="B258" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="C258" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="D258" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="E258" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="B259" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="C259" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="D259" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="E259" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -8539,282 +8605,316 @@
         <v>134</v>
       </c>
       <c r="D260" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="E260" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="B261" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="C261" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="D261" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="E261" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="B262" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="C262" t="s">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="D262" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="E262" t="s">
-        <v>1203</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
       <c r="B263" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="C263" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="D263" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="E263" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="B264" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="C264" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="D264" t="s">
-        <v>1208</v>
+        <v>1211</v>
       </c>
       <c r="E264" t="s">
-        <v>1209</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>1210</v>
+        <v>1213</v>
       </c>
       <c r="B265" t="s">
-        <v>1210</v>
+        <v>1213</v>
       </c>
       <c r="C265" t="s">
-        <v>1211</v>
+        <v>1214</v>
       </c>
       <c r="D265" t="s">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="E265" t="s">
-        <v>1213</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>1214</v>
+        <v>1217</v>
       </c>
       <c r="B266" t="s">
-        <v>1214</v>
+        <v>1217</v>
       </c>
       <c r="C266" t="s">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="D266" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="E266" t="s">
-        <v>1217</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>1218</v>
+        <v>1221</v>
       </c>
       <c r="B267" t="s">
-        <v>1218</v>
+        <v>1221</v>
       </c>
       <c r="C267" t="s">
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="D267" t="s">
-        <v>1220</v>
+        <v>1223</v>
       </c>
       <c r="E267" t="s">
-        <v>1221</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="B268" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
       <c r="C268" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="D268" t="s">
-        <v>355</v>
+        <v>1228</v>
       </c>
       <c r="E268" t="s">
-        <v>355</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>1225</v>
+        <v>1230</v>
       </c>
       <c r="B269" t="s">
-        <v>1226</v>
+        <v>1231</v>
       </c>
       <c r="C269" t="s">
-        <v>1227</v>
+        <v>1232</v>
       </c>
       <c r="D269" t="s">
-        <v>355</v>
+        <v>1233</v>
       </c>
       <c r="E269" t="s">
-        <v>355</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>1228</v>
+        <v>1235</v>
       </c>
       <c r="B270" t="s">
-        <v>1229</v>
+        <v>1236</v>
       </c>
       <c r="C270" t="s">
-        <v>1230</v>
+        <v>1237</v>
       </c>
       <c r="D270" t="s">
-        <v>355</v>
+        <v>1238</v>
       </c>
       <c r="E270" t="s">
-        <v>355</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>1231</v>
+        <v>1240</v>
       </c>
       <c r="B271" t="s">
-        <v>1232</v>
+        <v>1241</v>
       </c>
       <c r="C271" t="s">
-        <v>1233</v>
+        <v>1242</v>
       </c>
       <c r="D271" t="s">
-        <v>355</v>
+        <v>1243</v>
       </c>
       <c r="E271" t="s">
-        <v>355</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>1234</v>
+        <v>1245</v>
       </c>
       <c r="B272" t="s">
-        <v>1235</v>
+        <v>1246</v>
       </c>
       <c r="C272" t="s">
-        <v>1236</v>
+        <v>1247</v>
       </c>
       <c r="D272" t="s">
-        <v>355</v>
+        <v>1248</v>
       </c>
       <c r="E272" t="s">
-        <v>355</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>1237</v>
+        <v>1250</v>
       </c>
       <c r="B273" t="s">
-        <v>1238</v>
+        <v>1251</v>
       </c>
       <c r="C273" t="s">
-        <v>1237</v>
+        <v>1250</v>
       </c>
       <c r="D273" t="s">
-        <v>355</v>
+        <v>1252</v>
       </c>
       <c r="E273" t="s">
-        <v>355</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>1239</v>
+        <v>1254</v>
       </c>
       <c r="B274" t="s">
-        <v>1240</v>
+        <v>1255</v>
       </c>
       <c r="C274" t="s">
-        <v>1239</v>
+        <v>1254</v>
       </c>
       <c r="D274" t="s">
-        <v>355</v>
+        <v>1256</v>
       </c>
       <c r="E274" t="s">
-        <v>355</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>1241</v>
+        <v>1258</v>
       </c>
       <c r="B275" t="s">
-        <v>1242</v>
+        <v>1259</v>
       </c>
       <c r="C275" t="s">
-        <v>1241</v>
+        <v>1258</v>
       </c>
       <c r="D275" t="s">
-        <v>355</v>
+        <v>1260</v>
       </c>
       <c r="E275" t="s">
-        <v>355</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>1243</v>
+        <v>1262</v>
       </c>
       <c r="B276" t="s">
-        <v>1244</v>
+        <v>1263</v>
       </c>
       <c r="C276" t="s">
-        <v>1243</v>
+        <v>1262</v>
       </c>
       <c r="D276" t="s">
-        <v>355</v>
+        <v>1264</v>
       </c>
       <c r="E276" t="s">
-        <v>355</v>
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>569</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C277" t="s">
+        <v>569</v>
+      </c>
+      <c r="D277" t="s">
+        <v>570</v>
+      </c>
+      <c r="E277" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>593</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C278" t="s">
+        <v>593</v>
+      </c>
+      <c r="D278" t="s">
+        <v>594</v>
+      </c>
+      <c r="E278" t="s">
+        <v>595</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/translate/JSON_Translations.xlsx
+++ b/scripts/translate/JSON_Translations.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="1267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="1378">
   <si>
     <t>Identifier</t>
   </si>
@@ -1831,6 +1831,18 @@
     <t>Значение должно быть в формате час:минута</t>
   </si>
   <si>
+    <t>error.must.be.greater.than.from</t>
+  </si>
+  <si>
+    <t>Până la trebuie să fie mai mare decât De la</t>
+  </si>
+  <si>
+    <t>Until value must be greater than From</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>error.must.be.date</t>
   </si>
   <si>
@@ -3256,6 +3268,269 @@
     <t>Для настройки сторонних файлов cookie и получения дополнительной информации о конфиденциальности онлайн-рекламы IAB Romania предлагает следующий веб-сайт:</t>
   </si>
   <si>
+    <t>terms-and-conditions.title</t>
+  </si>
+  <si>
+    <t>Termeni și condiții de utilizare</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p1</t>
+  </si>
+  <si>
+    <t>Termenii și Condițiile generale de utilizare stabilesc termenii și condițiile generale de utilizare a site-ului sprijindeurgenta.ro de către potențialii vizitatori sau beneficiari.</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p2</t>
+  </si>
+  <si>
+    <t>Platforma sprijindeurgenta.ro este dezvoltată de Asociația Code for Romania (denumită în continuare “Code for Romania”) în parteneriat cu Departamentul pentru Situații de Urgență.</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p3</t>
+  </si>
+  <si>
+    <t>“sprijindeurgenta.ro” (în continuare denumit „Site”, „Platformă”, ”sprijindeurgenta.ro”) este o platformă digitală completă prin care persoanele juridice (companii, organizații neguvernamentale, autorități locale), dar și persoane fizice pot pune la dispoziție resurse pentru a veni în sprijinul persoanelor care fug din calea războiului din Ucraina. Sistemul este parte din ecosistemul național oficial de management al resurselor în situații de urgență dezvoltat de Code for Romania și administrat de Departamentul pentru Situații de Urgență.</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p4.header</t>
+  </si>
+  <si>
+    <t>1. Obiectivul Platformei</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p4.content.p1</t>
+  </si>
+  <si>
+    <t>Obiectivul sprijindeurgenta.ro este de a oferi un canal digital prin care prin care persoanele juridice (companii, organizații neguvernamentale, autorități locale), dar și persoane fizice pot pune la dispoziție resurse pentru a veni în sprijinul persoanelor care fug din calea războiului din Ucraina. Sistemul este parte din ecosistemul național oficial de management al resurselor în situații de urgență dezvoltat de Code for Romania și administrat de Departamentul pentru Situații de Urgență.</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p4.content.p2</t>
+  </si>
+  <si>
+    <t>Site-ul permite înregistrarea entităților care vor să pună la dispoziție resurse cu titlu gratuit pentru a ajuta în criza umanitară cauzată de conflictul din Ucraina. Prin formularele puse la dispoziție în platforma sprijindeurgenta.ro entitatile vor completa informatii cu privire la produsele, resursele, serviciile si expertiza voluntara pe care o pot pune la dispozitie pentru a sprijini eforturile de asistare a refugiaților care se adăpostesc în România în această perioadă de conflict.</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p4.content.p3</t>
+  </si>
+  <si>
+    <t>Persoanele fizice care doresc, de asemenea, să contribuie cu resurse vor fi direcționați către centrele de colectare organizate de organizații neguvernamentale sau de autorități publice în localitățile din țară.</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p5.header</t>
+  </si>
+  <si>
+    <t>2. Datele personale prelucrate</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p5.content</t>
+  </si>
+  <si>
+    <t>Completând formularele puse la dispoziție în paginile platformei putem colecta următoarele date:</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p5.content.li1</t>
+  </si>
+  <si>
+    <t>Denumirea entității publice sau private</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p5.content.li2</t>
+  </si>
+  <si>
+    <t>Adresa de e-mail a entității publice sau private</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p5.content.li3</t>
+  </si>
+  <si>
+    <t>Numărul de telefon al entității publice sau private</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p6.header</t>
+  </si>
+  <si>
+    <t>3. Scop și temei</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p6.content</t>
+  </si>
+  <si>
+    <t>Code for Romania prelucrează datele entităților persoane juridice, publice sau private, doar în scopul de a crea acestora un cont de utilizator în care pot adăuga, edita sau șterge resurse pe care doresc să le pună la dispoziție pentru a fi utilizate cu scopul de a sprijini persoanele vulnerabile care acum se refugiază din Ucraina pe teritoriul României.</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p7.header</t>
+  </si>
+  <si>
+    <t>4. Durata stocării</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p7.content</t>
+  </si>
+  <si>
+    <t>Datele furnizate sunt stocate temporar pe durata funcționării platformei sprijindeurgenta.ro în contextul crizei umanitare cauzate de conflictul armat din Ucraina.</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p8.header</t>
+  </si>
+  <si>
+    <t>5. Transmiterea datelor către terți</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p8.content</t>
+  </si>
+  <si>
+    <t>Datele furnizate sunt utilizate de către Centrul Național de Coordonare și Comandă a Intervenției și structurile sale teritoriale pentru a putea coordona intervenția în cadrul acestei situații de urgență. Datele pot fi transmise către alte instituții sau autorități publice, precum și alte organe abilitate ale statului, în baza și în limitele prevederilor legale, ca urmare a unor cereri expres formulate de acestea.</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p9.header</t>
+  </si>
+  <si>
+    <t>6. Drepturile tale</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p9.content</t>
+  </si>
+  <si>
+    <t>În calitate de utilizator al platformei sprijindeurgenta.ro, potrivit Legii nr. 679/2016, precum și, începând cu 25 mai 2018, potrivit Regulamentului General privind protecția datelor, ai următoarele drepturi:</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p9.content.li1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dreptul la informare cu privire la prelucrarea datelor;
+</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p9.content.li2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dreptul de acces la datele furnizate, la cerere și în mod gratuit pentru o solicitare pe an;
+</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p9.content.li3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dreptul de intervenție, rectificarea, ștergerea sau portabilitatea datelor, la cerere și în mod gratuit;
+</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p9.content.li4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dreptul de a te adresa Autorității Naționale de Supraveghere privind Prelucrarea Datelor cu Caracter Personal (cu sediul în Bucureşti, sector 1, B-dul G-ral. Gheorghe Magheru, www.dataprotection.ro) sau justiției, pentru apărarea oricăror drepturi garantate de lege;
+</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p9.content.li5</t>
+  </si>
+  <si>
+    <t>Dreptul la opoziţie şi procesul decizional individual automatizat;</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p9.content.li6</t>
+  </si>
+  <si>
+    <t>începând cu 25 mai 2018, potrivit Regulamentului general privind protecția datelor, dreptul la restricționarea prelucrării.</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p10.header</t>
+  </si>
+  <si>
+    <t>7. Securitate și confidențialitate</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p10.content.p1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protecția informațiilor în cursul prelucrării datelor colectate este o preocupare majoră a Code for Romania, de aceea toate datele colectate în cursul vizitelor pe sprijindeurgenta.ro sunt prelucrate conform prevederilor legale în vigoare în România. Code for Romania folosește tehnologii de ultimă generație și ia toate măsurile tehnice rezonabile pentru transmiterea și păstrarea datelor în condiții de deplină securitate și confidențialitate.
+</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p10.content.p2</t>
+  </si>
+  <si>
+    <t>Toate datele de pe site sunt stocate și procesate pe servere situate în Uniunea Europeană, ce cad sub incidența legislației europene de protecție a datelor personale. Nicio informație oferită pe acest site nu părăsește teritoriul Uniunii Europene.</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p10.content.p3</t>
+  </si>
+  <si>
+    <t>Dacă descoperim un incident cu privire la securitatea datelor care prezintă un risc pentru drepturile și libertățile utilizatorilor noștri, vom notifica Autoritatea Națională de Supraveghere privind Prelucrarea Datelor cu Caracter Personale în termen de 72 de ore. Dacă incidentul de securitate este de natură să prezinte un risc ridicat pentru drepturile și libertățile tale, vei fi, de asemenea, notificat.</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p10.content.p4</t>
+  </si>
+  <si>
+    <t>Este strict interzisă folosirea acestui Site în scopul distrugerii sau alterării lui, a conținutului său a securității acestuia ori pentru discreditarea sau hărțuirea sprijindeurgenta.ro sau a Code for Romania.</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p10.content.p5</t>
+  </si>
+  <si>
+    <t>Code for Romania va aplica toate măsurile de securitate tehnică și organizatorică pentru protejarea datelor asupra cărora deține controlul împotriva oricărei situații de manipulare accidentală sau intenționată, pierdere, distrugere sau împotriva accesului unei persoane neautorizate.</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p11.header</t>
+  </si>
+  <si>
+    <t>8. Modificari Termeni și Condiții generale de utilizare Site</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p11.content.p1</t>
+  </si>
+  <si>
+    <t>"Termenii și Condițiile generale de utilizare" constituie, în întregime, un acord încheiat între dumneavoastră și Code for Romania în privința utilizării sprijindeurgenta.ro.</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p11.content.p2</t>
+  </si>
+  <si>
+    <t>Code for Romania își rezervă dreptul de a revizui și aduce la zi "Termenii și Condițiile generale de utilizare" în orice moment, fără o anunțare sau o acceptare prealabilă a utilizatorilor.</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p11.content.p3</t>
+  </si>
+  <si>
+    <t>Dacă aveți întrebări cu privire la informațiile cuprinse în această pagină vă rugăm să ne scrieți la adresa dopomoha@code4.ro.</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p12.header</t>
+  </si>
+  <si>
+    <t>9. Despre Code for Romania</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p12.content</t>
+  </si>
+  <si>
+    <t>Code for Romania este o organizație neguvernamentală independentă, neafiliată politic și apolitică, înființată în anul 2016, al cărei scop este de a mobiliza tinerii profesioniști din domeniul IT să creeze instrumente digitale care ajută în soluționarea problemelor sociale. Code for Romania este înființată și funcționează în conformitate cu legea română, actul constitutiv și statutul său și codul de conduită.</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p13.header</t>
+  </si>
+  <si>
+    <t>10. Contactează Code for Romania</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p13.content.p1</t>
+  </si>
+  <si>
+    <t>Pentru orice întrebări sau preocupări, precum și pentru exercitarea drepturilor tale legate de prelucrarea datelor de către Code for Romania, ne poti contacta la:</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p13.content.p2</t>
+  </si>
+  <si>
+    <t>Adresa: Piața Alba Iulia nr. 7, bloc I6, etaj 1, ap. 6, mun. București, Romania</t>
+  </si>
+  <si>
+    <t>terms-and-conditions.p13.content.p3</t>
+  </si>
+  <si>
+    <t>E-mail: contact@code4.ro</t>
+  </si>
+  <si>
     <t>error.availability.required</t>
   </si>
   <si>
@@ -3811,7 +4086,70 @@
     <t>Правительство</t>
   </si>
   <si>
-    <t/>
+    <t>Translator/Traducător</t>
+  </si>
+  <si>
+    <t>Translator</t>
+  </si>
+  <si>
+    <t>Перекладач</t>
+  </si>
+  <si>
+    <t>Переводчик</t>
+  </si>
+  <si>
+    <t>Veterinar</t>
+  </si>
+  <si>
+    <t>Veterinarian</t>
+  </si>
+  <si>
+    <t>Ветеринар</t>
+  </si>
+  <si>
+    <t>signup.products.sanitary.materials</t>
+  </si>
+  <si>
+    <t>Materiale sanitare</t>
+  </si>
+  <si>
+    <t>Sanitary materials</t>
+  </si>
+  <si>
+    <t>Матеріали першої допомоги</t>
+  </si>
+  <si>
+    <t>Материалы первой помощи</t>
+  </si>
+  <si>
+    <t>signup.products.medicine</t>
+  </si>
+  <si>
+    <t>Medicamente</t>
+  </si>
+  <si>
+    <t>Medicine</t>
+  </si>
+  <si>
+    <t>Ліки</t>
+  </si>
+  <si>
+    <t>Медикаменты</t>
+  </si>
+  <si>
+    <t>foodform</t>
+  </si>
+  <si>
+    <t>Pentru organizațiile și autoritățile care gestionează centre de refugiați: pentru a solicita necesarul de porții zilnice de alimente de care aveți nevoie în centru, apăsați aici.</t>
+  </si>
+  <si>
+    <t>If you are an organization or authority that manages refugee centers and want to request the daily food rations you need, click here.</t>
+  </si>
+  <si>
+    <t>Для організацій та органів влади, які керують центрами для біженців: Щоб запитати щоденні харчові пайки, які вам потрібні в центрі, натисніть тут.</t>
+  </si>
+  <si>
+    <t>Для организаций и органов, управляющих центрами для беженцев: Чтобы запросить дневной рацион питания, который вам нужен в центре, нажмите здесь.</t>
   </si>
 </sst>
 </file>
@@ -4188,7 +4526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E278"/>
+  <dimension ref="A1:E327"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6381,41 +6719,41 @@
         <v>609</v>
       </c>
       <c r="E129" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>610</v>
+      </c>
+      <c r="B130" t="s">
         <v>611</v>
       </c>
-      <c r="B130" t="s">
-        <v>123</v>
-      </c>
       <c r="C130" t="s">
-        <v>124</v>
+        <v>612</v>
       </c>
       <c r="D130" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E130" t="s">
-        <v>126</v>
+        <v>614</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B131" t="s">
-        <v>614</v>
+        <v>123</v>
       </c>
       <c r="C131" t="s">
-        <v>615</v>
+        <v>124</v>
       </c>
       <c r="D131" t="s">
-        <v>125</v>
+        <v>616</v>
       </c>
       <c r="E131" t="s">
-        <v>616</v>
+        <v>126</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -6429,92 +6767,92 @@
         <v>619</v>
       </c>
       <c r="D132" t="s">
+        <v>125</v>
+      </c>
+      <c r="E132" t="s">
         <v>620</v>
-      </c>
-      <c r="E132" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>621</v>
+      </c>
+      <c r="B133" t="s">
         <v>622</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>623</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>624</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
         <v>625</v>
-      </c>
-      <c r="E133" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>626</v>
+      </c>
+      <c r="B134" t="s">
         <v>627</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>628</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>629</v>
       </c>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
         <v>630</v>
-      </c>
-      <c r="E134" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>631</v>
+      </c>
+      <c r="B135" t="s">
         <v>632</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
         <v>633</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>634</v>
       </c>
-      <c r="D135" t="s">
+      <c r="E135" t="s">
         <v>635</v>
-      </c>
-      <c r="E135" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>636</v>
+      </c>
+      <c r="B136" t="s">
         <v>637</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>638</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>639</v>
       </c>
-      <c r="D136" t="s">
+      <c r="E136" t="s">
         <v>640</v>
-      </c>
-      <c r="E136" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>641</v>
+      </c>
+      <c r="B137" t="s">
         <v>642</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
         <v>643</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>644</v>
-      </c>
-      <c r="D137" t="s">
-        <v>645</v>
       </c>
       <c r="E137" t="s">
         <v>645</v>
@@ -6534,21 +6872,21 @@
         <v>649</v>
       </c>
       <c r="E138" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>650</v>
+      </c>
+      <c r="B139" t="s">
         <v>651</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
         <v>652</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>653</v>
-      </c>
-      <c r="D139" t="s">
-        <v>654</v>
       </c>
       <c r="E139" t="s">
         <v>654</v>
@@ -6568,225 +6906,225 @@
         <v>658</v>
       </c>
       <c r="E140" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>659</v>
+      </c>
+      <c r="B141" t="s">
         <v>660</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
         <v>661</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>662</v>
       </c>
-      <c r="D141" t="s">
+      <c r="E141" t="s">
         <v>663</v>
-      </c>
-      <c r="E141" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>664</v>
+      </c>
+      <c r="B142" t="s">
         <v>665</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" t="s">
         <v>666</v>
-      </c>
-      <c r="C142" t="s">
-        <v>593</v>
       </c>
       <c r="D142" t="s">
         <v>667</v>
       </c>
       <c r="E142" t="s">
-        <v>595</v>
+        <v>668</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B143" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C143" t="s">
-        <v>670</v>
+        <v>593</v>
       </c>
       <c r="D143" t="s">
         <v>671</v>
       </c>
       <c r="E143" t="s">
-        <v>672</v>
+        <v>595</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>672</v>
+      </c>
+      <c r="B144" t="s">
         <v>673</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>674</v>
       </c>
-      <c r="C144" t="s">
-        <v>670</v>
-      </c>
       <c r="D144" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="E144" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>677</v>
+      </c>
+      <c r="B145" t="s">
+        <v>678</v>
+      </c>
+      <c r="C145" t="s">
+        <v>674</v>
+      </c>
+      <c r="D145" t="s">
         <v>675</v>
       </c>
-      <c r="B145" t="s">
+      <c r="E145" t="s">
         <v>676</v>
-      </c>
-      <c r="C145" t="s">
-        <v>677</v>
-      </c>
-      <c r="D145" t="s">
-        <v>678</v>
-      </c>
-      <c r="E145" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>679</v>
+      </c>
+      <c r="B146" t="s">
         <v>680</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C146" t="s">
         <v>681</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>682</v>
       </c>
-      <c r="D146" t="s">
+      <c r="E146" t="s">
         <v>683</v>
-      </c>
-      <c r="E146" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>684</v>
+      </c>
+      <c r="B147" t="s">
         <v>685</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" t="s">
         <v>686</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
         <v>687</v>
       </c>
-      <c r="D147" t="s">
+      <c r="E147" t="s">
         <v>688</v>
-      </c>
-      <c r="E147" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>689</v>
+      </c>
+      <c r="B148" t="s">
         <v>690</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" t="s">
         <v>691</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
         <v>692</v>
       </c>
-      <c r="D148" t="s">
+      <c r="E148" t="s">
         <v>693</v>
-      </c>
-      <c r="E148" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>694</v>
+      </c>
+      <c r="B149" t="s">
         <v>695</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
         <v>696</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>697</v>
       </c>
-      <c r="D149" t="s">
+      <c r="E149" t="s">
         <v>698</v>
-      </c>
-      <c r="E149" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>699</v>
+      </c>
+      <c r="B150" t="s">
         <v>700</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C150" t="s">
         <v>701</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>702</v>
       </c>
-      <c r="D150" t="s">
+      <c r="E150" t="s">
         <v>703</v>
-      </c>
-      <c r="E150" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>704</v>
+      </c>
+      <c r="B151" t="s">
         <v>705</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C151" t="s">
         <v>706</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
         <v>707</v>
       </c>
-      <c r="D151" t="s">
+      <c r="E151" t="s">
         <v>708</v>
-      </c>
-      <c r="E151" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>709</v>
+      </c>
+      <c r="B152" t="s">
         <v>710</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" t="s">
         <v>711</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
         <v>712</v>
       </c>
-      <c r="D152" t="s">
+      <c r="E152" t="s">
         <v>713</v>
-      </c>
-      <c r="E152" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>714</v>
+      </c>
+      <c r="B153" t="s">
         <v>715</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C153" t="s">
         <v>716</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>717</v>
-      </c>
-      <c r="D153" t="s">
-        <v>135</v>
       </c>
       <c r="E153" t="s">
         <v>718</v>
@@ -6797,840 +7135,840 @@
         <v>719</v>
       </c>
       <c r="B154" t="s">
-        <v>497</v>
+        <v>720</v>
       </c>
       <c r="C154" t="s">
-        <v>498</v>
+        <v>721</v>
       </c>
       <c r="D154" t="s">
-        <v>720</v>
+        <v>135</v>
       </c>
       <c r="E154" t="s">
-        <v>500</v>
+        <v>722</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B155" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="C155" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="D155" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="E155" t="s">
-        <v>723</v>
+        <v>500</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B156" t="s">
-        <v>725</v>
+        <v>482</v>
       </c>
       <c r="C156" t="s">
+        <v>483</v>
+      </c>
+      <c r="D156" t="s">
         <v>726</v>
       </c>
-      <c r="D156" t="s">
+      <c r="E156" t="s">
         <v>727</v>
-      </c>
-      <c r="E156" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>728</v>
+      </c>
+      <c r="B157" t="s">
         <v>729</v>
       </c>
-      <c r="B157" t="s">
-        <v>293</v>
-      </c>
       <c r="C157" t="s">
-        <v>294</v>
+        <v>730</v>
       </c>
       <c r="D157" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E157" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B158" t="s">
-        <v>733</v>
+        <v>293</v>
       </c>
       <c r="C158" t="s">
+        <v>294</v>
+      </c>
+      <c r="D158" t="s">
         <v>734</v>
       </c>
-      <c r="D158" t="s">
+      <c r="E158" t="s">
         <v>735</v>
-      </c>
-      <c r="E158" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>736</v>
+      </c>
+      <c r="B159" t="s">
         <v>737</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" t="s">
         <v>738</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
         <v>739</v>
       </c>
-      <c r="D159" t="s">
+      <c r="E159" t="s">
         <v>740</v>
-      </c>
-      <c r="E159" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>741</v>
+      </c>
+      <c r="B160" t="s">
         <v>742</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>743</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
         <v>744</v>
       </c>
-      <c r="D160" t="s">
+      <c r="E160" t="s">
         <v>745</v>
-      </c>
-      <c r="E160" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>746</v>
+      </c>
+      <c r="B161" t="s">
         <v>747</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" t="s">
         <v>748</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
         <v>749</v>
       </c>
-      <c r="D161" t="s">
+      <c r="E161" t="s">
         <v>750</v>
-      </c>
-      <c r="E161" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>751</v>
+      </c>
+      <c r="B162" t="s">
         <v>752</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
         <v>753</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
         <v>754</v>
       </c>
-      <c r="D162" t="s">
+      <c r="E162" t="s">
         <v>755</v>
-      </c>
-      <c r="E162" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>756</v>
+      </c>
+      <c r="B163" t="s">
         <v>757</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" t="s">
         <v>758</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>759</v>
       </c>
-      <c r="D163" t="s">
+      <c r="E163" t="s">
         <v>760</v>
-      </c>
-      <c r="E163" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>761</v>
+      </c>
+      <c r="B164" t="s">
         <v>762</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C164" t="s">
         <v>763</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
         <v>764</v>
       </c>
-      <c r="D164" t="s">
+      <c r="E164" t="s">
         <v>765</v>
-      </c>
-      <c r="E164" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>766</v>
+      </c>
+      <c r="B165" t="s">
         <v>767</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C165" t="s">
         <v>768</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
         <v>769</v>
       </c>
-      <c r="D165" t="s">
+      <c r="E165" t="s">
         <v>770</v>
-      </c>
-      <c r="E165" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>771</v>
+      </c>
+      <c r="B166" t="s">
         <v>772</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C166" t="s">
         <v>773</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
         <v>774</v>
       </c>
-      <c r="D166" t="s">
+      <c r="E166" t="s">
         <v>775</v>
-      </c>
-      <c r="E166" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>776</v>
+      </c>
+      <c r="B167" t="s">
         <v>777</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C167" t="s">
         <v>778</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
         <v>779</v>
       </c>
-      <c r="D167" t="s">
+      <c r="E167" t="s">
         <v>780</v>
-      </c>
-      <c r="E167" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>781</v>
+      </c>
+      <c r="B168" t="s">
         <v>782</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C168" t="s">
         <v>783</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D168" t="s">
         <v>784</v>
       </c>
-      <c r="D168" t="s">
+      <c r="E168" t="s">
         <v>785</v>
-      </c>
-      <c r="E168" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>786</v>
+      </c>
+      <c r="B169" t="s">
         <v>787</v>
       </c>
-      <c r="B169" t="s">
+      <c r="C169" t="s">
         <v>788</v>
       </c>
-      <c r="C169" t="s">
+      <c r="D169" t="s">
         <v>789</v>
       </c>
-      <c r="D169" t="s">
+      <c r="E169" t="s">
         <v>790</v>
-      </c>
-      <c r="E169" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>791</v>
+      </c>
+      <c r="B170" t="s">
         <v>792</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170" t="s">
         <v>793</v>
       </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
         <v>794</v>
       </c>
-      <c r="D170" t="s">
+      <c r="E170" t="s">
         <v>795</v>
-      </c>
-      <c r="E170" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>796</v>
+      </c>
+      <c r="B171" t="s">
         <v>797</v>
       </c>
-      <c r="B171" t="s">
+      <c r="C171" t="s">
         <v>798</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
         <v>799</v>
       </c>
-      <c r="D171" t="s">
+      <c r="E171" t="s">
         <v>800</v>
-      </c>
-      <c r="E171" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>801</v>
+      </c>
+      <c r="B172" t="s">
         <v>802</v>
       </c>
-      <c r="B172" t="s">
+      <c r="C172" t="s">
         <v>803</v>
-      </c>
-      <c r="C172" t="s">
-        <v>759</v>
       </c>
       <c r="D172" t="s">
         <v>804</v>
       </c>
       <c r="E172" t="s">
-        <v>761</v>
+        <v>805</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B173" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C173" t="s">
-        <v>807</v>
+        <v>763</v>
       </c>
       <c r="D173" t="s">
         <v>808</v>
       </c>
       <c r="E173" t="s">
-        <v>809</v>
+        <v>765</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>809</v>
+      </c>
+      <c r="B174" t="s">
         <v>810</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C174" t="s">
         <v>811</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
         <v>812</v>
       </c>
-      <c r="D174" t="s">
+      <c r="E174" t="s">
         <v>813</v>
-      </c>
-      <c r="E174" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>814</v>
+      </c>
+      <c r="B175" t="s">
         <v>815</v>
       </c>
-      <c r="B175" t="s">
+      <c r="C175" t="s">
         <v>816</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
         <v>817</v>
       </c>
-      <c r="D175" t="s">
+      <c r="E175" t="s">
         <v>818</v>
-      </c>
-      <c r="E175" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>819</v>
+      </c>
+      <c r="B176" t="s">
         <v>820</v>
       </c>
-      <c r="B176" t="s">
+      <c r="C176" t="s">
         <v>821</v>
       </c>
-      <c r="C176" t="s">
-        <v>417</v>
-      </c>
       <c r="D176" t="s">
-        <v>418</v>
+        <v>822</v>
       </c>
       <c r="E176" t="s">
-        <v>419</v>
+        <v>823</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B177" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C177" t="s">
-        <v>824</v>
+        <v>417</v>
       </c>
       <c r="D177" t="s">
-        <v>825</v>
+        <v>418</v>
       </c>
       <c r="E177" t="s">
-        <v>826</v>
+        <v>419</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>826</v>
+      </c>
+      <c r="B178" t="s">
         <v>827</v>
       </c>
-      <c r="B178" t="s">
+      <c r="C178" t="s">
         <v>828</v>
       </c>
-      <c r="C178" t="s">
+      <c r="D178" t="s">
         <v>829</v>
       </c>
-      <c r="D178" t="s">
+      <c r="E178" t="s">
         <v>830</v>
-      </c>
-      <c r="E178" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>831</v>
+      </c>
+      <c r="B179" t="s">
         <v>832</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C179" t="s">
         <v>833</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D179" t="s">
         <v>834</v>
       </c>
-      <c r="D179" t="s">
+      <c r="E179" t="s">
         <v>835</v>
-      </c>
-      <c r="E179" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>836</v>
+      </c>
+      <c r="B180" t="s">
         <v>837</v>
       </c>
-      <c r="B180" t="s">
+      <c r="C180" t="s">
         <v>838</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
         <v>839</v>
       </c>
-      <c r="D180" t="s">
+      <c r="E180" t="s">
         <v>840</v>
-      </c>
-      <c r="E180" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>841</v>
+      </c>
+      <c r="B181" t="s">
         <v>842</v>
       </c>
-      <c r="B181" t="s">
+      <c r="C181" t="s">
         <v>843</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
         <v>844</v>
       </c>
-      <c r="D181" t="s">
+      <c r="E181" t="s">
         <v>845</v>
-      </c>
-      <c r="E181" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>846</v>
+      </c>
+      <c r="B182" t="s">
         <v>847</v>
       </c>
-      <c r="B182" t="s">
+      <c r="C182" t="s">
         <v>848</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D182" t="s">
         <v>849</v>
       </c>
-      <c r="D182" t="s">
+      <c r="E182" t="s">
         <v>850</v>
-      </c>
-      <c r="E182" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>851</v>
+      </c>
+      <c r="B183" t="s">
         <v>852</v>
       </c>
-      <c r="B183" t="s">
+      <c r="C183" t="s">
         <v>853</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D183" t="s">
         <v>854</v>
       </c>
-      <c r="D183" t="s">
+      <c r="E183" t="s">
         <v>855</v>
-      </c>
-      <c r="E183" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>856</v>
+      </c>
+      <c r="B184" t="s">
         <v>857</v>
       </c>
-      <c r="B184" t="s">
+      <c r="C184" t="s">
         <v>858</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
         <v>859</v>
       </c>
-      <c r="D184" t="s">
+      <c r="E184" t="s">
         <v>860</v>
-      </c>
-      <c r="E184" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>861</v>
+      </c>
+      <c r="B185" t="s">
         <v>862</v>
       </c>
-      <c r="B185" t="s">
+      <c r="C185" t="s">
         <v>863</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D185" t="s">
         <v>864</v>
       </c>
-      <c r="D185" t="s">
+      <c r="E185" t="s">
         <v>865</v>
-      </c>
-      <c r="E185" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>866</v>
+      </c>
+      <c r="B186" t="s">
         <v>867</v>
       </c>
-      <c r="B186" t="s">
+      <c r="C186" t="s">
         <v>868</v>
       </c>
-      <c r="C186" t="s">
+      <c r="D186" t="s">
         <v>869</v>
       </c>
-      <c r="D186" t="s">
+      <c r="E186" t="s">
         <v>870</v>
-      </c>
-      <c r="E186" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>871</v>
+      </c>
+      <c r="B187" t="s">
         <v>872</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C187" t="s">
         <v>873</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
         <v>874</v>
       </c>
-      <c r="D187" t="s">
+      <c r="E187" t="s">
         <v>875</v>
-      </c>
-      <c r="E187" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>876</v>
+      </c>
+      <c r="B188" t="s">
         <v>877</v>
       </c>
-      <c r="B188" t="s">
+      <c r="C188" t="s">
         <v>878</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
         <v>879</v>
       </c>
-      <c r="D188" t="s">
+      <c r="E188" t="s">
         <v>880</v>
-      </c>
-      <c r="E188" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>881</v>
+      </c>
+      <c r="B189" t="s">
         <v>882</v>
       </c>
-      <c r="B189" t="s">
+      <c r="C189" t="s">
         <v>883</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D189" t="s">
         <v>884</v>
       </c>
-      <c r="D189" t="s">
+      <c r="E189" t="s">
         <v>885</v>
-      </c>
-      <c r="E189" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>886</v>
+      </c>
+      <c r="B190" t="s">
         <v>887</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C190" t="s">
         <v>888</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D190" t="s">
         <v>889</v>
       </c>
-      <c r="D190" t="s">
+      <c r="E190" t="s">
         <v>890</v>
-      </c>
-      <c r="E190" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>891</v>
+      </c>
+      <c r="B191" t="s">
         <v>892</v>
       </c>
-      <c r="B191" t="s">
+      <c r="C191" t="s">
         <v>893</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
         <v>894</v>
       </c>
-      <c r="D191" t="s">
+      <c r="E191" t="s">
         <v>895</v>
-      </c>
-      <c r="E191" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>896</v>
+      </c>
+      <c r="B192" t="s">
         <v>897</v>
       </c>
-      <c r="B192" t="s">
+      <c r="C192" t="s">
         <v>898</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D192" t="s">
         <v>899</v>
       </c>
-      <c r="D192" t="s">
+      <c r="E192" t="s">
         <v>900</v>
-      </c>
-      <c r="E192" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>901</v>
+      </c>
+      <c r="B193" t="s">
         <v>902</v>
       </c>
-      <c r="B193" t="s">
+      <c r="C193" t="s">
         <v>903</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
         <v>904</v>
       </c>
-      <c r="D193" t="s">
+      <c r="E193" t="s">
         <v>905</v>
-      </c>
-      <c r="E193" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>906</v>
+      </c>
+      <c r="B194" t="s">
         <v>907</v>
       </c>
-      <c r="B194" t="s">
+      <c r="C194" t="s">
         <v>908</v>
       </c>
-      <c r="C194" t="s">
+      <c r="D194" t="s">
         <v>909</v>
       </c>
-      <c r="D194" t="s">
+      <c r="E194" t="s">
         <v>910</v>
-      </c>
-      <c r="E194" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>911</v>
+      </c>
+      <c r="B195" t="s">
         <v>912</v>
       </c>
-      <c r="B195" t="s">
+      <c r="C195" t="s">
         <v>913</v>
       </c>
-      <c r="C195" t="s">
+      <c r="D195" t="s">
         <v>914</v>
       </c>
-      <c r="D195" t="s">
+      <c r="E195" t="s">
         <v>915</v>
-      </c>
-      <c r="E195" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>916</v>
+      </c>
+      <c r="B196" t="s">
         <v>917</v>
       </c>
-      <c r="B196" t="s">
+      <c r="C196" t="s">
         <v>918</v>
       </c>
-      <c r="C196" t="s">
+      <c r="D196" t="s">
         <v>919</v>
       </c>
-      <c r="D196" t="s">
+      <c r="E196" t="s">
         <v>920</v>
-      </c>
-      <c r="E196" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>921</v>
+      </c>
+      <c r="B197" t="s">
         <v>922</v>
       </c>
-      <c r="B197" t="s">
+      <c r="C197" t="s">
         <v>923</v>
       </c>
-      <c r="C197" t="s">
+      <c r="D197" t="s">
         <v>924</v>
       </c>
-      <c r="D197" t="s">
+      <c r="E197" t="s">
         <v>925</v>
-      </c>
-      <c r="E197" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>926</v>
+      </c>
+      <c r="B198" t="s">
         <v>927</v>
       </c>
-      <c r="B198" t="s">
+      <c r="C198" t="s">
         <v>928</v>
       </c>
-      <c r="C198" t="s">
+      <c r="D198" t="s">
         <v>929</v>
       </c>
-      <c r="D198" t="s">
+      <c r="E198" t="s">
         <v>930</v>
-      </c>
-      <c r="E198" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
+        <v>931</v>
+      </c>
+      <c r="B199" t="s">
         <v>932</v>
       </c>
-      <c r="B199" t="s">
+      <c r="C199" t="s">
         <v>933</v>
       </c>
-      <c r="C199" t="s">
+      <c r="D199" t="s">
         <v>934</v>
       </c>
-      <c r="D199" t="s">
+      <c r="E199" t="s">
         <v>935</v>
-      </c>
-      <c r="E199" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>936</v>
+      </c>
+      <c r="B200" t="s">
         <v>937</v>
       </c>
-      <c r="B200" t="s">
+      <c r="C200" t="s">
         <v>938</v>
       </c>
-      <c r="C200" t="s">
+      <c r="D200" t="s">
         <v>939</v>
       </c>
-      <c r="D200" t="s">
+      <c r="E200" t="s">
         <v>940</v>
-      </c>
-      <c r="E200" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>941</v>
+      </c>
+      <c r="B201" t="s">
         <v>942</v>
       </c>
-      <c r="B201" t="s">
+      <c r="C201" t="s">
         <v>943</v>
       </c>
-      <c r="C201" t="s">
+      <c r="D201" t="s">
         <v>944</v>
       </c>
-      <c r="D201" t="s">
+      <c r="E201" t="s">
         <v>945</v>
-      </c>
-      <c r="E201" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>946</v>
+      </c>
+      <c r="B202" t="s">
         <v>947</v>
       </c>
-      <c r="B202" t="s">
+      <c r="C202" t="s">
         <v>948</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D202" t="s">
         <v>949</v>
       </c>
-      <c r="D202" t="s">
+      <c r="E202" t="s">
         <v>950</v>
-      </c>
-      <c r="E202" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>951</v>
+      </c>
+      <c r="B203" t="s">
         <v>952</v>
-      </c>
-      <c r="B203" t="s">
-        <v>953</v>
       </c>
       <c r="C203" t="s">
         <v>953</v>
@@ -7650,1271 +7988,2104 @@
         <v>957</v>
       </c>
       <c r="C204" t="s">
+        <v>957</v>
+      </c>
+      <c r="D204" t="s">
         <v>958</v>
       </c>
-      <c r="D204" t="s">
+      <c r="E204" t="s">
         <v>959</v>
-      </c>
-      <c r="E204" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>960</v>
+      </c>
+      <c r="B205" t="s">
         <v>961</v>
       </c>
-      <c r="B205" t="s">
+      <c r="C205" t="s">
         <v>962</v>
       </c>
-      <c r="C205" t="s">
+      <c r="D205" t="s">
         <v>963</v>
       </c>
-      <c r="D205" t="s">
+      <c r="E205" t="s">
         <v>964</v>
-      </c>
-      <c r="E205" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>965</v>
+      </c>
+      <c r="B206" t="s">
         <v>966</v>
       </c>
-      <c r="B206" t="s">
+      <c r="C206" t="s">
         <v>967</v>
       </c>
-      <c r="C206" t="s">
+      <c r="D206" t="s">
         <v>968</v>
       </c>
-      <c r="D206" t="s">
+      <c r="E206" t="s">
         <v>969</v>
-      </c>
-      <c r="E206" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>970</v>
+      </c>
+      <c r="B207" t="s">
         <v>971</v>
       </c>
-      <c r="B207" t="s">
+      <c r="C207" t="s">
         <v>972</v>
       </c>
-      <c r="C207" t="s">
+      <c r="D207" t="s">
         <v>973</v>
       </c>
-      <c r="D207" t="s">
+      <c r="E207" t="s">
         <v>974</v>
-      </c>
-      <c r="E207" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>975</v>
+      </c>
+      <c r="B208" t="s">
         <v>976</v>
       </c>
-      <c r="B208" t="s">
+      <c r="C208" t="s">
         <v>977</v>
       </c>
-      <c r="C208" t="s">
+      <c r="D208" t="s">
         <v>978</v>
       </c>
-      <c r="D208" t="s">
+      <c r="E208" t="s">
         <v>979</v>
-      </c>
-      <c r="E208" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
+        <v>980</v>
+      </c>
+      <c r="B209" t="s">
         <v>981</v>
       </c>
-      <c r="B209" t="s">
+      <c r="C209" t="s">
         <v>982</v>
       </c>
-      <c r="C209" t="s">
+      <c r="D209" t="s">
         <v>983</v>
       </c>
-      <c r="D209" t="s">
+      <c r="E209" t="s">
         <v>984</v>
-      </c>
-      <c r="E209" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>985</v>
+      </c>
+      <c r="B210" t="s">
         <v>986</v>
       </c>
-      <c r="B210" t="s">
+      <c r="C210" t="s">
         <v>987</v>
       </c>
-      <c r="C210" t="s">
+      <c r="D210" t="s">
         <v>988</v>
       </c>
-      <c r="D210" t="s">
+      <c r="E210" t="s">
         <v>989</v>
-      </c>
-      <c r="E210" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>990</v>
+      </c>
+      <c r="B211" t="s">
         <v>991</v>
       </c>
-      <c r="B211" t="s">
+      <c r="C211" t="s">
         <v>992</v>
       </c>
-      <c r="C211" t="s">
+      <c r="D211" t="s">
         <v>993</v>
       </c>
-      <c r="D211" t="s">
+      <c r="E211" t="s">
         <v>994</v>
-      </c>
-      <c r="E211" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
+        <v>995</v>
+      </c>
+      <c r="B212" t="s">
         <v>996</v>
       </c>
-      <c r="B212" t="s">
+      <c r="C212" t="s">
         <v>997</v>
       </c>
-      <c r="C212" t="s">
+      <c r="D212" t="s">
         <v>998</v>
       </c>
-      <c r="D212" t="s">
+      <c r="E212" t="s">
         <v>999</v>
-      </c>
-      <c r="E212" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B213" t="s">
         <v>1001</v>
       </c>
-      <c r="B213" t="s">
+      <c r="C213" t="s">
         <v>1002</v>
       </c>
-      <c r="C213" t="s">
+      <c r="D213" t="s">
         <v>1003</v>
       </c>
-      <c r="D213" t="s">
+      <c r="E213" t="s">
         <v>1004</v>
-      </c>
-      <c r="E213" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B214" t="s">
         <v>1006</v>
       </c>
-      <c r="B214" t="s">
+      <c r="C214" t="s">
         <v>1007</v>
       </c>
-      <c r="C214" t="s">
+      <c r="D214" t="s">
         <v>1008</v>
       </c>
-      <c r="D214" t="s">
+      <c r="E214" t="s">
         <v>1009</v>
-      </c>
-      <c r="E214" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B215" t="s">
         <v>1011</v>
       </c>
-      <c r="B215" t="s">
+      <c r="C215" t="s">
         <v>1012</v>
       </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
         <v>1013</v>
       </c>
-      <c r="D215" t="s">
+      <c r="E215" t="s">
         <v>1014</v>
-      </c>
-      <c r="E215" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B216" t="s">
         <v>1016</v>
       </c>
-      <c r="B216" t="s">
+      <c r="C216" t="s">
         <v>1017</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" t="s">
         <v>1018</v>
       </c>
-      <c r="D216" t="s">
+      <c r="E216" t="s">
         <v>1019</v>
-      </c>
-      <c r="E216" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B217" t="s">
         <v>1021</v>
       </c>
-      <c r="B217" t="s">
+      <c r="C217" t="s">
         <v>1022</v>
       </c>
-      <c r="C217" t="s">
+      <c r="D217" t="s">
         <v>1023</v>
       </c>
-      <c r="D217" t="s">
+      <c r="E217" t="s">
         <v>1024</v>
-      </c>
-      <c r="E217" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B218" t="s">
         <v>1026</v>
       </c>
-      <c r="B218" t="s">
+      <c r="C218" t="s">
         <v>1027</v>
       </c>
-      <c r="C218" t="s">
+      <c r="D218" t="s">
         <v>1028</v>
       </c>
-      <c r="D218" t="s">
+      <c r="E218" t="s">
         <v>1029</v>
-      </c>
-      <c r="E218" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B219" t="s">
         <v>1031</v>
       </c>
-      <c r="B219" t="s">
+      <c r="C219" t="s">
         <v>1032</v>
       </c>
-      <c r="C219" t="s">
+      <c r="D219" t="s">
         <v>1033</v>
       </c>
-      <c r="D219" t="s">
+      <c r="E219" t="s">
         <v>1034</v>
-      </c>
-      <c r="E219" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B220" t="s">
         <v>1036</v>
       </c>
-      <c r="B220" t="s">
+      <c r="C220" t="s">
         <v>1037</v>
       </c>
-      <c r="C220" t="s">
+      <c r="D220" t="s">
         <v>1038</v>
       </c>
-      <c r="D220" t="s">
+      <c r="E220" t="s">
         <v>1039</v>
-      </c>
-      <c r="E220" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B221" t="s">
         <v>1041</v>
       </c>
-      <c r="B221" t="s">
+      <c r="C221" t="s">
         <v>1042</v>
       </c>
-      <c r="C221" t="s">
+      <c r="D221" t="s">
         <v>1043</v>
       </c>
-      <c r="D221" t="s">
+      <c r="E221" t="s">
         <v>1044</v>
-      </c>
-      <c r="E221" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B222" t="s">
         <v>1046</v>
       </c>
-      <c r="B222" t="s">
+      <c r="C222" t="s">
         <v>1047</v>
       </c>
-      <c r="C222" t="s">
+      <c r="D222" t="s">
         <v>1048</v>
       </c>
-      <c r="D222" t="s">
+      <c r="E222" t="s">
         <v>1049</v>
-      </c>
-      <c r="E222" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B223" t="s">
         <v>1051</v>
       </c>
-      <c r="B223" t="s">
+      <c r="C223" t="s">
         <v>1052</v>
       </c>
-      <c r="C223" t="s">
+      <c r="D223" t="s">
         <v>1053</v>
       </c>
-      <c r="D223" t="s">
+      <c r="E223" t="s">
         <v>1054</v>
-      </c>
-      <c r="E223" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B224" t="s">
         <v>1056</v>
       </c>
-      <c r="B224" t="s">
+      <c r="C224" t="s">
         <v>1057</v>
       </c>
-      <c r="C224" t="s">
+      <c r="D224" t="s">
         <v>1058</v>
       </c>
-      <c r="D224" t="s">
+      <c r="E224" t="s">
         <v>1059</v>
-      </c>
-      <c r="E224" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B225" t="s">
         <v>1061</v>
       </c>
-      <c r="B225" t="s">
+      <c r="C225" t="s">
         <v>1062</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D225" t="s">
         <v>1063</v>
       </c>
-      <c r="D225" t="s">
+      <c r="E225" t="s">
         <v>1064</v>
-      </c>
-      <c r="E225" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B226" t="s">
         <v>1066</v>
       </c>
-      <c r="B226" t="s">
+      <c r="C226" t="s">
         <v>1067</v>
       </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
         <v>1068</v>
       </c>
-      <c r="D226" t="s">
+      <c r="E226" t="s">
         <v>1069</v>
-      </c>
-      <c r="E226" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B227" t="s">
         <v>1071</v>
       </c>
-      <c r="B227" t="s">
+      <c r="C227" t="s">
         <v>1072</v>
       </c>
-      <c r="C227" t="s">
+      <c r="D227" t="s">
         <v>1073</v>
       </c>
-      <c r="D227" t="s">
+      <c r="E227" t="s">
         <v>1074</v>
-      </c>
-      <c r="E227" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B228" t="s">
         <v>1076</v>
       </c>
-      <c r="B228" t="s">
+      <c r="C228" t="s">
         <v>1077</v>
       </c>
-      <c r="C228" t="s">
+      <c r="D228" t="s">
         <v>1078</v>
       </c>
-      <c r="D228" t="s">
+      <c r="E228" t="s">
         <v>1079</v>
-      </c>
-      <c r="E228" t="s">
-        <v>1080</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B229" t="s">
         <v>1081</v>
       </c>
-      <c r="B229" t="s">
+      <c r="C229" t="s">
         <v>1082</v>
       </c>
-      <c r="C229" t="s">
+      <c r="D229" t="s">
         <v>1083</v>
       </c>
-      <c r="D229" t="s">
+      <c r="E229" t="s">
         <v>1084</v>
-      </c>
-      <c r="E229" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B230" t="s">
         <v>1086</v>
       </c>
-      <c r="B230" t="s">
-        <v>1087</v>
-      </c>
       <c r="C230" t="s">
-        <v>1088</v>
+        <v>609</v>
       </c>
       <c r="D230" t="s">
-        <v>1089</v>
+        <v>609</v>
       </c>
       <c r="E230" t="s">
-        <v>1089</v>
+        <v>609</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="B231" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="C231" t="s">
-        <v>1092</v>
+        <v>609</v>
       </c>
       <c r="D231" t="s">
-        <v>1093</v>
+        <v>609</v>
       </c>
       <c r="E231" t="s">
-        <v>1094</v>
+        <v>609</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="B232" t="s">
-        <v>138</v>
+        <v>1090</v>
       </c>
       <c r="C232" t="s">
-        <v>139</v>
+        <v>609</v>
       </c>
       <c r="D232" t="s">
-        <v>140</v>
+        <v>609</v>
       </c>
       <c r="E232" t="s">
-        <v>140</v>
+        <v>609</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="B233" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="C233" t="s">
-        <v>1098</v>
+        <v>609</v>
       </c>
       <c r="D233" t="s">
-        <v>1099</v>
+        <v>609</v>
       </c>
       <c r="E233" t="s">
-        <v>1100</v>
+        <v>609</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
       <c r="B234" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="C234" t="s">
-        <v>1103</v>
+        <v>609</v>
       </c>
       <c r="D234" t="s">
-        <v>1104</v>
+        <v>609</v>
       </c>
       <c r="E234" t="s">
-        <v>1105</v>
+        <v>609</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>1106</v>
+        <v>1095</v>
       </c>
       <c r="B235" t="s">
-        <v>1107</v>
+        <v>1096</v>
       </c>
       <c r="C235" t="s">
-        <v>1108</v>
+        <v>609</v>
       </c>
       <c r="D235" t="s">
-        <v>1109</v>
+        <v>609</v>
       </c>
       <c r="E235" t="s">
-        <v>1110</v>
+        <v>609</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>1111</v>
+        <v>1097</v>
       </c>
       <c r="B236" t="s">
-        <v>1112</v>
+        <v>1098</v>
       </c>
       <c r="C236" t="s">
-        <v>1113</v>
+        <v>609</v>
       </c>
       <c r="D236" t="s">
-        <v>1114</v>
+        <v>609</v>
       </c>
       <c r="E236" t="s">
-        <v>1115</v>
+        <v>609</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>1116</v>
+        <v>1099</v>
       </c>
       <c r="B237" t="s">
-        <v>1117</v>
+        <v>1100</v>
       </c>
       <c r="C237" t="s">
-        <v>1118</v>
+        <v>609</v>
       </c>
       <c r="D237" t="s">
-        <v>1119</v>
+        <v>609</v>
       </c>
       <c r="E237" t="s">
-        <v>1120</v>
+        <v>609</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>1121</v>
+        <v>1101</v>
       </c>
       <c r="B238" t="s">
-        <v>1122</v>
+        <v>1102</v>
       </c>
       <c r="C238" t="s">
-        <v>1123</v>
+        <v>609</v>
       </c>
       <c r="D238" t="s">
-        <v>1124</v>
+        <v>609</v>
       </c>
       <c r="E238" t="s">
-        <v>1125</v>
+        <v>609</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>1126</v>
+        <v>1103</v>
       </c>
       <c r="B239" t="s">
-        <v>1127</v>
+        <v>1104</v>
       </c>
       <c r="C239" t="s">
-        <v>1128</v>
+        <v>609</v>
       </c>
       <c r="D239" t="s">
-        <v>1129</v>
+        <v>609</v>
       </c>
       <c r="E239" t="s">
-        <v>1130</v>
+        <v>609</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>1131</v>
+        <v>1105</v>
       </c>
       <c r="B240" t="s">
-        <v>1132</v>
+        <v>1106</v>
       </c>
       <c r="C240" t="s">
-        <v>1133</v>
+        <v>609</v>
       </c>
       <c r="D240" t="s">
-        <v>1134</v>
+        <v>609</v>
       </c>
       <c r="E240" t="s">
-        <v>1135</v>
+        <v>609</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>1136</v>
+        <v>1107</v>
       </c>
       <c r="B241" t="s">
-        <v>1137</v>
+        <v>1108</v>
       </c>
       <c r="C241" t="s">
-        <v>1138</v>
+        <v>609</v>
       </c>
       <c r="D241" t="s">
-        <v>1139</v>
+        <v>609</v>
       </c>
       <c r="E241" t="s">
-        <v>1140</v>
+        <v>609</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>1141</v>
+        <v>1109</v>
       </c>
       <c r="B242" t="s">
-        <v>816</v>
+        <v>1110</v>
       </c>
       <c r="C242" t="s">
-        <v>1142</v>
+        <v>609</v>
       </c>
       <c r="D242" t="s">
-        <v>1143</v>
+        <v>609</v>
       </c>
       <c r="E242" t="s">
-        <v>1144</v>
+        <v>609</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>1145</v>
+        <v>1111</v>
       </c>
       <c r="B243" t="s">
-        <v>1146</v>
+        <v>1112</v>
       </c>
       <c r="C243" t="s">
-        <v>1147</v>
+        <v>609</v>
       </c>
       <c r="D243" t="s">
-        <v>1148</v>
+        <v>609</v>
       </c>
       <c r="E243" t="s">
-        <v>1149</v>
+        <v>609</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>1150</v>
+        <v>1113</v>
       </c>
       <c r="B244" t="s">
-        <v>406</v>
+        <v>1114</v>
       </c>
       <c r="C244" t="s">
-        <v>388</v>
+        <v>609</v>
       </c>
       <c r="D244" t="s">
-        <v>398</v>
+        <v>609</v>
       </c>
       <c r="E244" t="s">
-        <v>399</v>
+        <v>609</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>1151</v>
+        <v>1115</v>
       </c>
       <c r="B245" t="s">
-        <v>1152</v>
+        <v>1116</v>
       </c>
       <c r="C245" t="s">
-        <v>1153</v>
+        <v>609</v>
       </c>
       <c r="D245" t="s">
-        <v>1154</v>
+        <v>609</v>
       </c>
       <c r="E245" t="s">
-        <v>1155</v>
+        <v>609</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>1156</v>
+        <v>1117</v>
       </c>
       <c r="B246" t="s">
-        <v>123</v>
+        <v>1118</v>
       </c>
       <c r="C246" t="s">
-        <v>124</v>
+        <v>609</v>
       </c>
       <c r="D246" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E246" t="s">
-        <v>126</v>
+        <v>609</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>1157</v>
+        <v>1119</v>
       </c>
       <c r="B247" t="s">
-        <v>133</v>
+        <v>1120</v>
       </c>
       <c r="C247" t="s">
-        <v>1158</v>
+        <v>609</v>
       </c>
       <c r="D247" t="s">
-        <v>1159</v>
+        <v>609</v>
       </c>
       <c r="E247" t="s">
-        <v>1120</v>
+        <v>609</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>1160</v>
+        <v>1121</v>
       </c>
       <c r="B248" t="s">
-        <v>128</v>
+        <v>1122</v>
       </c>
       <c r="C248" t="s">
-        <v>129</v>
+        <v>609</v>
       </c>
       <c r="D248" t="s">
-        <v>1161</v>
+        <v>609</v>
       </c>
       <c r="E248" t="s">
-        <v>131</v>
+        <v>609</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>1162</v>
+        <v>1123</v>
       </c>
       <c r="B249" t="s">
-        <v>138</v>
+        <v>1124</v>
       </c>
       <c r="C249" t="s">
-        <v>139</v>
+        <v>609</v>
       </c>
       <c r="D249" t="s">
-        <v>140</v>
+        <v>609</v>
       </c>
       <c r="E249" t="s">
-        <v>140</v>
+        <v>609</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>1163</v>
+        <v>1125</v>
       </c>
       <c r="B250" t="s">
-        <v>1164</v>
+        <v>1126</v>
       </c>
       <c r="C250" t="s">
-        <v>1165</v>
+        <v>609</v>
       </c>
       <c r="D250" t="s">
-        <v>1166</v>
+        <v>609</v>
       </c>
       <c r="E250" t="s">
-        <v>1167</v>
+        <v>609</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>1168</v>
+        <v>1127</v>
       </c>
       <c r="B251" t="s">
-        <v>492</v>
+        <v>1128</v>
       </c>
       <c r="C251" t="s">
-        <v>493</v>
+        <v>609</v>
       </c>
       <c r="D251" t="s">
-        <v>494</v>
+        <v>609</v>
       </c>
       <c r="E251" t="s">
-        <v>495</v>
+        <v>609</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>1169</v>
+        <v>1129</v>
       </c>
       <c r="B252" t="s">
-        <v>1170</v>
+        <v>1130</v>
       </c>
       <c r="C252" t="s">
-        <v>1171</v>
+        <v>609</v>
       </c>
       <c r="D252" t="s">
-        <v>1172</v>
+        <v>609</v>
       </c>
       <c r="E252" t="s">
-        <v>1173</v>
+        <v>609</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>1174</v>
+        <v>1131</v>
       </c>
       <c r="B253" t="s">
-        <v>1175</v>
+        <v>1132</v>
       </c>
       <c r="C253" t="s">
-        <v>1176</v>
+        <v>609</v>
       </c>
       <c r="D253" t="s">
-        <v>1177</v>
+        <v>609</v>
       </c>
       <c r="E253" t="s">
-        <v>1178</v>
+        <v>609</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>1179</v>
+        <v>1133</v>
       </c>
       <c r="B254" t="s">
-        <v>16</v>
+        <v>1134</v>
       </c>
       <c r="C254" t="s">
-        <v>1180</v>
+        <v>609</v>
       </c>
       <c r="D254" t="s">
-        <v>18</v>
+        <v>609</v>
       </c>
       <c r="E254" t="s">
-        <v>19</v>
+        <v>609</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>1181</v>
+        <v>1135</v>
       </c>
       <c r="B255" t="s">
-        <v>1181</v>
+        <v>1136</v>
       </c>
       <c r="C255" t="s">
-        <v>1182</v>
+        <v>609</v>
       </c>
       <c r="D255" t="s">
-        <v>1183</v>
+        <v>609</v>
       </c>
       <c r="E255" t="s">
-        <v>1184</v>
+        <v>609</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>1185</v>
+        <v>1137</v>
       </c>
       <c r="B256" t="s">
-        <v>1185</v>
+        <v>1138</v>
       </c>
       <c r="C256" t="s">
-        <v>1186</v>
+        <v>609</v>
       </c>
       <c r="D256" t="s">
-        <v>1187</v>
+        <v>609</v>
       </c>
       <c r="E256" t="s">
-        <v>1187</v>
+        <v>609</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>1188</v>
+        <v>1139</v>
       </c>
       <c r="B257" t="s">
-        <v>1188</v>
+        <v>1140</v>
       </c>
       <c r="C257" t="s">
-        <v>1189</v>
+        <v>609</v>
       </c>
       <c r="D257" t="s">
-        <v>1190</v>
+        <v>609</v>
       </c>
       <c r="E257" t="s">
-        <v>1191</v>
+        <v>609</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>1192</v>
+        <v>1141</v>
       </c>
       <c r="B258" t="s">
-        <v>1192</v>
+        <v>1142</v>
       </c>
       <c r="C258" t="s">
-        <v>1193</v>
+        <v>609</v>
       </c>
       <c r="D258" t="s">
-        <v>1194</v>
+        <v>609</v>
       </c>
       <c r="E258" t="s">
-        <v>1194</v>
+        <v>609</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>1195</v>
+        <v>1143</v>
       </c>
       <c r="B259" t="s">
-        <v>1195</v>
+        <v>1144</v>
       </c>
       <c r="C259" t="s">
-        <v>1196</v>
+        <v>609</v>
       </c>
       <c r="D259" t="s">
-        <v>1197</v>
+        <v>609</v>
       </c>
       <c r="E259" t="s">
-        <v>1198</v>
+        <v>609</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>133</v>
+        <v>1145</v>
       </c>
       <c r="B260" t="s">
-        <v>133</v>
+        <v>1146</v>
       </c>
       <c r="C260" t="s">
-        <v>134</v>
+        <v>609</v>
       </c>
       <c r="D260" t="s">
-        <v>1159</v>
+        <v>609</v>
       </c>
       <c r="E260" t="s">
-        <v>1199</v>
+        <v>609</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>1200</v>
+        <v>1147</v>
       </c>
       <c r="B261" t="s">
-        <v>1200</v>
+        <v>1148</v>
       </c>
       <c r="C261" t="s">
-        <v>1201</v>
+        <v>609</v>
       </c>
       <c r="D261" t="s">
-        <v>1202</v>
+        <v>609</v>
       </c>
       <c r="E261" t="s">
-        <v>1202</v>
+        <v>609</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>1203</v>
+        <v>1149</v>
       </c>
       <c r="B262" t="s">
-        <v>1203</v>
+        <v>1150</v>
       </c>
       <c r="C262" t="s">
-        <v>1204</v>
+        <v>609</v>
       </c>
       <c r="D262" t="s">
-        <v>1205</v>
+        <v>609</v>
       </c>
       <c r="E262" t="s">
-        <v>1206</v>
+        <v>609</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>1207</v>
+        <v>1151</v>
       </c>
       <c r="B263" t="s">
-        <v>1117</v>
+        <v>1152</v>
       </c>
       <c r="C263" t="s">
-        <v>1118</v>
+        <v>609</v>
       </c>
       <c r="D263" t="s">
-        <v>1208</v>
+        <v>609</v>
       </c>
       <c r="E263" t="s">
-        <v>1120</v>
+        <v>609</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>1209</v>
+        <v>1153</v>
       </c>
       <c r="B264" t="s">
-        <v>1209</v>
+        <v>1154</v>
       </c>
       <c r="C264" t="s">
-        <v>1210</v>
+        <v>609</v>
       </c>
       <c r="D264" t="s">
-        <v>1211</v>
+        <v>609</v>
       </c>
       <c r="E264" t="s">
-        <v>1212</v>
+        <v>609</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>1213</v>
+        <v>1155</v>
       </c>
       <c r="B265" t="s">
-        <v>1213</v>
+        <v>1156</v>
       </c>
       <c r="C265" t="s">
-        <v>1214</v>
+        <v>609</v>
       </c>
       <c r="D265" t="s">
-        <v>1215</v>
+        <v>609</v>
       </c>
       <c r="E265" t="s">
-        <v>1216</v>
+        <v>609</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="B266" t="s">
-        <v>1217</v>
+        <v>1158</v>
       </c>
       <c r="C266" t="s">
-        <v>1218</v>
+        <v>609</v>
       </c>
       <c r="D266" t="s">
-        <v>1219</v>
+        <v>609</v>
       </c>
       <c r="E266" t="s">
-        <v>1220</v>
+        <v>609</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>1221</v>
+        <v>1159</v>
       </c>
       <c r="B267" t="s">
-        <v>1221</v>
+        <v>1160</v>
       </c>
       <c r="C267" t="s">
-        <v>1222</v>
+        <v>609</v>
       </c>
       <c r="D267" t="s">
-        <v>1223</v>
+        <v>609</v>
       </c>
       <c r="E267" t="s">
-        <v>1224</v>
+        <v>609</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>1225</v>
+        <v>1161</v>
       </c>
       <c r="B268" t="s">
-        <v>1226</v>
+        <v>1162</v>
       </c>
       <c r="C268" t="s">
-        <v>1227</v>
+        <v>609</v>
       </c>
       <c r="D268" t="s">
-        <v>1228</v>
+        <v>609</v>
       </c>
       <c r="E268" t="s">
-        <v>1229</v>
+        <v>609</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>1230</v>
+        <v>1163</v>
       </c>
       <c r="B269" t="s">
-        <v>1231</v>
+        <v>1164</v>
       </c>
       <c r="C269" t="s">
-        <v>1232</v>
+        <v>609</v>
       </c>
       <c r="D269" t="s">
-        <v>1233</v>
+        <v>609</v>
       </c>
       <c r="E269" t="s">
-        <v>1234</v>
+        <v>609</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>1235</v>
+        <v>1165</v>
       </c>
       <c r="B270" t="s">
-        <v>1236</v>
+        <v>1166</v>
       </c>
       <c r="C270" t="s">
-        <v>1237</v>
+        <v>609</v>
       </c>
       <c r="D270" t="s">
-        <v>1238</v>
+        <v>609</v>
       </c>
       <c r="E270" t="s">
-        <v>1239</v>
+        <v>609</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>1240</v>
+        <v>1167</v>
       </c>
       <c r="B271" t="s">
-        <v>1241</v>
+        <v>1168</v>
       </c>
       <c r="C271" t="s">
-        <v>1242</v>
+        <v>609</v>
       </c>
       <c r="D271" t="s">
-        <v>1243</v>
+        <v>609</v>
       </c>
       <c r="E271" t="s">
-        <v>1244</v>
+        <v>609</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>1245</v>
+        <v>1169</v>
       </c>
       <c r="B272" t="s">
-        <v>1246</v>
+        <v>1170</v>
       </c>
       <c r="C272" t="s">
-        <v>1247</v>
+        <v>609</v>
       </c>
       <c r="D272" t="s">
-        <v>1248</v>
+        <v>609</v>
       </c>
       <c r="E272" t="s">
-        <v>1249</v>
+        <v>609</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>1250</v>
+        <v>1171</v>
       </c>
       <c r="B273" t="s">
-        <v>1251</v>
+        <v>1172</v>
       </c>
       <c r="C273" t="s">
-        <v>1250</v>
+        <v>1173</v>
       </c>
       <c r="D273" t="s">
-        <v>1252</v>
+        <v>1174</v>
       </c>
       <c r="E273" t="s">
-        <v>1253</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>1254</v>
+        <v>1176</v>
       </c>
       <c r="B274" t="s">
-        <v>1255</v>
+        <v>1177</v>
       </c>
       <c r="C274" t="s">
-        <v>1254</v>
+        <v>1178</v>
       </c>
       <c r="D274" t="s">
-        <v>1256</v>
+        <v>1179</v>
       </c>
       <c r="E274" t="s">
-        <v>1257</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>1258</v>
+        <v>1180</v>
       </c>
       <c r="B275" t="s">
-        <v>1259</v>
+        <v>1181</v>
       </c>
       <c r="C275" t="s">
-        <v>1258</v>
+        <v>1182</v>
       </c>
       <c r="D275" t="s">
-        <v>1260</v>
+        <v>1183</v>
       </c>
       <c r="E275" t="s">
-        <v>1261</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>1262</v>
+        <v>1185</v>
       </c>
       <c r="B276" t="s">
-        <v>1263</v>
+        <v>138</v>
       </c>
       <c r="C276" t="s">
-        <v>1262</v>
+        <v>139</v>
       </c>
       <c r="D276" t="s">
-        <v>1264</v>
+        <v>140</v>
       </c>
       <c r="E276" t="s">
-        <v>1265</v>
+        <v>140</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>569</v>
+        <v>1186</v>
       </c>
       <c r="B277" t="s">
-        <v>1266</v>
+        <v>1187</v>
       </c>
       <c r="C277" t="s">
-        <v>569</v>
+        <v>1188</v>
       </c>
       <c r="D277" t="s">
-        <v>570</v>
+        <v>1189</v>
       </c>
       <c r="E277" t="s">
-        <v>571</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C278" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D278" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E278" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C279" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D279" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E279" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C280" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D280" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E280" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D281" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E281" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C282" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D282" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E282" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C283" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D283" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E283" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C284" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D284" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E284" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C285" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D285" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E285" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B286" t="s">
+        <v>820</v>
+      </c>
+      <c r="C286" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D286" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E286" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C287" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D287" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E287" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B288" t="s">
+        <v>406</v>
+      </c>
+      <c r="C288" t="s">
+        <v>388</v>
+      </c>
+      <c r="D288" t="s">
+        <v>398</v>
+      </c>
+      <c r="E288" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C289" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D289" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E289" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B290" t="s">
+        <v>123</v>
+      </c>
+      <c r="C290" t="s">
+        <v>124</v>
+      </c>
+      <c r="D290" t="s">
+        <v>616</v>
+      </c>
+      <c r="E290" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B291" t="s">
+        <v>133</v>
+      </c>
+      <c r="C291" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D291" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E291" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B292" t="s">
+        <v>128</v>
+      </c>
+      <c r="C292" t="s">
+        <v>129</v>
+      </c>
+      <c r="D292" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E292" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B293" t="s">
+        <v>138</v>
+      </c>
+      <c r="C293" t="s">
+        <v>139</v>
+      </c>
+      <c r="D293" t="s">
+        <v>140</v>
+      </c>
+      <c r="E293" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C294" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D294" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E294" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B295" t="s">
+        <v>492</v>
+      </c>
+      <c r="C295" t="s">
+        <v>493</v>
+      </c>
+      <c r="D295" t="s">
+        <v>494</v>
+      </c>
+      <c r="E295" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D296" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E296" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C297" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D297" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E297" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B298" t="s">
+        <v>16</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D298" t="s">
+        <v>18</v>
+      </c>
+      <c r="E298" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C299" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D299" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E299" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D300" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E300" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D301" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E301" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D302" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E302" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D303" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E303" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>133</v>
+      </c>
+      <c r="B304" t="s">
+        <v>133</v>
+      </c>
+      <c r="C304" t="s">
+        <v>134</v>
+      </c>
+      <c r="D304" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E304" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D305" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E305" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D306" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E306" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B307" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C307" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D307" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E307" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D308" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E308" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B309" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C309" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D309" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E309" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D310" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E310" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D311" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E311" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D312" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E312" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C313" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D313" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E313" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C314" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D314" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E314" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D315" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E315" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D316" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E316" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C317" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D317" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E317" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C318" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D318" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E318" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B319" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C319" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D319" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E319" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C320" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D320" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E320" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>569</v>
+      </c>
+      <c r="B321" t="s">
+        <v>609</v>
+      </c>
+      <c r="C321" t="s">
+        <v>569</v>
+      </c>
+      <c r="D321" t="s">
+        <v>570</v>
+      </c>
+      <c r="E321" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
         <v>593</v>
       </c>
-      <c r="B278" t="s">
-        <v>1266</v>
-      </c>
-      <c r="C278" t="s">
+      <c r="B322" t="s">
+        <v>609</v>
+      </c>
+      <c r="C322" t="s">
         <v>593</v>
       </c>
-      <c r="D278" t="s">
+      <c r="D322" t="s">
         <v>594</v>
       </c>
-      <c r="E278" t="s">
+      <c r="E322" t="s">
         <v>595</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D323" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E323" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D324" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E324" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C325" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D325" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E325" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C326" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D326" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E326" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C327" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D327" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E327" t="s">
+        <v>1377</v>
       </c>
     </row>
   </sheetData>
